--- a/rdf/skosplay-scma-001.xlsx
+++ b/rdf/skosplay-scma-001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://federationuniversity-my.sharepoint.com/personal/mr_wong_federation_edu_au/Documents/Documents/GitHub/def-au-scma/rdf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="562" documentId="13_ncr:1_{6B1694BC-93C5-43E3-9733-6BAF96533DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A2FB517-3EE7-4039-A463-666FCD6BD6A6}"/>
+  <xr:revisionPtr revIDLastSave="575" documentId="13_ncr:1_{6B1694BC-93C5-43E3-9733-6BAF96533DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94B977B9-0BBE-4488-A572-8227422EF4A2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={18599286-A473-45D7-85E2-C1993234C618}</author>
-    <author>tc={C18A0FD5-315B-473B-A9F1-5E6643B338A1}</author>
   </authors>
   <commentList>
     <comment ref="F21" authorId="0" shapeId="0" xr:uid="{18599286-A473-45D7-85E2-C1993234C618}">
@@ -42,14 +41,6 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     don't need both broader and narrower columns - they are generated by SKOS-Play! post-processing - https://skos-play.sparna.fr/play/convert#post-processings</t>
-      </text>
-    </comment>
-    <comment ref="I22" authorId="1" shapeId="0" xr:uid="{C18A0FD5-315B-473B-A9F1-5E6643B338A1}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    this was a concept left in version 1 but left out of version 2. It was replaced by nothing. I can't find a way to decribe this using OWL, SKOS or DCAT. I think we can just leave as is.</t>
       </text>
     </comment>
   </commentList>
@@ -3310,7 +3301,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3394,31 +3385,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3428,7 +3401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3492,16 +3465,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3510,15 +3480,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3543,12 +3509,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3571,7 +3542,6 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Cox, Simon (L&amp;W, Clayton)" id="{74AF7186-62D8-498B-BD29-BBBCF0E53A82}" userId="S::cox075@csiro.au::b436eb79-fb0b-4217-bf1c-e01eb388b91a" providerId="AD"/>
-  <person displayName="Megan Wong" id="{99177486-198E-428A-9705-D5B992404E6E}" userId="S::mr.wong@federation.edu.au::d6f3be56-5bc7-4fb2-ba32-ea369b2d057e" providerId="AD"/>
 </personList>
 </file>
 
@@ -3899,9 +3869,6 @@
   <threadedComment ref="F21" dT="2021-04-26T01:42:21.46" personId="{74AF7186-62D8-498B-BD29-BBBCF0E53A82}" id="{18599286-A473-45D7-85E2-C1993234C618}">
     <text>don't need both broader and narrower columns - they are generated by SKOS-Play! post-processing - https://skos-play.sparna.fr/play/convert#post-processings</text>
   </threadedComment>
-  <threadedComment ref="I22" dT="2022-03-02T05:33:34.51" personId="{99177486-198E-428A-9705-D5B992404E6E}" id="{C18A0FD5-315B-473B-A9F1-5E6643B338A1}">
-    <text>this was a concept left in version 1 but left out of version 2. It was replaced by nothing. I can't find a way to decribe this using OWL, SKOS or DCAT. I think we can just leave as is.</text>
-  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -3909,8 +3876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3923,8 +3890,8 @@
     <col min="6" max="6" width="16.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="24.140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="40.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="39.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="39.28515625" style="15" customWidth="1"/>
     <col min="11" max="11" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="11.42578125" style="3"/>
   </cols>
@@ -3933,11 +3900,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>634</v>
       </c>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3951,7 +3918,7 @@
       </c>
       <c r="D2" s="9"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3960,12 +3927,12 @@
       <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>635</v>
       </c>
       <c r="D3" s="9"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -3979,7 +3946,7 @@
       </c>
       <c r="D4" s="8"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -3993,7 +3960,7 @@
       </c>
       <c r="D5" s="8"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="43"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -4005,130 +3972,132 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="36" t="s">
         <v>634</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="41">
         <v>44197</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="41">
         <v>44312</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="43"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="40" t="s">
         <v>657</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="43"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="37" t="s">
         <v>637</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="38" t="s">
         <v>638</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="38" t="s">
         <v>639</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="43"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="39" t="s">
         <v>651</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="43"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="36" t="s">
         <v>653</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="18" spans="1:11" s="38" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="I16" s="43"/>
+    </row>
+    <row r="18" spans="1:11" s="35" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
     </row>
     <row r="19" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -4137,6 +4106,8 @@
       <c r="B19" s="7"/>
       <c r="E19" s="7"/>
       <c r="G19" s="7"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
     </row>
     <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
@@ -4145,8 +4116,10 @@
       <c r="B20" s="7"/>
       <c r="E20" s="7"/>
       <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+    </row>
+    <row r="21" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>8</v>
       </c>
@@ -4171,18 +4144,18 @@
       <c r="H21" s="20" t="s">
         <v>641</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="48" t="s">
         <v>659</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="K21" s="21" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="25" t="s">
         <v>794</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -4191,22 +4164,22 @@
       <c r="C22" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="23" t="s">
         <v>663</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F22"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="28" t="s">
+      <c r="G22" s="27"/>
+      <c r="H22" s="26" t="s">
         <v>798</v>
       </c>
-      <c r="I22" s="48"/>
-      <c r="J22" s="30" t="s">
+      <c r="I22" s="12"/>
+      <c r="J22" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="29" t="s">
+      <c r="K22" s="27" t="s">
         <v>650</v>
       </c>
     </row>
@@ -4220,25 +4193,25 @@
       <c r="C23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="23">
         <v>10</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F23"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29" t="s">
+      <c r="G23" s="27"/>
+      <c r="H23" s="27" t="s">
         <v>511</v>
       </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29" t="s">
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="27" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="24" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="19" t="s">
@@ -4247,7 +4220,7 @@
       <c r="C24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="23" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="19" t="s">
@@ -4257,17 +4230,17 @@
       <c r="G24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="27" t="s">
         <v>512</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29" t="s">
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="27" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="19" t="s">
@@ -4276,7 +4249,7 @@
       <c r="C25" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="23" t="s">
         <v>27</v>
       </c>
       <c r="E25" s="19" t="s">
@@ -4286,26 +4259,26 @@
       <c r="G25" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="H25" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29" t="s">
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="27" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="19" t="s">
@@ -4315,17 +4288,17 @@
       <c r="G26" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="29" t="s">
+      <c r="H26" s="27" t="s">
         <v>514</v>
       </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29" t="s">
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="27" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -4334,7 +4307,7 @@
       <c r="C27" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="23" t="s">
         <v>33</v>
       </c>
       <c r="E27" s="19" t="s">
@@ -4346,17 +4319,17 @@
       <c r="G27" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="29" t="s">
+      <c r="H27" s="27" t="s">
         <v>515</v>
       </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29" t="s">
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="27" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="24" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -4365,7 +4338,7 @@
       <c r="C28" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="23" t="s">
         <v>36</v>
       </c>
       <c r="E28" s="19" t="s">
@@ -4377,17 +4350,17 @@
       <c r="G28" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="29" t="s">
+      <c r="H28" s="27" t="s">
         <v>516</v>
       </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29" t="s">
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="27" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="24" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -4396,7 +4369,7 @@
       <c r="C29" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="23" t="s">
         <v>39</v>
       </c>
       <c r="E29" s="19" t="s">
@@ -4408,17 +4381,17 @@
       <c r="G29" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="29" t="s">
+      <c r="H29" s="27" t="s">
         <v>517</v>
       </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29" t="s">
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="27" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="24" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -4427,7 +4400,7 @@
       <c r="C30" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="23" t="s">
         <v>42</v>
       </c>
       <c r="E30" s="19" t="s">
@@ -4439,17 +4412,17 @@
       <c r="G30" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29" t="s">
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="27" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="24" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="19" t="s">
@@ -4458,7 +4431,7 @@
       <c r="C31" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E31" s="19" t="s">
@@ -4468,17 +4441,17 @@
       <c r="G31" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="29" t="s">
+      <c r="H31" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29" t="s">
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="27" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="24" t="s">
         <v>46</v>
       </c>
       <c r="B32" s="19" t="s">
@@ -4487,7 +4460,7 @@
       <c r="C32" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="23" t="s">
         <v>48</v>
       </c>
       <c r="E32" s="19" t="s">
@@ -4497,12 +4470,12 @@
       <c r="G32" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="29" t="s">
+      <c r="H32" s="27" t="s">
         <v>520</v>
       </c>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29" t="s">
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -4516,20 +4489,20 @@
       <c r="C33" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="23">
         <v>11</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>50</v>
       </c>
       <c r="F33"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29" t="s">
+      <c r="G33" s="27"/>
+      <c r="H33" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29" t="s">
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -4543,7 +4516,7 @@
       <c r="C34" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="23" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="19" t="s">
@@ -4553,12 +4526,12 @@
       <c r="G34" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="H34" s="29" t="s">
+      <c r="H34" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29" t="s">
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -4572,7 +4545,7 @@
       <c r="C35" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="23" t="s">
         <v>56</v>
       </c>
       <c r="E35" s="19" t="s">
@@ -4582,12 +4555,12 @@
       <c r="G35" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="29" t="s">
+      <c r="H35" s="27" t="s">
         <v>522</v>
       </c>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29" t="s">
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -4601,20 +4574,20 @@
       <c r="C36" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="23">
         <v>12</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>58</v>
       </c>
       <c r="F36"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29" t="s">
+      <c r="G36" s="27"/>
+      <c r="H36" s="27" t="s">
         <v>523</v>
       </c>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29" t="s">
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -4628,7 +4601,7 @@
       <c r="C37" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="23" t="s">
         <v>61</v>
       </c>
       <c r="E37" s="19" t="s">
@@ -4638,12 +4611,12 @@
       <c r="G37" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H37" s="29" t="s">
+      <c r="H37" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29" t="s">
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -4657,7 +4630,7 @@
       <c r="C38" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="23" t="s">
         <v>64</v>
       </c>
       <c r="E38" s="19" t="s">
@@ -4670,9 +4643,9 @@
       <c r="H38" t="s">
         <v>525</v>
       </c>
-      <c r="I38"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29" t="s">
+      <c r="I38" s="12"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -4686,7 +4659,7 @@
       <c r="C39" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="23" t="s">
         <v>67</v>
       </c>
       <c r="E39" s="19" t="s">
@@ -4696,12 +4669,12 @@
       <c r="G39" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="29" t="s">
+      <c r="H39" s="27" t="s">
         <v>526</v>
       </c>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29" t="s">
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -4715,7 +4688,7 @@
       <c r="C40" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="23" t="s">
         <v>70</v>
       </c>
       <c r="E40" s="19" t="s">
@@ -4728,9 +4701,9 @@
       <c r="H40" t="s">
         <v>527</v>
       </c>
-      <c r="I40"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29" t="s">
+      <c r="I40" s="12"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -4744,7 +4717,7 @@
       <c r="C41" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="23" t="s">
         <v>73</v>
       </c>
       <c r="E41" s="19" t="s">
@@ -4754,12 +4727,12 @@
       <c r="G41" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H41" s="29" t="s">
+      <c r="H41" s="27" t="s">
         <v>528</v>
       </c>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29" t="s">
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -4773,7 +4746,7 @@
       <c r="C42" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="23" t="s">
         <v>76</v>
       </c>
       <c r="E42" s="19" t="s">
@@ -4783,12 +4756,12 @@
       <c r="G42" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H42" s="29" t="s">
+      <c r="H42" s="27" t="s">
         <v>529</v>
       </c>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29" t="s">
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -4802,20 +4775,20 @@
       <c r="C43" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43" s="23">
         <v>13</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>78</v>
       </c>
       <c r="F43"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29" t="s">
+      <c r="G43" s="27"/>
+      <c r="H43" s="27" t="s">
         <v>530</v>
       </c>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29" t="s">
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -4829,7 +4802,7 @@
       <c r="C44" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="23" t="s">
         <v>81</v>
       </c>
       <c r="E44" s="19" t="s">
@@ -4839,12 +4812,12 @@
       <c r="G44" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="H44" s="29" t="s">
+      <c r="H44" s="27" t="s">
         <v>531</v>
       </c>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29" t="s">
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -4858,7 +4831,7 @@
       <c r="C45" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="23" t="s">
         <v>84</v>
       </c>
       <c r="E45" s="19" t="s">
@@ -4868,12 +4841,12 @@
       <c r="G45" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="H45" s="29" t="s">
+      <c r="H45" s="27" t="s">
         <v>532</v>
       </c>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29" t="s">
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -4887,7 +4860,7 @@
       <c r="C46" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="23" t="s">
         <v>87</v>
       </c>
       <c r="E46" s="19" t="s">
@@ -4897,12 +4870,12 @@
       <c r="G46" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="H46" s="29" t="s">
+      <c r="H46" s="27" t="s">
         <v>533</v>
       </c>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29" t="s">
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -4910,13 +4883,13 @@
       <c r="A47" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="23" t="s">
         <v>90</v>
       </c>
       <c r="E47" s="19" t="s">
@@ -4926,12 +4899,12 @@
       <c r="G47" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="H47" s="29" t="s">
+      <c r="H47" s="27" t="s">
         <v>534</v>
       </c>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29" t="s">
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -4945,7 +4918,7 @@
       <c r="C48" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="23" t="s">
         <v>93</v>
       </c>
       <c r="E48" s="19" t="s">
@@ -4957,12 +4930,12 @@
       <c r="G48" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="H48" s="29" t="s">
+      <c r="H48" s="27" t="s">
         <v>535</v>
       </c>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29" t="s">
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -4976,7 +4949,7 @@
       <c r="C49" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="23" t="s">
         <v>96</v>
       </c>
       <c r="E49" s="19" t="s">
@@ -4988,12 +4961,12 @@
       <c r="G49" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="H49" s="29" t="s">
+      <c r="H49" s="27" t="s">
         <v>536</v>
       </c>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29" t="s">
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5007,20 +4980,20 @@
       <c r="C50" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="24">
+      <c r="D50" s="23">
         <v>14</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>98</v>
       </c>
       <c r="F50"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29" t="s">
+      <c r="G50" s="27"/>
+      <c r="H50" s="27" t="s">
         <v>537</v>
       </c>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29" t="s">
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5034,7 +5007,7 @@
       <c r="C51" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="23" t="s">
         <v>101</v>
       </c>
       <c r="E51" s="19" t="s">
@@ -5044,12 +5017,12 @@
       <c r="G51" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H51" s="29" t="s">
+      <c r="H51" s="27" t="s">
         <v>538</v>
       </c>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29" t="s">
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5063,7 +5036,7 @@
       <c r="C52" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="23" t="s">
         <v>104</v>
       </c>
       <c r="E52" s="19" t="s">
@@ -5073,12 +5046,12 @@
       <c r="G52" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H52" s="29" t="s">
+      <c r="H52" s="27" t="s">
         <v>539</v>
       </c>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29" t="s">
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5092,7 +5065,7 @@
       <c r="C53" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="23" t="s">
         <v>107</v>
       </c>
       <c r="E53" s="19" t="s">
@@ -5102,12 +5075,12 @@
       <c r="G53" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H53" s="29" t="s">
+      <c r="H53" s="27" t="s">
         <v>540</v>
       </c>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29" t="s">
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5121,7 +5094,7 @@
       <c r="C54" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="23" t="s">
         <v>110</v>
       </c>
       <c r="E54" s="19" t="s">
@@ -5131,12 +5104,12 @@
       <c r="G54" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H54" s="29" t="s">
+      <c r="H54" s="27" t="s">
         <v>541</v>
       </c>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29" t="s">
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5150,7 +5123,7 @@
       <c r="C55" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="23" t="s">
         <v>113</v>
       </c>
       <c r="E55" s="19" t="s">
@@ -5160,12 +5133,12 @@
       <c r="G55" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H55" s="29" t="s">
+      <c r="H55" s="27" t="s">
         <v>542</v>
       </c>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29" t="s">
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5179,7 +5152,7 @@
       <c r="C56" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="23" t="s">
         <v>116</v>
       </c>
       <c r="E56" s="19" t="s">
@@ -5189,12 +5162,12 @@
       <c r="G56" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H56" s="29" t="s">
+      <c r="H56" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29" t="s">
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5208,7 +5181,7 @@
       <c r="C57" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="23" t="s">
         <v>119</v>
       </c>
       <c r="E57" s="19" t="s">
@@ -5218,12 +5191,12 @@
       <c r="G57" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H57" s="29" t="s">
+      <c r="H57" s="27" t="s">
         <v>544</v>
       </c>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29" t="s">
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5237,7 +5210,7 @@
       <c r="C58" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="23" t="s">
         <v>122</v>
       </c>
       <c r="E58" s="19" t="s">
@@ -5247,12 +5220,12 @@
       <c r="G58" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H58" s="29" t="s">
+      <c r="H58" s="27" t="s">
         <v>545</v>
       </c>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29" t="s">
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5266,7 +5239,7 @@
       <c r="C59" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="23" t="s">
         <v>125</v>
       </c>
       <c r="E59" s="19" t="s">
@@ -5276,12 +5249,12 @@
       <c r="G59" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H59" s="29" t="s">
+      <c r="H59" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29" t="s">
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5289,13 +5262,13 @@
       <c r="A60" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C60" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="D60" s="23" t="s">
         <v>128</v>
       </c>
       <c r="E60" s="19" t="s">
@@ -5305,14 +5278,14 @@
       <c r="G60" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H60" s="29" t="s">
+      <c r="H60" s="27" t="s">
         <v>547</v>
       </c>
-      <c r="I60" s="45" t="s">
+      <c r="I60" s="31" t="s">
         <v>660</v>
       </c>
-      <c r="J60" s="46"/>
-      <c r="K60" s="29" t="s">
+      <c r="J60" s="32"/>
+      <c r="K60" s="27" t="s">
         <v>650</v>
       </c>
     </row>
@@ -5326,7 +5299,7 @@
       <c r="C61" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="23" t="s">
         <v>131</v>
       </c>
       <c r="E61" s="19" t="s">
@@ -5338,12 +5311,12 @@
       <c r="G61" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H61" s="29" t="s">
+      <c r="H61" s="27" t="s">
         <v>548</v>
       </c>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29" t="s">
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5357,7 +5330,7 @@
       <c r="C62" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D62" s="24" t="s">
+      <c r="D62" s="23" t="s">
         <v>134</v>
       </c>
       <c r="E62" s="19" t="s">
@@ -5369,12 +5342,12 @@
       <c r="G62" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H62" s="29" t="s">
+      <c r="H62" s="27" t="s">
         <v>549</v>
       </c>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29" t="s">
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5388,7 +5361,7 @@
       <c r="C63" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="23" t="s">
         <v>137</v>
       </c>
       <c r="E63" s="19" t="s">
@@ -5398,12 +5371,12 @@
       <c r="G63" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H63" s="29" t="s">
+      <c r="H63" s="27" t="s">
         <v>550</v>
       </c>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29" t="s">
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5417,7 +5390,7 @@
       <c r="C64" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D64" s="24" t="s">
+      <c r="D64" s="23" t="s">
         <v>140</v>
       </c>
       <c r="E64" s="19" t="s">
@@ -5427,12 +5400,12 @@
       <c r="G64" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H64" s="29" t="s">
+      <c r="H64" s="27" t="s">
         <v>551</v>
       </c>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29" t="s">
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5446,7 +5419,7 @@
       <c r="C65" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="23" t="s">
         <v>143</v>
       </c>
       <c r="E65" s="19" t="s">
@@ -5456,12 +5429,12 @@
       <c r="G65" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H65" s="29" t="s">
+      <c r="H65" s="27" t="s">
         <v>552</v>
       </c>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29" t="s">
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5475,7 +5448,7 @@
       <c r="C66" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="D66" s="23" t="s">
         <v>146</v>
       </c>
       <c r="E66" s="19" t="s">
@@ -5485,12 +5458,12 @@
       <c r="G66" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H66" s="29" t="s">
+      <c r="H66" s="27" t="s">
         <v>553</v>
       </c>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29" t="s">
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5504,7 +5477,7 @@
       <c r="C67" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="D67" s="23" t="s">
         <v>149</v>
       </c>
       <c r="E67" s="19" t="s">
@@ -5514,12 +5487,12 @@
       <c r="G67" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H67" s="29" t="s">
+      <c r="H67" s="27" t="s">
         <v>554</v>
       </c>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29" t="s">
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5527,13 +5500,13 @@
       <c r="A68" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C68" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="D68" s="24" t="s">
+      <c r="D68" s="23" t="s">
         <v>152</v>
       </c>
       <c r="E68" s="19" t="s">
@@ -5543,14 +5516,14 @@
       <c r="G68" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H68" s="29" t="s">
+      <c r="H68" s="27" t="s">
         <v>555</v>
       </c>
-      <c r="I68" s="46" t="s">
+      <c r="I68" s="32" t="s">
         <v>661</v>
       </c>
-      <c r="J68" s="46"/>
-      <c r="K68" s="29" t="s">
+      <c r="J68" s="32"/>
+      <c r="K68" s="27" t="s">
         <v>650</v>
       </c>
     </row>
@@ -5564,7 +5537,7 @@
       <c r="C69" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="D69" s="24" t="s">
+      <c r="D69" s="23" t="s">
         <v>155</v>
       </c>
       <c r="E69" s="19" t="s">
@@ -5576,12 +5549,12 @@
       <c r="G69" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H69" s="29" t="s">
+      <c r="H69" s="27" t="s">
         <v>556</v>
       </c>
-      <c r="I69" s="29"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="29" t="s">
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5595,7 +5568,7 @@
       <c r="C70" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D70" s="24" t="s">
+      <c r="D70" s="23" t="s">
         <v>158</v>
       </c>
       <c r="E70" s="19" t="s">
@@ -5607,12 +5580,12 @@
       <c r="G70" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H70" s="29" t="s">
+      <c r="H70" s="27" t="s">
         <v>557</v>
       </c>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29" t="s">
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5626,7 +5599,7 @@
       <c r="C71" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D71" s="24" t="s">
+      <c r="D71" s="23" t="s">
         <v>161</v>
       </c>
       <c r="E71" s="19" t="s">
@@ -5636,12 +5609,12 @@
       <c r="G71" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H71" s="29" t="s">
+      <c r="H71" s="27" t="s">
         <v>558</v>
       </c>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="29" t="s">
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5649,13 +5622,13 @@
       <c r="A72" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="D72" s="24" t="s">
+      <c r="D72" s="23" t="s">
         <v>164</v>
       </c>
       <c r="E72" s="19" t="s">
@@ -5665,14 +5638,14 @@
       <c r="G72" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H72" s="29" t="s">
+      <c r="H72" s="27" t="s">
         <v>559</v>
       </c>
-      <c r="I72" s="46" t="s">
+      <c r="I72" s="32" t="s">
         <v>662</v>
       </c>
-      <c r="J72" s="46"/>
-      <c r="K72" s="29" t="s">
+      <c r="J72" s="32"/>
+      <c r="K72" s="27" t="s">
         <v>650</v>
       </c>
     </row>
@@ -5686,7 +5659,7 @@
       <c r="C73" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="D73" s="24" t="s">
+      <c r="D73" s="23" t="s">
         <v>167</v>
       </c>
       <c r="E73" s="19" t="s">
@@ -5698,12 +5671,12 @@
       <c r="G73" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H73" s="29" t="s">
+      <c r="H73" s="27" t="s">
         <v>560</v>
       </c>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29" t="s">
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5717,7 +5690,7 @@
       <c r="C74" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D74" s="24" t="s">
+      <c r="D74" s="23" t="s">
         <v>170</v>
       </c>
       <c r="E74" s="19" t="s">
@@ -5729,12 +5702,12 @@
       <c r="G74" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H74" s="29" t="s">
+      <c r="H74" s="27" t="s">
         <v>561</v>
       </c>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29" t="s">
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5748,7 +5721,7 @@
       <c r="C75" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="D75" s="24" t="s">
+      <c r="D75" s="23" t="s">
         <v>173</v>
       </c>
       <c r="E75" s="19" t="s">
@@ -5758,12 +5731,12 @@
       <c r="G75" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H75" s="29" t="s">
+      <c r="H75" s="27" t="s">
         <v>562</v>
       </c>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="29" t="s">
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5777,20 +5750,20 @@
       <c r="C76" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D76" s="24">
+      <c r="D76" s="23">
         <v>15</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>175</v>
       </c>
       <c r="F76"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29" t="s">
+      <c r="G76" s="27"/>
+      <c r="H76" s="27" t="s">
         <v>563</v>
       </c>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="29" t="s">
+      <c r="I76" s="32"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5804,7 +5777,7 @@
       <c r="C77" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D77" s="24" t="s">
+      <c r="D77" s="23" t="s">
         <v>178</v>
       </c>
       <c r="E77" s="19" t="s">
@@ -5814,12 +5787,12 @@
       <c r="G77" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H77" s="29" t="s">
+      <c r="H77" s="27" t="s">
         <v>564</v>
       </c>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="29" t="s">
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5833,7 +5806,7 @@
       <c r="C78" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="D78" s="24" t="s">
+      <c r="D78" s="23" t="s">
         <v>181</v>
       </c>
       <c r="E78" s="19" t="s">
@@ -5843,12 +5816,12 @@
       <c r="G78" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H78" s="29" t="s">
+      <c r="H78" s="27" t="s">
         <v>565</v>
       </c>
-      <c r="I78" s="29"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="29" t="s">
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5862,7 +5835,7 @@
       <c r="C79" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="D79" s="24" t="s">
+      <c r="D79" s="23" t="s">
         <v>184</v>
       </c>
       <c r="E79" s="19" t="s">
@@ -5872,12 +5845,12 @@
       <c r="G79" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H79" s="29" t="s">
+      <c r="H79" s="27" t="s">
         <v>566</v>
       </c>
-      <c r="I79" s="29"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="29" t="s">
+      <c r="I79" s="32"/>
+      <c r="J79" s="32"/>
+      <c r="K79" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5891,7 +5864,7 @@
       <c r="C80" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D80" s="24" t="s">
+      <c r="D80" s="23" t="s">
         <v>187</v>
       </c>
       <c r="E80" s="19" t="s">
@@ -5901,12 +5874,12 @@
       <c r="G80" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H80" s="29" t="s">
+      <c r="H80" s="27" t="s">
         <v>567</v>
       </c>
-      <c r="I80" s="29"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="29" t="s">
+      <c r="I80" s="32"/>
+      <c r="J80" s="32"/>
+      <c r="K80" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5920,7 +5893,7 @@
       <c r="C81" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D81" s="24" t="s">
+      <c r="D81" s="23" t="s">
         <v>190</v>
       </c>
       <c r="E81" s="19" t="s">
@@ -5930,12 +5903,12 @@
       <c r="G81" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H81" s="29" t="s">
+      <c r="H81" s="27" t="s">
         <v>568</v>
       </c>
-      <c r="I81" s="29"/>
-      <c r="J81" s="29"/>
-      <c r="K81" s="29" t="s">
+      <c r="I81" s="32"/>
+      <c r="J81" s="32"/>
+      <c r="K81" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5949,7 +5922,7 @@
       <c r="C82" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="D82" s="24" t="s">
+      <c r="D82" s="23" t="s">
         <v>193</v>
       </c>
       <c r="E82" s="19" t="s">
@@ -5959,12 +5932,12 @@
       <c r="G82" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H82" s="29" t="s">
+      <c r="H82" s="27" t="s">
         <v>569</v>
       </c>
-      <c r="I82" s="29"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="29" t="s">
+      <c r="I82" s="32"/>
+      <c r="J82" s="32"/>
+      <c r="K82" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5978,7 +5951,7 @@
       <c r="C83" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="D83" s="24" t="s">
+      <c r="D83" s="23" t="s">
         <v>196</v>
       </c>
       <c r="E83" s="19" t="s">
@@ -5988,12 +5961,12 @@
       <c r="G83" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H83" s="29" t="s">
+      <c r="H83" s="27" t="s">
         <v>570</v>
       </c>
-      <c r="I83" s="29"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="29" t="s">
+      <c r="I83" s="32"/>
+      <c r="J83" s="32"/>
+      <c r="K83" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6007,7 +5980,7 @@
       <c r="C84" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D84" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E84" s="19" t="s">
@@ -6017,12 +5990,12 @@
       <c r="G84" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H84" s="29" t="s">
+      <c r="H84" s="27" t="s">
         <v>571</v>
       </c>
-      <c r="I84" s="29"/>
-      <c r="J84" s="29"/>
-      <c r="K84" s="29" t="s">
+      <c r="I84" s="32"/>
+      <c r="J84" s="32"/>
+      <c r="K84" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6036,7 +6009,7 @@
       <c r="C85" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="D85" s="24" t="s">
+      <c r="D85" s="23" t="s">
         <v>202</v>
       </c>
       <c r="E85" s="19" t="s">
@@ -6046,12 +6019,12 @@
       <c r="G85" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H85" s="29" t="s">
+      <c r="H85" s="27" t="s">
         <v>572</v>
       </c>
-      <c r="I85" s="29"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="29" t="s">
+      <c r="I85" s="32"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6065,7 +6038,7 @@
       <c r="C86" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="D86" s="24" t="s">
+      <c r="D86" s="23" t="s">
         <v>205</v>
       </c>
       <c r="E86" s="19" t="s">
@@ -6075,12 +6048,12 @@
       <c r="G86" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H86" s="29" t="s">
+      <c r="H86" s="27" t="s">
         <v>573</v>
       </c>
-      <c r="I86" s="29"/>
-      <c r="J86" s="29"/>
-      <c r="K86" s="29" t="s">
+      <c r="I86" s="32"/>
+      <c r="J86" s="32"/>
+      <c r="K86" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6094,7 +6067,7 @@
       <c r="C87" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="D87" s="24" t="s">
+      <c r="D87" s="23" t="s">
         <v>208</v>
       </c>
       <c r="E87" s="19" t="s">
@@ -6104,12 +6077,12 @@
       <c r="G87" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H87" s="29" t="s">
+      <c r="H87" s="27" t="s">
         <v>574</v>
       </c>
-      <c r="I87" s="29"/>
-      <c r="J87" s="29"/>
-      <c r="K87" s="29" t="s">
+      <c r="I87" s="32"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6123,7 +6096,7 @@
       <c r="C88" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="D88" s="24" t="s">
+      <c r="D88" s="23" t="s">
         <v>211</v>
       </c>
       <c r="E88" s="19" t="s">
@@ -6133,12 +6106,12 @@
       <c r="G88" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H88" s="29" t="s">
+      <c r="H88" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="I88" s="29"/>
-      <c r="J88" s="29"/>
-      <c r="K88" s="29" t="s">
+      <c r="I88" s="32"/>
+      <c r="J88" s="32"/>
+      <c r="K88" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6152,7 +6125,7 @@
       <c r="C89" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="D89" s="24" t="s">
+      <c r="D89" s="23" t="s">
         <v>214</v>
       </c>
       <c r="E89" s="19" t="s">
@@ -6162,12 +6135,12 @@
       <c r="G89" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H89" s="29" t="s">
+      <c r="H89" s="27" t="s">
         <v>576</v>
       </c>
-      <c r="I89" s="29"/>
-      <c r="J89" s="29"/>
-      <c r="K89" s="29" t="s">
+      <c r="I89" s="32"/>
+      <c r="J89" s="32"/>
+      <c r="K89" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6181,7 +6154,7 @@
       <c r="C90" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="D90" s="24" t="s">
+      <c r="D90" s="23" t="s">
         <v>217</v>
       </c>
       <c r="E90" s="19" t="s">
@@ -6191,12 +6164,12 @@
       <c r="G90" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H90" s="29" t="s">
+      <c r="H90" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="I90" s="29"/>
-      <c r="J90" s="29"/>
-      <c r="K90" s="29" t="s">
+      <c r="I90" s="32"/>
+      <c r="J90" s="32"/>
+      <c r="K90" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6210,7 +6183,7 @@
       <c r="C91" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="D91" s="24" t="s">
+      <c r="D91" s="23" t="s">
         <v>220</v>
       </c>
       <c r="E91" s="19" t="s">
@@ -6220,12 +6193,12 @@
       <c r="G91" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H91" s="29" t="s">
+      <c r="H91" s="27" t="s">
         <v>578</v>
       </c>
-      <c r="I91" s="29"/>
-      <c r="J91" s="29"/>
-      <c r="K91" s="29" t="s">
+      <c r="I91" s="32"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6239,7 +6212,7 @@
       <c r="C92" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="D92" s="24" t="s">
+      <c r="D92" s="23" t="s">
         <v>223</v>
       </c>
       <c r="E92" s="19" t="s">
@@ -6249,12 +6222,12 @@
       <c r="G92" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H92" s="29" t="s">
+      <c r="H92" s="27" t="s">
         <v>579</v>
       </c>
-      <c r="I92" s="29"/>
-      <c r="J92" s="29"/>
-      <c r="K92" s="29" t="s">
+      <c r="I92" s="32"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6268,7 +6241,7 @@
       <c r="C93" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D93" s="24" t="s">
+      <c r="D93" s="23" t="s">
         <v>226</v>
       </c>
       <c r="E93" s="19" t="s">
@@ -6278,12 +6251,12 @@
       <c r="G93" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H93" s="29" t="s">
+      <c r="H93" s="27" t="s">
         <v>580</v>
       </c>
-      <c r="I93" s="29"/>
-      <c r="J93" s="29"/>
-      <c r="K93" s="29" t="s">
+      <c r="I93" s="32"/>
+      <c r="J93" s="32"/>
+      <c r="K93" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6297,7 +6270,7 @@
       <c r="C94" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="D94" s="24" t="s">
+      <c r="D94" s="23" t="s">
         <v>229</v>
       </c>
       <c r="E94" s="19" t="s">
@@ -6307,12 +6280,12 @@
       <c r="G94" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H94" s="29" t="s">
+      <c r="H94" s="27" t="s">
         <v>581</v>
       </c>
-      <c r="I94" s="29"/>
-      <c r="J94" s="29"/>
-      <c r="K94" s="29" t="s">
+      <c r="I94" s="32"/>
+      <c r="J94" s="32"/>
+      <c r="K94" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6326,7 +6299,7 @@
       <c r="C95" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="D95" s="24" t="s">
+      <c r="D95" s="23" t="s">
         <v>232</v>
       </c>
       <c r="E95" s="19" t="s">
@@ -6336,12 +6309,12 @@
       <c r="G95" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H95" s="29" t="s">
+      <c r="H95" s="27" t="s">
         <v>582</v>
       </c>
-      <c r="I95" s="29"/>
-      <c r="J95" s="29"/>
-      <c r="K95" s="29" t="s">
+      <c r="I95" s="32"/>
+      <c r="J95" s="32"/>
+      <c r="K95" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6355,7 +6328,7 @@
       <c r="C96" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="D96" s="24" t="s">
+      <c r="D96" s="23" t="s">
         <v>235</v>
       </c>
       <c r="E96" s="19" t="s">
@@ -6365,12 +6338,12 @@
       <c r="G96" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H96" s="29" t="s">
+      <c r="H96" s="27" t="s">
         <v>583</v>
       </c>
-      <c r="I96" s="29"/>
-      <c r="J96" s="29"/>
-      <c r="K96" s="29" t="s">
+      <c r="I96" s="32"/>
+      <c r="J96" s="32"/>
+      <c r="K96" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6384,7 +6357,7 @@
       <c r="C97" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="D97" s="24" t="s">
+      <c r="D97" s="23" t="s">
         <v>238</v>
       </c>
       <c r="E97" s="19" t="s">
@@ -6394,12 +6367,12 @@
       <c r="G97" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H97" s="29" t="s">
+      <c r="H97" s="27" t="s">
         <v>584</v>
       </c>
-      <c r="I97" s="29"/>
-      <c r="J97" s="29"/>
-      <c r="K97" s="29" t="s">
+      <c r="I97" s="32"/>
+      <c r="J97" s="32"/>
+      <c r="K97" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6413,7 +6386,7 @@
       <c r="C98" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D98" s="24" t="s">
+      <c r="D98" s="23" t="s">
         <v>241</v>
       </c>
       <c r="E98" s="19" t="s">
@@ -6423,12 +6396,12 @@
       <c r="G98" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H98" s="29" t="s">
+      <c r="H98" s="27" t="s">
         <v>585</v>
       </c>
-      <c r="I98" s="29"/>
-      <c r="J98" s="29"/>
-      <c r="K98" s="29" t="s">
+      <c r="I98" s="32"/>
+      <c r="J98" s="32"/>
+      <c r="K98" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6442,7 +6415,7 @@
       <c r="C99" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D99" s="24" t="s">
+      <c r="D99" s="23" t="s">
         <v>244</v>
       </c>
       <c r="E99" s="19" t="s">
@@ -6452,12 +6425,12 @@
       <c r="G99" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H99" s="29" t="s">
+      <c r="H99" s="27" t="s">
         <v>586</v>
       </c>
-      <c r="I99" s="29"/>
-      <c r="J99" s="29"/>
-      <c r="K99" s="29" t="s">
+      <c r="I99" s="32"/>
+      <c r="J99" s="32"/>
+      <c r="K99" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6471,7 +6444,7 @@
       <c r="C100" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="D100" s="24" t="s">
+      <c r="D100" s="23" t="s">
         <v>247</v>
       </c>
       <c r="E100" s="19" t="s">
@@ -6481,12 +6454,12 @@
       <c r="G100" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H100" s="29" t="s">
+      <c r="H100" s="27" t="s">
         <v>587</v>
       </c>
-      <c r="I100" s="29"/>
-      <c r="J100" s="29"/>
-      <c r="K100" s="29" t="s">
+      <c r="I100" s="32"/>
+      <c r="J100" s="32"/>
+      <c r="K100" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6500,7 +6473,7 @@
       <c r="C101" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="D101" s="24" t="s">
+      <c r="D101" s="23" t="s">
         <v>250</v>
       </c>
       <c r="E101" s="19" t="s">
@@ -6510,12 +6483,12 @@
       <c r="G101" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H101" s="29" t="s">
+      <c r="H101" s="27" t="s">
         <v>588</v>
       </c>
-      <c r="I101" s="29"/>
-      <c r="J101" s="29"/>
-      <c r="K101" s="29" t="s">
+      <c r="I101" s="32"/>
+      <c r="J101" s="32"/>
+      <c r="K101" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6529,7 +6502,7 @@
       <c r="C102" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D102" s="24" t="s">
+      <c r="D102" s="23" t="s">
         <v>253</v>
       </c>
       <c r="E102" s="19" t="s">
@@ -6539,12 +6512,12 @@
       <c r="G102" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H102" s="29" t="s">
+      <c r="H102" s="27" t="s">
         <v>589</v>
       </c>
-      <c r="I102" s="29"/>
-      <c r="J102" s="29"/>
-      <c r="K102" s="29" t="s">
+      <c r="I102" s="32"/>
+      <c r="J102" s="32"/>
+      <c r="K102" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6558,7 +6531,7 @@
       <c r="C103" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="D103" s="24" t="s">
+      <c r="D103" s="23" t="s">
         <v>256</v>
       </c>
       <c r="E103" s="19" t="s">
@@ -6568,12 +6541,12 @@
       <c r="G103" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H103" s="29" t="s">
+      <c r="H103" s="27" t="s">
         <v>590</v>
       </c>
-      <c r="I103" s="29"/>
-      <c r="J103" s="29"/>
-      <c r="K103" s="29" t="s">
+      <c r="I103" s="32"/>
+      <c r="J103" s="32"/>
+      <c r="K103" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6587,7 +6560,7 @@
       <c r="C104" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="D104" s="24" t="s">
+      <c r="D104" s="23" t="s">
         <v>259</v>
       </c>
       <c r="E104" s="19" t="s">
@@ -6597,12 +6570,12 @@
       <c r="G104" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H104" s="29" t="s">
+      <c r="H104" s="27" t="s">
         <v>591</v>
       </c>
-      <c r="I104" s="29"/>
-      <c r="J104" s="29"/>
-      <c r="K104" s="29" t="s">
+      <c r="I104" s="32"/>
+      <c r="J104" s="32"/>
+      <c r="K104" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6616,7 +6589,7 @@
       <c r="C105" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="D105" s="24" t="s">
+      <c r="D105" s="23" t="s">
         <v>262</v>
       </c>
       <c r="E105" s="19" t="s">
@@ -6626,12 +6599,12 @@
       <c r="G105" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H105" s="29" t="s">
+      <c r="H105" s="27" t="s">
         <v>592</v>
       </c>
-      <c r="I105" s="29"/>
-      <c r="J105" s="29"/>
-      <c r="K105" s="29" t="s">
+      <c r="I105" s="32"/>
+      <c r="J105" s="32"/>
+      <c r="K105" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6645,20 +6618,20 @@
       <c r="C106" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="D106" s="24">
+      <c r="D106" s="23">
         <v>16</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>264</v>
       </c>
       <c r="F106"/>
-      <c r="G106" s="31"/>
-      <c r="H106" s="29" t="s">
+      <c r="G106" s="28"/>
+      <c r="H106" s="27" t="s">
         <v>593</v>
       </c>
-      <c r="I106" s="29"/>
-      <c r="J106" s="29"/>
-      <c r="K106" s="29" t="s">
+      <c r="I106" s="32"/>
+      <c r="J106" s="32"/>
+      <c r="K106" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6672,7 +6645,7 @@
       <c r="C107" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="D107" s="24" t="s">
+      <c r="D107" s="23" t="s">
         <v>267</v>
       </c>
       <c r="E107" s="19" t="s">
@@ -6682,12 +6655,12 @@
       <c r="G107" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="H107" s="29" t="s">
+      <c r="H107" s="27" t="s">
         <v>594</v>
       </c>
-      <c r="I107" s="29"/>
-      <c r="J107" s="29"/>
-      <c r="K107" s="29" t="s">
+      <c r="I107" s="32"/>
+      <c r="J107" s="32"/>
+      <c r="K107" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6701,7 +6674,7 @@
       <c r="C108" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="D108" s="24" t="s">
+      <c r="D108" s="23" t="s">
         <v>270</v>
       </c>
       <c r="E108" s="19" t="s">
@@ -6711,12 +6684,12 @@
       <c r="G108" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="H108" s="29" t="s">
+      <c r="H108" s="27" t="s">
         <v>595</v>
       </c>
-      <c r="I108" s="29"/>
-      <c r="J108" s="29"/>
-      <c r="K108" s="29" t="s">
+      <c r="I108" s="32"/>
+      <c r="J108" s="32"/>
+      <c r="K108" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6730,7 +6703,7 @@
       <c r="C109" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="D109" s="24" t="s">
+      <c r="D109" s="23" t="s">
         <v>273</v>
       </c>
       <c r="E109" s="19" t="s">
@@ -6740,12 +6713,12 @@
       <c r="G109" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="H109" s="29" t="s">
+      <c r="H109" s="27" t="s">
         <v>596</v>
       </c>
-      <c r="I109" s="29"/>
-      <c r="J109" s="29"/>
-      <c r="K109" s="29" t="s">
+      <c r="I109" s="32"/>
+      <c r="J109" s="32"/>
+      <c r="K109" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6759,7 +6732,7 @@
       <c r="C110" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="D110" s="24" t="s">
+      <c r="D110" s="23" t="s">
         <v>276</v>
       </c>
       <c r="E110" s="19" t="s">
@@ -6769,12 +6742,12 @@
       <c r="G110" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="H110" s="29" t="s">
+      <c r="H110" s="27" t="s">
         <v>597</v>
       </c>
-      <c r="I110" s="29"/>
-      <c r="J110" s="29"/>
-      <c r="K110" s="29" t="s">
+      <c r="I110" s="32"/>
+      <c r="J110" s="32"/>
+      <c r="K110" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6788,20 +6761,20 @@
       <c r="C111" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="D111" s="24">
+      <c r="D111" s="23">
         <v>17</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>278</v>
       </c>
       <c r="F111"/>
-      <c r="G111" s="31"/>
-      <c r="H111" s="29" t="s">
+      <c r="G111" s="28"/>
+      <c r="H111" s="27" t="s">
         <v>598</v>
       </c>
-      <c r="I111" s="29"/>
-      <c r="J111" s="29"/>
-      <c r="K111" s="29" t="s">
+      <c r="I111" s="32"/>
+      <c r="J111" s="32"/>
+      <c r="K111" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6815,7 +6788,7 @@
       <c r="C112" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="D112" s="24" t="s">
+      <c r="D112" s="23" t="s">
         <v>281</v>
       </c>
       <c r="E112" s="19" t="s">
@@ -6825,12 +6798,12 @@
       <c r="G112" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="H112" s="29" t="s">
+      <c r="H112" s="27" t="s">
         <v>599</v>
       </c>
-      <c r="I112" s="29"/>
-      <c r="J112" s="29"/>
-      <c r="K112" s="29" t="s">
+      <c r="I112" s="32"/>
+      <c r="J112" s="32"/>
+      <c r="K112" s="27" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6844,7 +6817,7 @@
       <c r="C113" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="D113" s="24" t="s">
+      <c r="D113" s="23" t="s">
         <v>284</v>
       </c>
       <c r="E113" s="19" t="s">
@@ -6854,4897 +6827,4951 @@
       <c r="G113" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="H113" s="29" t="s">
+      <c r="H113" s="27" t="s">
         <v>600</v>
       </c>
-      <c r="I113" s="29"/>
-      <c r="J113" s="29"/>
-      <c r="K113" s="29" t="s">
+      <c r="I113" s="32"/>
+      <c r="J113" s="32"/>
+      <c r="K113" s="27" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="114" spans="1:11" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="33" t="s">
+      <c r="A114" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="B114" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C114" s="33" t="s">
+      <c r="B114" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="D114" s="34" t="s">
+      <c r="D114" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="E114" s="33" t="s">
+      <c r="E114" s="30" t="s">
         <v>286</v>
       </c>
       <c r="F114" s="12"/>
       <c r="G114" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="H114" s="35" t="s">
+      <c r="H114" s="32" t="s">
         <v>601</v>
       </c>
-      <c r="I114" s="35"/>
-      <c r="J114" s="35"/>
-      <c r="K114" s="35" t="s">
+      <c r="I114" s="32"/>
+      <c r="J114" s="32"/>
+      <c r="K114" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="115" spans="1:11" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A115" s="33" t="s">
+      <c r="A115" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="B115" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C115" s="33" t="s">
+      <c r="B115" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="D115" s="34" t="s">
+      <c r="D115" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="E115" s="33" t="s">
+      <c r="E115" s="30" t="s">
         <v>289</v>
       </c>
       <c r="F115" s="12"/>
       <c r="G115" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="H115" s="35" t="s">
+      <c r="H115" s="32" t="s">
         <v>602</v>
       </c>
-      <c r="I115" s="35"/>
-      <c r="J115" s="35"/>
-      <c r="K115" s="35" t="s">
+      <c r="I115" s="32"/>
+      <c r="J115" s="32"/>
+      <c r="K115" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="116" spans="1:11" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" s="33" t="s">
+      <c r="A116" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="B116" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C116" s="33" t="s">
+      <c r="B116" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C116" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="D116" s="34" t="s">
+      <c r="D116" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="E116" s="33" t="s">
+      <c r="E116" s="30" t="s">
         <v>292</v>
       </c>
       <c r="F116" s="12"/>
       <c r="G116" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="H116" s="35" t="s">
+      <c r="H116" s="32" t="s">
         <v>603</v>
       </c>
-      <c r="I116" s="35"/>
-      <c r="J116" s="35"/>
-      <c r="K116" s="35" t="s">
+      <c r="I116" s="32"/>
+      <c r="J116" s="32"/>
+      <c r="K116" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="117" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="33" t="s">
+      <c r="A117" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="B117" s="33" t="s">
+      <c r="B117" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C117" s="33" t="s">
+      <c r="C117" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="D117" s="34">
+      <c r="D117" s="31">
         <v>18</v>
       </c>
-      <c r="E117" s="33" t="s">
+      <c r="E117" s="30" t="s">
         <v>295</v>
       </c>
       <c r="F117" s="12"/>
-      <c r="G117" s="36"/>
-      <c r="H117" s="35" t="s">
+      <c r="G117" s="33"/>
+      <c r="H117" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="I117" s="35"/>
-      <c r="J117" s="35"/>
-      <c r="K117" s="35" t="s">
+      <c r="I117" s="32"/>
+      <c r="J117" s="32"/>
+      <c r="K117" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="118" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="33" t="s">
+      <c r="A118" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="B118" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C118" s="33" t="s">
+      <c r="B118" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="D118" s="34" t="s">
+      <c r="D118" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="E118" s="33" t="s">
+      <c r="E118" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F118" s="12"/>
-      <c r="G118" s="33" t="s">
+      <c r="G118" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="H118" s="35" t="s">
+      <c r="H118" s="32" t="s">
         <v>605</v>
       </c>
-      <c r="I118" s="35"/>
-      <c r="J118" s="35"/>
-      <c r="K118" s="35" t="s">
+      <c r="I118" s="32"/>
+      <c r="J118" s="32"/>
+      <c r="K118" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="119" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="33" t="s">
+      <c r="A119" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="B119" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C119" s="33" t="s">
+      <c r="B119" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="D119" s="34" t="s">
+      <c r="D119" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="E119" s="33" t="s">
+      <c r="E119" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F119" s="12"/>
-      <c r="G119" s="33" t="s">
+      <c r="G119" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="H119" s="35" t="s">
+      <c r="H119" s="32" t="s">
         <v>606</v>
       </c>
-      <c r="I119" s="35"/>
-      <c r="J119" s="35"/>
-      <c r="K119" s="35" t="s">
+      <c r="I119" s="32"/>
+      <c r="J119" s="32"/>
+      <c r="K119" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="120" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="33" t="s">
+      <c r="A120" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="B120" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C120" s="33" t="s">
+      <c r="B120" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="D120" s="34" t="s">
+      <c r="D120" s="31" t="s">
         <v>304</v>
       </c>
-      <c r="E120" s="33" t="s">
+      <c r="E120" s="30" t="s">
         <v>303</v>
       </c>
       <c r="F120" s="12"/>
-      <c r="G120" s="33" t="s">
+      <c r="G120" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="H120" s="35" t="s">
+      <c r="H120" s="32" t="s">
         <v>607</v>
       </c>
-      <c r="I120" s="35"/>
-      <c r="J120" s="35"/>
-      <c r="K120" s="35" t="s">
+      <c r="I120" s="32"/>
+      <c r="J120" s="32"/>
+      <c r="K120" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="121" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="33" t="s">
+      <c r="A121" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="B121" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C121" s="33" t="s">
+      <c r="B121" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="D121" s="34" t="s">
+      <c r="D121" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="E121" s="33" t="s">
+      <c r="E121" s="30" t="s">
         <v>306</v>
       </c>
       <c r="F121" s="12"/>
-      <c r="G121" s="33" t="s">
+      <c r="G121" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="H121" s="35" t="s">
+      <c r="H121" s="32" t="s">
         <v>608</v>
       </c>
-      <c r="I121" s="35"/>
-      <c r="J121" s="35"/>
-      <c r="K121" s="35" t="s">
+      <c r="I121" s="32"/>
+      <c r="J121" s="32"/>
+      <c r="K121" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="122" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="33" t="s">
+      <c r="A122" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="B122" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C122" s="33" t="s">
+      <c r="B122" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="D122" s="34" t="s">
+      <c r="D122" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="E122" s="33" t="s">
+      <c r="E122" s="30" t="s">
         <v>309</v>
       </c>
       <c r="F122" s="12"/>
-      <c r="G122" s="33" t="s">
+      <c r="G122" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="H122" s="35" t="s">
+      <c r="H122" s="32" t="s">
         <v>609</v>
       </c>
-      <c r="I122" s="35"/>
-      <c r="J122" s="35"/>
-      <c r="K122" s="35" t="s">
+      <c r="I122" s="32"/>
+      <c r="J122" s="32"/>
+      <c r="K122" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="123" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="33" t="s">
+      <c r="A123" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="B123" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C123" s="33" t="s">
+      <c r="B123" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="D123" s="34" t="s">
+      <c r="D123" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="E123" s="33" t="s">
+      <c r="E123" s="30" t="s">
         <v>312</v>
       </c>
       <c r="F123" s="12"/>
-      <c r="G123" s="33" t="s">
+      <c r="G123" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="H123" s="35" t="s">
+      <c r="H123" s="32" t="s">
         <v>610</v>
       </c>
-      <c r="I123" s="35"/>
-      <c r="J123" s="35"/>
-      <c r="K123" s="35" t="s">
+      <c r="I123" s="32"/>
+      <c r="J123" s="32"/>
+      <c r="K123" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="124" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="33" t="s">
+      <c r="A124" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="B124" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C124" s="33" t="s">
+      <c r="B124" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="D124" s="34" t="s">
+      <c r="D124" s="31" t="s">
         <v>316</v>
       </c>
-      <c r="E124" s="33" t="s">
+      <c r="E124" s="30" t="s">
         <v>315</v>
       </c>
       <c r="F124" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="G124" s="33" t="s">
+      <c r="G124" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="H124" s="35" t="s">
+      <c r="H124" s="32" t="s">
         <v>611</v>
       </c>
-      <c r="I124" s="35"/>
-      <c r="J124" s="35"/>
-      <c r="K124" s="35" t="s">
+      <c r="I124" s="32"/>
+      <c r="J124" s="32"/>
+      <c r="K124" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="125" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="33" t="s">
+      <c r="A125" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="B125" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C125" s="33" t="s">
+      <c r="B125" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C125" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="D125" s="34" t="s">
+      <c r="D125" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="E125" s="33" t="s">
+      <c r="E125" s="30" t="s">
         <v>318</v>
       </c>
       <c r="F125" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="G125" s="33" t="s">
+      <c r="G125" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="H125" s="35" t="s">
+      <c r="H125" s="32" t="s">
         <v>612</v>
       </c>
-      <c r="I125" s="35"/>
-      <c r="J125" s="35"/>
-      <c r="K125" s="35" t="s">
+      <c r="I125" s="32"/>
+      <c r="J125" s="32"/>
+      <c r="K125" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="126" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="33" t="s">
+      <c r="A126" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="B126" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C126" s="33" t="s">
+      <c r="B126" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="D126" s="34" t="s">
+      <c r="D126" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="E126" s="33" t="s">
+      <c r="E126" s="30" t="s">
         <v>321</v>
       </c>
       <c r="F126" s="12"/>
-      <c r="G126" s="33" t="s">
+      <c r="G126" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="H126" s="35" t="s">
+      <c r="H126" s="32" t="s">
         <v>613</v>
       </c>
-      <c r="I126" s="35"/>
-      <c r="J126" s="35"/>
-      <c r="K126" s="35" t="s">
+      <c r="I126" s="32"/>
+      <c r="J126" s="32"/>
+      <c r="K126" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="127" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="33" t="s">
+      <c r="A127" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="B127" s="33" t="s">
+      <c r="B127" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C127" s="33" t="s">
+      <c r="C127" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="D127" s="34">
+      <c r="D127" s="31">
         <v>19</v>
       </c>
-      <c r="E127" s="33" t="s">
+      <c r="E127" s="30" t="s">
         <v>324</v>
       </c>
       <c r="F127" s="12"/>
-      <c r="G127" s="36"/>
-      <c r="H127" s="35" t="s">
+      <c r="G127" s="33"/>
+      <c r="H127" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="I127" s="35"/>
-      <c r="J127" s="35"/>
-      <c r="K127" s="35" t="s">
+      <c r="I127" s="32"/>
+      <c r="J127" s="32"/>
+      <c r="K127" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="128" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="33" t="s">
+      <c r="A128" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="B128" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C128" s="33" t="s">
+      <c r="B128" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="D128" s="34" t="s">
+      <c r="D128" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="E128" s="33" t="s">
+      <c r="E128" s="30" t="s">
         <v>326</v>
       </c>
       <c r="F128" s="12"/>
-      <c r="G128" s="33" t="s">
+      <c r="G128" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="H128" s="35" t="s">
+      <c r="H128" s="32" t="s">
         <v>615</v>
       </c>
-      <c r="I128" s="35"/>
-      <c r="J128" s="35"/>
-      <c r="K128" s="35" t="s">
+      <c r="I128" s="32"/>
+      <c r="J128" s="32"/>
+      <c r="K128" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="129" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="33" t="s">
+      <c r="A129" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="B129" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C129" s="33" t="s">
+      <c r="B129" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C129" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="D129" s="34" t="s">
+      <c r="D129" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="E129" s="33" t="s">
+      <c r="E129" s="30" t="s">
         <v>329</v>
       </c>
       <c r="F129" s="12"/>
-      <c r="G129" s="33" t="s">
+      <c r="G129" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="H129" s="35" t="s">
+      <c r="H129" s="32" t="s">
         <v>616</v>
       </c>
-      <c r="I129" s="35"/>
-      <c r="J129" s="35"/>
-      <c r="K129" s="35" t="s">
+      <c r="I129" s="32"/>
+      <c r="J129" s="32"/>
+      <c r="K129" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="130" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="33" t="s">
+      <c r="A130" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="B130" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C130" s="33" t="s">
+      <c r="B130" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="D130" s="34" t="s">
+      <c r="D130" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="E130" s="33" t="s">
+      <c r="E130" s="30" t="s">
         <v>332</v>
       </c>
       <c r="F130" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="G130" s="33" t="s">
+      <c r="G130" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="H130" s="35" t="s">
+      <c r="H130" s="32" t="s">
         <v>617</v>
       </c>
-      <c r="I130" s="35"/>
-      <c r="J130" s="35"/>
-      <c r="K130" s="35" t="s">
+      <c r="I130" s="32"/>
+      <c r="J130" s="32"/>
+      <c r="K130" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="131" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="33" t="s">
+      <c r="A131" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="B131" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C131" s="33" t="s">
+      <c r="B131" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C131" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="D131" s="34" t="s">
+      <c r="D131" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="E131" s="33" t="s">
+      <c r="E131" s="30" t="s">
         <v>335</v>
       </c>
       <c r="F131" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="G131" s="33" t="s">
+      <c r="G131" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="H131" s="35" t="s">
+      <c r="H131" s="32" t="s">
         <v>618</v>
       </c>
-      <c r="I131" s="35"/>
-      <c r="J131" s="35"/>
-      <c r="K131" s="35" t="s">
+      <c r="I131" s="32"/>
+      <c r="J131" s="32"/>
+      <c r="K131" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="132" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="33" t="s">
+      <c r="A132" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="B132" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C132" s="33" t="s">
+      <c r="B132" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="D132" s="34" t="s">
+      <c r="D132" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="E132" s="33" t="s">
+      <c r="E132" s="30" t="s">
         <v>338</v>
       </c>
       <c r="F132" s="12"/>
-      <c r="G132" s="33" t="s">
+      <c r="G132" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="H132" s="35" t="s">
+      <c r="H132" s="32" t="s">
         <v>619</v>
       </c>
-      <c r="I132" s="35"/>
-      <c r="J132" s="35"/>
-      <c r="K132" s="35" t="s">
+      <c r="I132" s="32"/>
+      <c r="J132" s="32"/>
+      <c r="K132" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="133" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="33" t="s">
+      <c r="A133" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="B133" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C133" s="33" t="s">
+      <c r="B133" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="D133" s="34" t="s">
+      <c r="D133" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="E133" s="33" t="s">
+      <c r="E133" s="30" t="s">
         <v>341</v>
       </c>
       <c r="F133" s="12"/>
-      <c r="G133" s="33" t="s">
+      <c r="G133" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="H133" s="35" t="s">
+      <c r="H133" s="32" t="s">
         <v>620</v>
       </c>
-      <c r="I133" s="35"/>
-      <c r="J133" s="35"/>
-      <c r="K133" s="35" t="s">
+      <c r="I133" s="32"/>
+      <c r="J133" s="32"/>
+      <c r="K133" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="134" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="33" t="s">
+      <c r="A134" s="30" t="s">
         <v>795</v>
       </c>
-      <c r="B134" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C134" s="33" t="s">
+      <c r="B134" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="D134" s="34" t="s">
+      <c r="D134" s="31" t="s">
         <v>799</v>
       </c>
-      <c r="E134" s="33" t="s">
+      <c r="E134" s="30" t="s">
         <v>343</v>
       </c>
       <c r="F134" s="12"/>
-      <c r="G134" s="27" t="s">
+      <c r="G134" s="25" t="s">
         <v>794</v>
       </c>
-      <c r="H134" s="32" t="s">
+      <c r="H134" s="29" t="s">
         <v>802</v>
       </c>
-      <c r="I134" s="35"/>
-      <c r="J134" s="35"/>
-      <c r="K134" s="35" t="s">
+      <c r="I134" s="32"/>
+      <c r="J134" s="32"/>
+      <c r="K134" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="135" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="33" t="s">
+      <c r="A135" s="30" t="s">
         <v>796</v>
       </c>
-      <c r="B135" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C135" s="33" t="s">
+      <c r="B135" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="D135" s="34" t="s">
+      <c r="D135" s="31" t="s">
         <v>800</v>
       </c>
-      <c r="E135" s="33" t="s">
+      <c r="E135" s="30" t="s">
         <v>344</v>
       </c>
       <c r="F135" s="12"/>
-      <c r="G135" s="27" t="s">
+      <c r="G135" s="25" t="s">
         <v>794</v>
       </c>
-      <c r="H135" s="32" t="s">
+      <c r="H135" s="29" t="s">
         <v>1064</v>
       </c>
-      <c r="I135" s="35"/>
-      <c r="J135" s="35"/>
-      <c r="K135" s="35" t="s">
+      <c r="I135" s="32"/>
+      <c r="J135" s="32"/>
+      <c r="K135" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="136" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="33" t="s">
+      <c r="A136" s="30" t="s">
         <v>797</v>
       </c>
-      <c r="B136" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C136" s="33" t="s">
+      <c r="B136" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" s="30" t="s">
         <v>345</v>
       </c>
-      <c r="D136" s="34" t="s">
+      <c r="D136" s="31" t="s">
         <v>801</v>
       </c>
-      <c r="E136" s="33" t="s">
+      <c r="E136" s="30" t="s">
         <v>345</v>
       </c>
       <c r="F136" s="12"/>
-      <c r="G136" s="27" t="s">
+      <c r="G136" s="25" t="s">
         <v>794</v>
       </c>
-      <c r="H136" s="32" t="s">
+      <c r="H136" s="29" t="s">
         <v>1065</v>
       </c>
-      <c r="I136" s="35"/>
-      <c r="J136" s="35"/>
-      <c r="K136" s="35" t="s">
+      <c r="I136" s="32"/>
+      <c r="J136" s="32"/>
+      <c r="K136" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="137" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="33" t="s">
+      <c r="A137" s="30" t="s">
         <v>803</v>
       </c>
-      <c r="B137" s="33" t="s">
+      <c r="B137" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C137" s="33" t="s">
+      <c r="C137" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="D137" s="34" t="s">
+      <c r="D137" s="31" t="s">
         <v>678</v>
       </c>
-      <c r="E137" s="33" t="s">
+      <c r="E137" s="30" t="s">
         <v>346</v>
       </c>
       <c r="F137" s="12"/>
-      <c r="G137" s="36"/>
-      <c r="H137" s="32" t="s">
+      <c r="G137" s="33"/>
+      <c r="H137" s="29" t="s">
         <v>931</v>
       </c>
-      <c r="I137" s="35"/>
-      <c r="J137" s="35"/>
-      <c r="K137" s="35" t="s">
+      <c r="I137" s="32"/>
+      <c r="J137" s="32"/>
+      <c r="K137" s="32" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="138" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="33" t="s">
+      <c r="A138" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="B138" s="33" t="s">
+      <c r="B138" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C138" s="33" t="s">
+      <c r="C138" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="D138" s="34">
+      <c r="D138" s="31">
         <v>20</v>
       </c>
-      <c r="E138" s="33" t="s">
+      <c r="E138" s="30" t="s">
         <v>348</v>
       </c>
       <c r="F138" s="12"/>
-      <c r="G138" s="36"/>
-      <c r="H138" s="35" t="s">
+      <c r="G138" s="33"/>
+      <c r="H138" s="32" t="s">
         <v>621</v>
       </c>
-      <c r="I138" s="35"/>
-      <c r="J138" s="35"/>
-      <c r="K138" s="35" t="s">
+      <c r="I138" s="32"/>
+      <c r="J138" s="32"/>
+      <c r="K138" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="139" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="33" t="s">
+      <c r="A139" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="B139" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C139" s="33" t="s">
+      <c r="B139" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="D139" s="34" t="s">
+      <c r="D139" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="E139" s="33" t="s">
+      <c r="E139" s="30" t="s">
         <v>350</v>
       </c>
       <c r="F139" s="12"/>
-      <c r="G139" s="33" t="s">
+      <c r="G139" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="H139" s="35" t="s">
+      <c r="H139" s="32" t="s">
         <v>622</v>
       </c>
-      <c r="I139" s="35"/>
-      <c r="J139" s="35"/>
-      <c r="K139" s="35" t="s">
+      <c r="I139" s="32"/>
+      <c r="J139" s="32"/>
+      <c r="K139" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="140" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="33" t="s">
+      <c r="A140" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="B140" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C140" s="33" t="s">
+      <c r="B140" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C140" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="D140" s="34" t="s">
+      <c r="D140" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="E140" s="33" t="s">
+      <c r="E140" s="30" t="s">
         <v>353</v>
       </c>
       <c r="F140" s="12"/>
-      <c r="G140" s="33" t="s">
+      <c r="G140" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="H140" s="35" t="s">
+      <c r="H140" s="32" t="s">
         <v>623</v>
       </c>
-      <c r="I140" s="35"/>
-      <c r="J140" s="35"/>
-      <c r="K140" s="35" t="s">
+      <c r="I140" s="32"/>
+      <c r="J140" s="32"/>
+      <c r="K140" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="141" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="33" t="s">
+      <c r="A141" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="B141" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C141" s="33" t="s">
+      <c r="B141" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="D141" s="34" t="s">
+      <c r="D141" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="E141" s="33" t="s">
+      <c r="E141" s="30" t="s">
         <v>356</v>
       </c>
       <c r="F141" s="12"/>
-      <c r="G141" s="33" t="s">
+      <c r="G141" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="H141" s="35" t="s">
+      <c r="H141" s="32" t="s">
         <v>624</v>
       </c>
-      <c r="I141" s="35"/>
-      <c r="J141" s="35"/>
-      <c r="K141" s="35" t="s">
+      <c r="I141" s="32"/>
+      <c r="J141" s="32"/>
+      <c r="K141" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="142" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="33" t="s">
+      <c r="A142" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="B142" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C142" s="33" t="s">
+      <c r="B142" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="D142" s="34" t="s">
+      <c r="D142" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="E142" s="33" t="s">
+      <c r="E142" s="30" t="s">
         <v>359</v>
       </c>
       <c r="F142" s="12"/>
-      <c r="G142" s="33" t="s">
+      <c r="G142" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="H142" s="35" t="s">
+      <c r="H142" s="32" t="s">
         <v>625</v>
       </c>
-      <c r="I142" s="35"/>
-      <c r="J142" s="35"/>
-      <c r="K142" s="35" t="s">
+      <c r="I142" s="32"/>
+      <c r="J142" s="32"/>
+      <c r="K142" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="143" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="33" t="s">
+      <c r="A143" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="B143" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C143" s="33" t="s">
+      <c r="B143" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="D143" s="34" t="s">
+      <c r="D143" s="31" t="s">
         <v>363</v>
       </c>
-      <c r="E143" s="33" t="s">
+      <c r="E143" s="30" t="s">
         <v>362</v>
       </c>
       <c r="F143" s="12"/>
-      <c r="G143" s="33" t="s">
+      <c r="G143" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="H143" s="35" t="s">
+      <c r="H143" s="32" t="s">
         <v>626</v>
       </c>
-      <c r="I143" s="35"/>
-      <c r="J143" s="35"/>
-      <c r="K143" s="35" t="s">
+      <c r="I143" s="32"/>
+      <c r="J143" s="32"/>
+      <c r="K143" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="144" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="33" t="s">
+      <c r="A144" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="B144" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C144" s="33" t="s">
+      <c r="B144" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="D144" s="34" t="s">
+      <c r="D144" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="E144" s="33" t="s">
+      <c r="E144" s="30" t="s">
         <v>365</v>
       </c>
       <c r="F144" s="12"/>
-      <c r="G144" s="33" t="s">
+      <c r="G144" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="H144" s="35" t="s">
+      <c r="H144" s="32" t="s">
         <v>627</v>
       </c>
-      <c r="I144" s="35"/>
-      <c r="J144" s="35"/>
-      <c r="K144" s="35" t="s">
+      <c r="I144" s="32"/>
+      <c r="J144" s="32"/>
+      <c r="K144" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="145" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="33" t="s">
+      <c r="A145" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="B145" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C145" s="33" t="s">
+      <c r="B145" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="D145" s="34" t="s">
+      <c r="D145" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="E145" s="33" t="s">
+      <c r="E145" s="30" t="s">
         <v>368</v>
       </c>
       <c r="F145" s="12"/>
-      <c r="G145" s="33" t="s">
+      <c r="G145" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="H145" s="35" t="s">
+      <c r="H145" s="32" t="s">
         <v>628</v>
       </c>
-      <c r="I145" s="35"/>
-      <c r="J145" s="35"/>
-      <c r="K145" s="35" t="s">
+      <c r="I145" s="32"/>
+      <c r="J145" s="32"/>
+      <c r="K145" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="146" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="33" t="s">
+      <c r="A146" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="B146" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C146" s="33" t="s">
+      <c r="B146" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146" s="30" t="s">
         <v>371</v>
       </c>
-      <c r="D146" s="34" t="s">
+      <c r="D146" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="E146" s="33" t="s">
+      <c r="E146" s="30" t="s">
         <v>371</v>
       </c>
       <c r="F146" s="12"/>
-      <c r="G146" s="33" t="s">
+      <c r="G146" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="H146" s="35" t="s">
+      <c r="H146" s="32" t="s">
         <v>629</v>
       </c>
-      <c r="I146" s="35"/>
-      <c r="J146" s="35"/>
-      <c r="K146" s="35" t="s">
+      <c r="I146" s="32"/>
+      <c r="J146" s="32"/>
+      <c r="K146" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="147" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="33" t="s">
+      <c r="A147" s="30" t="s">
         <v>373</v>
       </c>
-      <c r="B147" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C147" s="33" t="s">
+      <c r="B147" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="D147" s="34" t="s">
+      <c r="D147" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="E147" s="33" t="s">
+      <c r="E147" s="30" t="s">
         <v>374</v>
       </c>
       <c r="F147" s="12"/>
-      <c r="G147" s="33" t="s">
+      <c r="G147" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="H147" s="35" t="s">
+      <c r="H147" s="32" t="s">
         <v>630</v>
       </c>
-      <c r="I147" s="35"/>
-      <c r="J147" s="35"/>
-      <c r="K147" s="35" t="s">
+      <c r="I147" s="32"/>
+      <c r="J147" s="32"/>
+      <c r="K147" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="148" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="33" t="s">
+      <c r="A148" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="B148" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C148" s="33" t="s">
+      <c r="B148" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" s="30" t="s">
         <v>377</v>
       </c>
-      <c r="D148" s="34" t="s">
+      <c r="D148" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="E148" s="33" t="s">
+      <c r="E148" s="30" t="s">
         <v>377</v>
       </c>
       <c r="F148" s="12"/>
-      <c r="G148" s="33" t="s">
+      <c r="G148" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="H148" s="35" t="s">
+      <c r="H148" s="32" t="s">
         <v>631</v>
       </c>
-      <c r="I148" s="35"/>
-      <c r="J148" s="35"/>
-      <c r="K148" s="35" t="s">
+      <c r="I148" s="32"/>
+      <c r="J148" s="32"/>
+      <c r="K148" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="149" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="33" t="s">
+      <c r="A149" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="B149" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C149" s="33" t="s">
+      <c r="B149" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="D149" s="34" t="s">
+      <c r="D149" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E149" s="33" t="s">
+      <c r="E149" s="30" t="s">
         <v>380</v>
       </c>
       <c r="F149" s="12"/>
-      <c r="G149" s="33" t="s">
+      <c r="G149" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="H149" s="35" t="s">
+      <c r="H149" s="32" t="s">
         <v>632</v>
       </c>
-      <c r="I149" s="35"/>
-      <c r="J149" s="35"/>
-      <c r="K149" s="35" t="s">
+      <c r="I149" s="32"/>
+      <c r="J149" s="32"/>
+      <c r="K149" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="150" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="33" t="s">
+      <c r="A150" s="30" t="s">
         <v>382</v>
       </c>
-      <c r="B150" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C150" s="33" t="s">
+      <c r="B150" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="D150" s="34" t="s">
+      <c r="D150" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="E150" s="33" t="s">
+      <c r="E150" s="30" t="s">
         <v>383</v>
       </c>
       <c r="F150" s="12"/>
-      <c r="G150" s="33" t="s">
+      <c r="G150" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="H150" s="35" t="s">
+      <c r="H150" s="32" t="s">
         <v>633</v>
       </c>
-      <c r="I150" s="35"/>
-      <c r="J150" s="35"/>
-      <c r="K150" s="35" t="s">
+      <c r="I150" s="32"/>
+      <c r="J150" s="32"/>
+      <c r="K150" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="151" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="33" t="s">
+      <c r="A151" s="30" t="s">
         <v>804</v>
       </c>
-      <c r="B151" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C151" s="33" t="s">
+      <c r="B151" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="D151" s="34" t="s">
+      <c r="D151" s="31" t="s">
         <v>664</v>
       </c>
-      <c r="E151" s="33" t="s">
+      <c r="E151" s="30" t="s">
         <v>385</v>
       </c>
       <c r="F151" s="12"/>
-      <c r="G151" s="33" t="s">
+      <c r="G151" s="30" t="s">
         <v>803</v>
       </c>
-      <c r="H151" s="32" t="s">
+      <c r="H151" s="29" t="s">
         <v>932</v>
       </c>
-      <c r="I151" s="35"/>
-      <c r="J151" s="35"/>
-      <c r="K151" s="35" t="s">
+      <c r="I151" s="32"/>
+      <c r="J151" s="32"/>
+      <c r="K151" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="152" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="33" t="s">
+      <c r="A152" s="30" t="s">
         <v>805</v>
       </c>
-      <c r="B152" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C152" s="33" t="s">
+      <c r="B152" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C152" s="30" t="s">
         <v>386</v>
       </c>
-      <c r="D152" s="34" t="s">
+      <c r="D152" s="31" t="s">
         <v>665</v>
       </c>
-      <c r="E152" s="33" t="s">
+      <c r="E152" s="30" t="s">
         <v>386</v>
       </c>
       <c r="F152" s="12"/>
-      <c r="G152" s="33" t="s">
+      <c r="G152" s="30" t="s">
         <v>803</v>
       </c>
-      <c r="H152" s="32" t="s">
+      <c r="H152" s="29" t="s">
         <v>933</v>
       </c>
-      <c r="I152" s="35"/>
-      <c r="J152" s="35"/>
-      <c r="K152" s="35" t="s">
+      <c r="I152" s="32"/>
+      <c r="J152" s="32"/>
+      <c r="K152" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="153" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="33" t="s">
+      <c r="A153" s="30" t="s">
         <v>806</v>
       </c>
-      <c r="B153" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C153" s="33" t="s">
+      <c r="B153" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C153" s="30" t="s">
         <v>387</v>
       </c>
-      <c r="D153" s="34" t="s">
+      <c r="D153" s="31" t="s">
         <v>666</v>
       </c>
-      <c r="E153" s="33" t="s">
+      <c r="E153" s="30" t="s">
         <v>387</v>
       </c>
       <c r="F153" s="12"/>
-      <c r="G153" s="33" t="s">
+      <c r="G153" s="30" t="s">
         <v>803</v>
       </c>
-      <c r="H153" s="32" t="s">
+      <c r="H153" s="29" t="s">
         <v>934</v>
       </c>
-      <c r="I153" s="35"/>
-      <c r="J153" s="35"/>
-      <c r="K153" s="35" t="s">
+      <c r="I153" s="32"/>
+      <c r="J153" s="32"/>
+      <c r="K153" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="154" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="33" t="s">
+      <c r="A154" s="30" t="s">
         <v>807</v>
       </c>
-      <c r="B154" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C154" s="33" t="s">
+      <c r="B154" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C154" s="30" t="s">
         <v>388</v>
       </c>
-      <c r="D154" s="34" t="s">
+      <c r="D154" s="31" t="s">
         <v>667</v>
       </c>
-      <c r="E154" s="33" t="s">
+      <c r="E154" s="30" t="s">
         <v>388</v>
       </c>
       <c r="F154" s="12"/>
-      <c r="G154" s="33" t="s">
+      <c r="G154" s="30" t="s">
         <v>803</v>
       </c>
-      <c r="H154" s="32" t="s">
+      <c r="H154" s="29" t="s">
         <v>935</v>
       </c>
-      <c r="I154" s="35"/>
-      <c r="J154" s="35"/>
-      <c r="K154" s="35" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="33" t="s">
+      <c r="I154" s="32"/>
+      <c r="J154" s="32"/>
+      <c r="K154" s="32" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="B155" s="33" t="s">
+      <c r="B155" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C155" s="33" t="s">
+      <c r="C155" s="30" t="s">
         <v>389</v>
       </c>
-      <c r="D155" s="34" t="s">
+      <c r="D155" s="31" t="s">
         <v>668</v>
       </c>
-      <c r="E155" s="33" t="s">
+      <c r="E155" s="30" t="s">
         <v>389</v>
       </c>
       <c r="F155" s="12"/>
-      <c r="G155" s="36"/>
-      <c r="H155" s="32" t="s">
+      <c r="G155" s="33"/>
+      <c r="H155" s="29" t="s">
         <v>936</v>
       </c>
-      <c r="I155" s="35"/>
-      <c r="J155" s="35"/>
-      <c r="K155" s="35" t="s">
+      <c r="I155" s="32"/>
+      <c r="J155" s="32"/>
+      <c r="K155" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="156" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="33" t="s">
+      <c r="A156" s="30" t="s">
         <v>809</v>
       </c>
-      <c r="B156" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C156" s="33" t="s">
+      <c r="B156" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C156" s="30" t="s">
         <v>390</v>
       </c>
-      <c r="D156" s="34" t="s">
+      <c r="D156" s="31" t="s">
         <v>669</v>
       </c>
-      <c r="E156" s="33" t="s">
+      <c r="E156" s="30" t="s">
         <v>390</v>
       </c>
       <c r="F156" s="12"/>
-      <c r="G156" s="33" t="s">
+      <c r="G156" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="H156" s="32" t="s">
+      <c r="H156" s="29" t="s">
         <v>937</v>
       </c>
-      <c r="I156" s="35"/>
-      <c r="J156" s="35"/>
-      <c r="K156" s="35" t="s">
+      <c r="I156" s="32"/>
+      <c r="J156" s="32"/>
+      <c r="K156" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="157" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="33" t="s">
+      <c r="A157" s="30" t="s">
         <v>810</v>
       </c>
-      <c r="B157" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C157" s="33" t="s">
+      <c r="B157" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C157" s="30" t="s">
         <v>391</v>
       </c>
-      <c r="D157" s="34" t="s">
+      <c r="D157" s="31" t="s">
         <v>670</v>
       </c>
-      <c r="E157" s="33" t="s">
+      <c r="E157" s="30" t="s">
         <v>391</v>
       </c>
       <c r="F157" s="12"/>
-      <c r="G157" s="33" t="s">
+      <c r="G157" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="H157" s="32" t="s">
+      <c r="H157" s="29" t="s">
         <v>938</v>
       </c>
-      <c r="I157" s="35"/>
-      <c r="J157" s="35"/>
-      <c r="K157" s="35" t="s">
+      <c r="I157" s="32"/>
+      <c r="J157" s="32"/>
+      <c r="K157" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="158" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="33" t="s">
+      <c r="A158" s="30" t="s">
         <v>811</v>
       </c>
-      <c r="B158" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C158" s="33" t="s">
+      <c r="B158" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C158" s="30" t="s">
         <v>392</v>
       </c>
-      <c r="D158" s="34" t="s">
+      <c r="D158" s="31" t="s">
         <v>671</v>
       </c>
-      <c r="E158" s="33" t="s">
+      <c r="E158" s="30" t="s">
         <v>392</v>
       </c>
       <c r="F158" s="12"/>
-      <c r="G158" s="33" t="s">
+      <c r="G158" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="H158" s="32" t="s">
+      <c r="H158" s="29" t="s">
         <v>939</v>
       </c>
-      <c r="I158" s="35"/>
-      <c r="J158" s="35"/>
-      <c r="K158" s="35" t="s">
+      <c r="I158" s="32"/>
+      <c r="J158" s="32"/>
+      <c r="K158" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="159" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="33" t="s">
+      <c r="A159" s="30" t="s">
         <v>812</v>
       </c>
-      <c r="B159" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C159" s="33" t="s">
+      <c r="B159" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C159" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="D159" s="34" t="s">
+      <c r="D159" s="31" t="s">
         <v>672</v>
       </c>
-      <c r="E159" s="33" t="s">
+      <c r="E159" s="30" t="s">
         <v>393</v>
       </c>
       <c r="F159" s="12"/>
-      <c r="G159" s="33" t="s">
+      <c r="G159" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="H159" s="32" t="s">
+      <c r="H159" s="29" t="s">
         <v>940</v>
       </c>
-      <c r="I159" s="35"/>
-      <c r="J159" s="35"/>
-      <c r="K159" s="35" t="s">
+      <c r="I159" s="32"/>
+      <c r="J159" s="32"/>
+      <c r="K159" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="160" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="33" t="s">
+      <c r="A160" s="30" t="s">
         <v>813</v>
       </c>
-      <c r="B160" s="33" t="s">
+      <c r="B160" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C160" s="33" t="s">
+      <c r="C160" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="D160" s="34" t="s">
+      <c r="D160" s="31" t="s">
         <v>673</v>
       </c>
-      <c r="E160" s="33" t="s">
+      <c r="E160" s="30" t="s">
         <v>394</v>
       </c>
       <c r="F160" s="12"/>
-      <c r="G160" s="36"/>
-      <c r="H160" s="32" t="s">
+      <c r="G160" s="33"/>
+      <c r="H160" s="29" t="s">
         <v>941</v>
       </c>
-      <c r="I160" s="35"/>
-      <c r="J160" s="35"/>
-      <c r="K160" s="35" t="s">
+      <c r="I160" s="32"/>
+      <c r="J160" s="32"/>
+      <c r="K160" s="32" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="161" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="33" t="s">
+      <c r="A161" s="30" t="s">
         <v>814</v>
       </c>
-      <c r="B161" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C161" s="33" t="s">
+      <c r="B161" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C161" s="30" t="s">
         <v>395</v>
       </c>
-      <c r="D161" s="34" t="s">
+      <c r="D161" s="31" t="s">
         <v>674</v>
       </c>
-      <c r="E161" s="33" t="s">
+      <c r="E161" s="30" t="s">
         <v>395</v>
       </c>
       <c r="F161" s="12"/>
-      <c r="G161" s="33" t="s">
+      <c r="G161" s="30" t="s">
         <v>813</v>
       </c>
-      <c r="H161" s="32" t="s">
+      <c r="H161" s="29" t="s">
         <v>942</v>
       </c>
-      <c r="I161" s="35"/>
-      <c r="J161" s="35"/>
-      <c r="K161" s="35" t="s">
+      <c r="I161" s="32"/>
+      <c r="J161" s="32"/>
+      <c r="K161" s="32" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="162" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="33" t="s">
+      <c r="A162" s="30" t="s">
         <v>815</v>
       </c>
-      <c r="B162" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C162" s="33" t="s">
+      <c r="B162" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C162" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="D162" s="34" t="s">
+      <c r="D162" s="31" t="s">
         <v>675</v>
       </c>
-      <c r="E162" s="33" t="s">
+      <c r="E162" s="30" t="s">
         <v>396</v>
       </c>
       <c r="F162" s="12"/>
-      <c r="G162" s="33" t="s">
+      <c r="G162" s="30" t="s">
         <v>813</v>
       </c>
-      <c r="H162" s="32" t="s">
+      <c r="H162" s="29" t="s">
         <v>943</v>
       </c>
-      <c r="I162" s="35"/>
-      <c r="J162" s="35"/>
-      <c r="K162" s="35" t="s">
+      <c r="I162" s="32"/>
+      <c r="J162" s="32"/>
+      <c r="K162" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="163" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="33" t="s">
+      <c r="A163" s="30" t="s">
         <v>816</v>
       </c>
-      <c r="B163" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C163" s="33" t="s">
+      <c r="B163" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C163" s="30" t="s">
         <v>397</v>
       </c>
-      <c r="D163" s="34" t="s">
+      <c r="D163" s="31" t="s">
         <v>685</v>
       </c>
-      <c r="E163" s="33" t="s">
+      <c r="E163" s="30" t="s">
         <v>397</v>
       </c>
       <c r="F163" s="12"/>
-      <c r="G163" s="33" t="s">
+      <c r="G163" s="30" t="s">
         <v>813</v>
       </c>
-      <c r="H163" s="32" t="s">
+      <c r="H163" s="29" t="s">
         <v>944</v>
       </c>
-      <c r="I163" s="35"/>
-      <c r="J163" s="35"/>
-      <c r="K163" s="35" t="s">
+      <c r="I163" s="32"/>
+      <c r="J163" s="32"/>
+      <c r="K163" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="164" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A164" s="33" t="s">
+      <c r="A164" s="30" t="s">
         <v>817</v>
       </c>
-      <c r="B164" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C164" s="33" t="s">
+      <c r="B164" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C164" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="D164" s="34" t="s">
+      <c r="D164" s="31" t="s">
         <v>686</v>
       </c>
-      <c r="E164" s="33" t="s">
+      <c r="E164" s="30" t="s">
         <v>398</v>
       </c>
       <c r="F164" s="12"/>
-      <c r="G164" s="33" t="s">
+      <c r="G164" s="30" t="s">
         <v>813</v>
       </c>
-      <c r="H164" s="32" t="s">
+      <c r="H164" s="29" t="s">
         <v>945</v>
       </c>
-      <c r="I164" s="35"/>
-      <c r="J164" s="35"/>
-      <c r="K164" s="35" t="s">
+      <c r="I164" s="32"/>
+      <c r="J164" s="32"/>
+      <c r="K164" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="165" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="33" t="s">
+      <c r="A165" s="30" t="s">
         <v>818</v>
       </c>
-      <c r="B165" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C165" s="33" t="s">
+      <c r="B165" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C165" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="D165" s="34" t="s">
+      <c r="D165" s="31" t="s">
         <v>687</v>
       </c>
-      <c r="E165" s="33" t="s">
+      <c r="E165" s="30" t="s">
         <v>399</v>
       </c>
       <c r="F165" s="12"/>
-      <c r="G165" s="33" t="s">
+      <c r="G165" s="30" t="s">
         <v>813</v>
       </c>
-      <c r="H165" s="32" t="s">
+      <c r="H165" s="29" t="s">
         <v>946</v>
       </c>
-      <c r="I165" s="35"/>
-      <c r="J165" s="35"/>
-      <c r="K165" s="35" t="s">
+      <c r="I165" s="32"/>
+      <c r="J165" s="32"/>
+      <c r="K165" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="166" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="33" t="s">
+      <c r="A166" s="30" t="s">
         <v>819</v>
       </c>
-      <c r="B166" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C166" s="33" t="s">
+      <c r="B166" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C166" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="D166" s="34" t="s">
+      <c r="D166" s="31" t="s">
         <v>688</v>
       </c>
-      <c r="E166" s="33" t="s">
+      <c r="E166" s="30" t="s">
         <v>400</v>
       </c>
       <c r="F166" s="12"/>
-      <c r="G166" s="33" t="s">
+      <c r="G166" s="30" t="s">
         <v>813</v>
       </c>
-      <c r="H166" s="32" t="s">
+      <c r="H166" s="29" t="s">
         <v>947</v>
       </c>
-      <c r="I166" s="35"/>
-      <c r="J166" s="35"/>
-      <c r="K166" s="35" t="s">
+      <c r="I166" s="32"/>
+      <c r="J166" s="32"/>
+      <c r="K166" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="167" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="33" t="s">
+      <c r="A167" s="30" t="s">
         <v>820</v>
       </c>
-      <c r="B167" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C167" s="33" t="s">
+      <c r="B167" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C167" s="30" t="s">
         <v>401</v>
       </c>
-      <c r="D167" s="34" t="s">
+      <c r="D167" s="31" t="s">
         <v>689</v>
       </c>
-      <c r="E167" s="33" t="s">
+      <c r="E167" s="30" t="s">
         <v>401</v>
       </c>
       <c r="F167" s="12"/>
-      <c r="G167" s="33" t="s">
+      <c r="G167" s="30" t="s">
         <v>813</v>
       </c>
-      <c r="H167" s="32" t="s">
+      <c r="H167" s="29" t="s">
         <v>948</v>
       </c>
-      <c r="I167" s="35"/>
-      <c r="J167" s="35"/>
-      <c r="K167" s="35" t="s">
+      <c r="I167" s="32"/>
+      <c r="J167" s="32"/>
+      <c r="K167" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="168" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="33" t="s">
+      <c r="A168" s="30" t="s">
         <v>821</v>
       </c>
-      <c r="B168" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C168" s="33" t="s">
+      <c r="B168" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C168" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="D168" s="34" t="s">
+      <c r="D168" s="31" t="s">
         <v>690</v>
       </c>
-      <c r="E168" s="33" t="s">
+      <c r="E168" s="30" t="s">
         <v>402</v>
       </c>
       <c r="F168" s="12"/>
-      <c r="G168" s="33" t="s">
+      <c r="G168" s="30" t="s">
         <v>813</v>
       </c>
-      <c r="H168" s="32" t="s">
+      <c r="H168" s="29" t="s">
         <v>949</v>
       </c>
-      <c r="I168" s="35"/>
-      <c r="J168" s="35"/>
-      <c r="K168" s="35" t="s">
+      <c r="I168" s="32"/>
+      <c r="J168" s="32"/>
+      <c r="K168" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="169" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="33" t="s">
+      <c r="A169" s="30" t="s">
         <v>822</v>
       </c>
-      <c r="B169" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C169" s="33" t="s">
+      <c r="B169" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C169" s="30" t="s">
         <v>403</v>
       </c>
-      <c r="D169" s="34" t="s">
+      <c r="D169" s="31" t="s">
         <v>691</v>
       </c>
-      <c r="E169" s="33" t="s">
+      <c r="E169" s="30" t="s">
         <v>403</v>
       </c>
       <c r="F169" s="12"/>
-      <c r="G169" s="33" t="s">
+      <c r="G169" s="30" t="s">
         <v>813</v>
       </c>
-      <c r="H169" s="32" t="s">
+      <c r="H169" s="29" t="s">
         <v>950</v>
       </c>
-      <c r="I169" s="35"/>
-      <c r="J169" s="35"/>
-      <c r="K169" s="35" t="s">
+      <c r="I169" s="32"/>
+      <c r="J169" s="32"/>
+      <c r="K169" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="170" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="33" t="s">
+      <c r="A170" s="30" t="s">
         <v>823</v>
       </c>
-      <c r="B170" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C170" s="33" t="s">
+      <c r="B170" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C170" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="D170" s="34" t="s">
+      <c r="D170" s="31" t="s">
         <v>692</v>
       </c>
-      <c r="E170" s="33" t="s">
+      <c r="E170" s="30" t="s">
         <v>404</v>
       </c>
       <c r="F170" s="12"/>
-      <c r="G170" s="33" t="s">
+      <c r="G170" s="30" t="s">
         <v>813</v>
       </c>
-      <c r="H170" s="32" t="s">
+      <c r="H170" s="29" t="s">
         <v>951</v>
       </c>
-      <c r="I170" s="35"/>
-      <c r="J170" s="35"/>
-      <c r="K170" s="35" t="s">
+      <c r="I170" s="32"/>
+      <c r="J170" s="32"/>
+      <c r="K170" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="171" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="33" t="s">
+      <c r="A171" s="30" t="s">
         <v>824</v>
       </c>
-      <c r="B171" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C171" s="33" t="s">
+      <c r="B171" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C171" s="30" t="s">
         <v>405</v>
       </c>
-      <c r="D171" s="34" t="s">
+      <c r="D171" s="31" t="s">
         <v>693</v>
       </c>
-      <c r="E171" s="33" t="s">
+      <c r="E171" s="30" t="s">
         <v>405</v>
       </c>
       <c r="F171" s="12"/>
-      <c r="G171" s="33" t="s">
+      <c r="G171" s="30" t="s">
         <v>813</v>
       </c>
-      <c r="H171" s="32" t="s">
+      <c r="H171" s="29" t="s">
         <v>952</v>
       </c>
-      <c r="I171" s="35"/>
-      <c r="J171" s="35"/>
-      <c r="K171" s="35" t="s">
+      <c r="I171" s="32"/>
+      <c r="J171" s="32"/>
+      <c r="K171" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="172" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="33" t="s">
+      <c r="A172" s="30" t="s">
         <v>825</v>
       </c>
-      <c r="B172" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C172" s="33" t="s">
+      <c r="B172" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C172" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="D172" s="34" t="s">
+      <c r="D172" s="31" t="s">
         <v>694</v>
       </c>
-      <c r="E172" s="33" t="s">
+      <c r="E172" s="30" t="s">
         <v>406</v>
       </c>
       <c r="F172" s="12"/>
-      <c r="G172" s="33" t="s">
+      <c r="G172" s="30" t="s">
         <v>813</v>
       </c>
-      <c r="H172" s="32" t="s">
+      <c r="H172" s="29" t="s">
         <v>953</v>
       </c>
-      <c r="I172" s="35"/>
-      <c r="J172" s="35"/>
-      <c r="K172" s="35" t="s">
+      <c r="I172" s="32"/>
+      <c r="J172" s="32"/>
+      <c r="K172" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="173" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A173" s="33" t="s">
+      <c r="A173" s="30" t="s">
         <v>826</v>
       </c>
-      <c r="B173" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C173" s="33" t="s">
+      <c r="B173" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C173" s="30" t="s">
         <v>407</v>
       </c>
-      <c r="D173" s="34" t="s">
+      <c r="D173" s="31" t="s">
         <v>695</v>
       </c>
-      <c r="E173" s="33" t="s">
+      <c r="E173" s="30" t="s">
         <v>407</v>
       </c>
       <c r="F173" s="12"/>
-      <c r="G173" s="33" t="s">
+      <c r="G173" s="30" t="s">
         <v>813</v>
       </c>
-      <c r="H173" s="32" t="s">
+      <c r="H173" s="29" t="s">
         <v>954</v>
       </c>
-      <c r="I173" s="35"/>
-      <c r="J173" s="35"/>
-      <c r="K173" s="35" t="s">
+      <c r="I173" s="32"/>
+      <c r="J173" s="32"/>
+      <c r="K173" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="174" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="33" t="s">
+      <c r="A174" s="30" t="s">
         <v>827</v>
       </c>
-      <c r="B174" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C174" s="33" t="s">
+      <c r="B174" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C174" s="30" t="s">
         <v>408</v>
       </c>
-      <c r="D174" s="34" t="s">
+      <c r="D174" s="31" t="s">
         <v>696</v>
       </c>
-      <c r="E174" s="33" t="s">
+      <c r="E174" s="30" t="s">
         <v>408</v>
       </c>
       <c r="F174" s="12"/>
-      <c r="G174" s="33" t="s">
+      <c r="G174" s="30" t="s">
         <v>813</v>
       </c>
-      <c r="H174" s="32" t="s">
+      <c r="H174" s="29" t="s">
         <v>955</v>
       </c>
-      <c r="I174" s="35"/>
-      <c r="J174" s="35"/>
-      <c r="K174" s="35" t="s">
+      <c r="I174" s="32"/>
+      <c r="J174" s="32"/>
+      <c r="K174" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="175" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="33" t="s">
+      <c r="A175" s="30" t="s">
         <v>828</v>
       </c>
-      <c r="B175" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C175" s="33" t="s">
+      <c r="B175" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C175" s="30" t="s">
         <v>409</v>
       </c>
-      <c r="D175" s="34" t="s">
+      <c r="D175" s="31" t="s">
         <v>697</v>
       </c>
-      <c r="E175" s="33" t="s">
+      <c r="E175" s="30" t="s">
         <v>409</v>
       </c>
       <c r="F175" s="12"/>
-      <c r="G175" s="33" t="s">
+      <c r="G175" s="30" t="s">
         <v>813</v>
       </c>
-      <c r="H175" s="32" t="s">
+      <c r="H175" s="29" t="s">
         <v>956</v>
       </c>
-      <c r="I175" s="35"/>
-      <c r="J175" s="35"/>
-      <c r="K175" s="35" t="s">
+      <c r="I175" s="32"/>
+      <c r="J175" s="32"/>
+      <c r="K175" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="176" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="33" t="s">
+      <c r="A176" s="30" t="s">
         <v>829</v>
       </c>
-      <c r="B176" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C176" s="33" t="s">
+      <c r="B176" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C176" s="30" t="s">
         <v>410</v>
       </c>
-      <c r="D176" s="34" t="s">
+      <c r="D176" s="31" t="s">
         <v>698</v>
       </c>
-      <c r="E176" s="33" t="s">
+      <c r="E176" s="30" t="s">
         <v>410</v>
       </c>
       <c r="F176" s="12"/>
-      <c r="G176" s="33" t="s">
+      <c r="G176" s="30" t="s">
         <v>813</v>
       </c>
-      <c r="H176" s="32" t="s">
+      <c r="H176" s="29" t="s">
         <v>957</v>
       </c>
-      <c r="I176" s="35"/>
-      <c r="J176" s="35"/>
-      <c r="K176" s="35" t="s">
+      <c r="I176" s="32"/>
+      <c r="J176" s="32"/>
+      <c r="K176" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="177" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="33" t="s">
+      <c r="A177" s="30" t="s">
         <v>830</v>
       </c>
-      <c r="B177" s="33" t="s">
+      <c r="B177" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C177" s="33" t="s">
+      <c r="C177" s="30" t="s">
         <v>411</v>
       </c>
-      <c r="D177" s="34" t="s">
+      <c r="D177" s="31" t="s">
         <v>679</v>
       </c>
-      <c r="E177" s="33" t="s">
+      <c r="E177" s="30" t="s">
         <v>411</v>
       </c>
       <c r="F177" s="12"/>
-      <c r="G177" s="36"/>
-      <c r="H177" s="32" t="s">
+      <c r="G177" s="33"/>
+      <c r="H177" s="29" t="s">
         <v>958</v>
       </c>
-      <c r="I177" s="35"/>
-      <c r="J177" s="35"/>
-      <c r="K177" s="35" t="s">
+      <c r="I177" s="32"/>
+      <c r="J177" s="32"/>
+      <c r="K177" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="178" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="33" t="s">
+      <c r="A178" s="30" t="s">
         <v>831</v>
       </c>
-      <c r="B178" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C178" s="33" t="s">
+      <c r="B178" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C178" s="30" t="s">
         <v>412</v>
       </c>
-      <c r="D178" s="34" t="s">
+      <c r="D178" s="31" t="s">
         <v>699</v>
       </c>
-      <c r="E178" s="33" t="s">
+      <c r="E178" s="30" t="s">
         <v>412</v>
       </c>
       <c r="F178" s="12"/>
-      <c r="G178" s="33" t="s">
+      <c r="G178" s="30" t="s">
         <v>830</v>
       </c>
-      <c r="H178" s="32" t="s">
+      <c r="H178" s="29" t="s">
         <v>959</v>
       </c>
-      <c r="I178" s="35"/>
-      <c r="J178" s="35"/>
-      <c r="K178" s="35" t="s">
+      <c r="I178" s="32"/>
+      <c r="J178" s="32"/>
+      <c r="K178" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="179" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="33" t="s">
+      <c r="A179" s="30" t="s">
         <v>832</v>
       </c>
-      <c r="B179" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C179" s="33" t="s">
+      <c r="B179" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C179" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="D179" s="34" t="s">
+      <c r="D179" s="31" t="s">
         <v>700</v>
       </c>
-      <c r="E179" s="33" t="s">
+      <c r="E179" s="30" t="s">
         <v>413</v>
       </c>
       <c r="F179" s="12"/>
-      <c r="G179" s="33" t="s">
+      <c r="G179" s="30" t="s">
         <v>830</v>
       </c>
-      <c r="H179" s="32" t="s">
+      <c r="H179" s="29" t="s">
         <v>960</v>
       </c>
-      <c r="I179" s="46" t="s">
+      <c r="I179" s="32" t="s">
         <v>1059</v>
       </c>
-      <c r="J179" s="47"/>
-      <c r="K179" s="35" t="s">
+      <c r="J179" s="46"/>
+      <c r="K179" s="32" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="180" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="33" t="s">
+      <c r="A180" s="30" t="s">
         <v>833</v>
       </c>
-      <c r="B180" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C180" s="33" t="s">
+      <c r="B180" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C180" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="D180" s="34" t="s">
+      <c r="D180" s="31" t="s">
         <v>701</v>
       </c>
-      <c r="E180" s="33" t="s">
+      <c r="E180" s="30" t="s">
         <v>413</v>
       </c>
       <c r="F180" s="12" t="s">
         <v>832</v>
       </c>
-      <c r="G180" s="33" t="s">
+      <c r="G180" s="30" t="s">
         <v>830</v>
       </c>
-      <c r="H180" s="32" t="s">
+      <c r="H180" s="29" t="s">
         <v>961</v>
       </c>
-      <c r="I180" s="35"/>
-      <c r="J180" s="35"/>
-      <c r="K180" s="35" t="s">
+      <c r="I180" s="32"/>
+      <c r="J180" s="32"/>
+      <c r="K180" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="181" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="33" t="s">
+      <c r="A181" s="30" t="s">
         <v>834</v>
       </c>
-      <c r="B181" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C181" s="33" t="s">
+      <c r="B181" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C181" s="30" t="s">
         <v>414</v>
       </c>
-      <c r="D181" s="34" t="s">
+      <c r="D181" s="31" t="s">
         <v>702</v>
       </c>
-      <c r="E181" s="33" t="s">
+      <c r="E181" s="30" t="s">
         <v>414</v>
       </c>
       <c r="F181" s="12" t="s">
         <v>832</v>
       </c>
-      <c r="G181" s="33" t="s">
+      <c r="G181" s="30" t="s">
         <v>830</v>
       </c>
-      <c r="H181" s="32" t="s">
+      <c r="H181" s="29" t="s">
         <v>962</v>
       </c>
-      <c r="I181" s="35"/>
-      <c r="J181" s="35"/>
-      <c r="K181" s="35" t="s">
+      <c r="I181" s="32"/>
+      <c r="J181" s="32"/>
+      <c r="K181" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="182" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A182" s="33" t="s">
+      <c r="A182" s="30" t="s">
         <v>835</v>
       </c>
-      <c r="B182" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C182" s="33" t="s">
+      <c r="B182" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C182" s="30" t="s">
         <v>415</v>
       </c>
-      <c r="D182" s="34" t="s">
+      <c r="D182" s="31" t="s">
         <v>703</v>
       </c>
-      <c r="E182" s="33" t="s">
+      <c r="E182" s="30" t="s">
         <v>415</v>
       </c>
       <c r="F182" s="12"/>
-      <c r="G182" s="33" t="s">
+      <c r="G182" s="30" t="s">
         <v>830</v>
       </c>
-      <c r="H182" s="32" t="s">
+      <c r="H182" s="29" t="s">
         <v>963</v>
       </c>
-      <c r="I182" s="35"/>
-      <c r="J182" s="35"/>
-      <c r="K182" s="35" t="s">
+      <c r="I182" s="32"/>
+      <c r="J182" s="32"/>
+      <c r="K182" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="183" spans="1:11" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A183" s="33" t="s">
+      <c r="A183" s="30" t="s">
         <v>836</v>
       </c>
-      <c r="B183" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C183" s="33" t="s">
+      <c r="B183" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C183" s="30" t="s">
         <v>416</v>
       </c>
-      <c r="D183" s="34" t="s">
+      <c r="D183" s="31" t="s">
         <v>704</v>
       </c>
-      <c r="E183" s="33" t="s">
+      <c r="E183" s="30" t="s">
         <v>416</v>
       </c>
       <c r="F183" s="12"/>
-      <c r="G183" s="33" t="s">
+      <c r="G183" s="30" t="s">
         <v>830</v>
       </c>
-      <c r="H183" s="32" t="s">
+      <c r="H183" s="29" t="s">
         <v>964</v>
       </c>
-      <c r="I183" s="35"/>
-      <c r="J183" s="35"/>
-      <c r="K183" s="35" t="s">
+      <c r="I183" s="32"/>
+      <c r="J183" s="32"/>
+      <c r="K183" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="184" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="33" t="s">
+      <c r="A184" s="30" t="s">
         <v>837</v>
       </c>
-      <c r="B184" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C184" s="33" t="s">
+      <c r="B184" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C184" s="30" t="s">
         <v>417</v>
       </c>
-      <c r="D184" s="34" t="s">
+      <c r="D184" s="31" t="s">
         <v>705</v>
       </c>
-      <c r="E184" s="33" t="s">
+      <c r="E184" s="30" t="s">
         <v>417</v>
       </c>
       <c r="F184" s="12"/>
-      <c r="G184" s="33" t="s">
+      <c r="G184" s="30" t="s">
         <v>830</v>
       </c>
-      <c r="H184" s="32" t="s">
+      <c r="H184" s="29" t="s">
         <v>965</v>
       </c>
-      <c r="I184" s="35"/>
-      <c r="J184" s="35"/>
-      <c r="K184" s="35" t="s">
+      <c r="I184" s="32"/>
+      <c r="J184" s="32"/>
+      <c r="K184" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="185" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="33" t="s">
+      <c r="A185" s="30" t="s">
         <v>838</v>
       </c>
-      <c r="B185" s="33" t="s">
+      <c r="B185" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C185" s="33" t="s">
+      <c r="C185" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="D185" s="34" t="s">
+      <c r="D185" s="31" t="s">
         <v>680</v>
       </c>
-      <c r="E185" s="33" t="s">
+      <c r="E185" s="30" t="s">
         <v>418</v>
       </c>
       <c r="F185" s="12"/>
-      <c r="G185" s="35"/>
-      <c r="H185" s="32" t="s">
+      <c r="G185" s="32"/>
+      <c r="H185" s="29" t="s">
         <v>966</v>
       </c>
-      <c r="I185" s="35"/>
-      <c r="J185" s="35"/>
-      <c r="K185" s="35" t="s">
+      <c r="I185" s="32"/>
+      <c r="J185" s="32"/>
+      <c r="K185" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="186" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="33" t="s">
+      <c r="A186" s="30" t="s">
         <v>839</v>
       </c>
-      <c r="B186" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C186" s="33" t="s">
+      <c r="B186" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C186" s="30" t="s">
         <v>419</v>
       </c>
-      <c r="D186" s="34" t="s">
+      <c r="D186" s="31" t="s">
         <v>706</v>
       </c>
-      <c r="E186" s="33" t="s">
+      <c r="E186" s="30" t="s">
         <v>419</v>
       </c>
       <c r="F186" s="12"/>
-      <c r="G186" s="33" t="s">
+      <c r="G186" s="30" t="s">
         <v>838</v>
       </c>
-      <c r="H186" s="32" t="s">
+      <c r="H186" s="29" t="s">
         <v>967</v>
       </c>
-      <c r="I186" s="35"/>
-      <c r="J186" s="35"/>
-      <c r="K186" s="35" t="s">
+      <c r="I186" s="32"/>
+      <c r="J186" s="32"/>
+      <c r="K186" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="187" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="33" t="s">
+      <c r="A187" s="30" t="s">
         <v>840</v>
       </c>
-      <c r="B187" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C187" s="33" t="s">
+      <c r="B187" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C187" s="30" t="s">
         <v>420</v>
       </c>
-      <c r="D187" s="34" t="s">
+      <c r="D187" s="31" t="s">
         <v>707</v>
       </c>
-      <c r="E187" s="33" t="s">
+      <c r="E187" s="30" t="s">
         <v>420</v>
       </c>
       <c r="F187" s="12"/>
-      <c r="G187" s="33" t="s">
+      <c r="G187" s="30" t="s">
         <v>838</v>
       </c>
-      <c r="H187" s="32" t="s">
+      <c r="H187" s="29" t="s">
         <v>968</v>
       </c>
-      <c r="I187" s="35"/>
-      <c r="J187" s="35"/>
-      <c r="K187" s="35" t="s">
+      <c r="I187" s="32"/>
+      <c r="J187" s="32"/>
+      <c r="K187" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="188" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="33" t="s">
+      <c r="A188" s="30" t="s">
         <v>841</v>
       </c>
-      <c r="B188" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C188" s="33" t="s">
+      <c r="B188" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C188" s="30" t="s">
         <v>421</v>
       </c>
-      <c r="D188" s="34" t="s">
+      <c r="D188" s="31" t="s">
         <v>708</v>
       </c>
-      <c r="E188" s="33" t="s">
+      <c r="E188" s="30" t="s">
         <v>421</v>
       </c>
       <c r="F188" s="12"/>
-      <c r="G188" s="33" t="s">
+      <c r="G188" s="30" t="s">
         <v>838</v>
       </c>
-      <c r="H188" s="32" t="s">
+      <c r="H188" s="29" t="s">
         <v>969</v>
       </c>
-      <c r="I188" s="35"/>
-      <c r="J188" s="35"/>
-      <c r="K188" s="35" t="s">
+      <c r="I188" s="32"/>
+      <c r="J188" s="32"/>
+      <c r="K188" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="189" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" s="33" t="s">
+      <c r="A189" s="30" t="s">
         <v>842</v>
       </c>
-      <c r="B189" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C189" s="33" t="s">
+      <c r="B189" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C189" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="D189" s="34" t="s">
+      <c r="D189" s="31" t="s">
         <v>709</v>
       </c>
-      <c r="E189" s="33" t="s">
+      <c r="E189" s="30" t="s">
         <v>422</v>
       </c>
       <c r="F189" s="12" t="s">
         <v>841</v>
       </c>
-      <c r="G189" s="33" t="s">
+      <c r="G189" s="30" t="s">
         <v>838</v>
       </c>
-      <c r="H189" s="32" t="s">
+      <c r="H189" s="29" t="s">
         <v>970</v>
       </c>
-      <c r="I189" s="35"/>
-      <c r="J189" s="35"/>
-      <c r="K189" s="35" t="s">
+      <c r="I189" s="32"/>
+      <c r="J189" s="32"/>
+      <c r="K189" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="190" spans="1:11" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A190" s="33" t="s">
+      <c r="A190" s="30" t="s">
         <v>843</v>
       </c>
-      <c r="B190" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C190" s="33" t="s">
+      <c r="B190" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C190" s="30" t="s">
         <v>423</v>
       </c>
-      <c r="D190" s="34" t="s">
+      <c r="D190" s="31" t="s">
         <v>710</v>
       </c>
-      <c r="E190" s="33" t="s">
+      <c r="E190" s="30" t="s">
         <v>423</v>
       </c>
       <c r="F190" s="12" t="s">
         <v>841</v>
       </c>
-      <c r="G190" s="33" t="s">
+      <c r="G190" s="30" t="s">
         <v>838</v>
       </c>
-      <c r="H190" s="32" t="s">
+      <c r="H190" s="29" t="s">
         <v>971</v>
       </c>
-      <c r="I190" s="35"/>
-      <c r="J190" s="35"/>
-      <c r="K190" s="35" t="s">
+      <c r="I190" s="32"/>
+      <c r="J190" s="32"/>
+      <c r="K190" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="191" spans="1:11" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A191" s="33" t="s">
+      <c r="A191" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="B191" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C191" s="33" t="s">
+      <c r="B191" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C191" s="30" t="s">
         <v>424</v>
       </c>
-      <c r="D191" s="34" t="s">
+      <c r="D191" s="31" t="s">
         <v>711</v>
       </c>
-      <c r="E191" s="33" t="s">
+      <c r="E191" s="30" t="s">
         <v>424</v>
       </c>
       <c r="F191" s="12"/>
-      <c r="G191" s="33" t="s">
+      <c r="G191" s="30" t="s">
         <v>838</v>
       </c>
-      <c r="H191" s="32" t="s">
+      <c r="H191" s="29" t="s">
         <v>972</v>
       </c>
-      <c r="I191" s="35"/>
-      <c r="J191" s="35"/>
-      <c r="K191" s="35" t="s">
+      <c r="I191" s="32"/>
+      <c r="J191" s="32"/>
+      <c r="K191" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="192" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" s="33" t="s">
+      <c r="A192" s="30" t="s">
         <v>845</v>
       </c>
-      <c r="B192" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C192" s="33" t="s">
+      <c r="B192" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C192" s="30" t="s">
         <v>425</v>
       </c>
-      <c r="D192" s="34" t="s">
+      <c r="D192" s="31" t="s">
         <v>712</v>
       </c>
-      <c r="E192" s="33" t="s">
+      <c r="E192" s="30" t="s">
         <v>425</v>
       </c>
       <c r="F192" s="12"/>
-      <c r="G192" s="33" t="s">
+      <c r="G192" s="30" t="s">
         <v>838</v>
       </c>
-      <c r="H192" s="32" t="s">
+      <c r="H192" s="29" t="s">
         <v>973</v>
       </c>
-      <c r="I192" s="35"/>
-      <c r="J192" s="35"/>
-      <c r="K192" s="35" t="s">
+      <c r="I192" s="32"/>
+      <c r="J192" s="32"/>
+      <c r="K192" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="193" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="33" t="s">
+      <c r="A193" s="30" t="s">
         <v>846</v>
       </c>
-      <c r="B193" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C193" s="33" t="s">
+      <c r="B193" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C193" s="30" t="s">
         <v>426</v>
       </c>
-      <c r="D193" s="34" t="s">
+      <c r="D193" s="31" t="s">
         <v>713</v>
       </c>
-      <c r="E193" s="33" t="s">
+      <c r="E193" s="30" t="s">
         <v>426</v>
       </c>
       <c r="F193" s="12" t="s">
         <v>845</v>
       </c>
-      <c r="G193" s="33" t="s">
+      <c r="G193" s="30" t="s">
         <v>838</v>
       </c>
-      <c r="H193" s="32" t="s">
+      <c r="H193" s="29" t="s">
         <v>974</v>
       </c>
-      <c r="I193" s="35"/>
-      <c r="J193" s="35"/>
-      <c r="K193" s="35" t="s">
+      <c r="I193" s="32"/>
+      <c r="J193" s="32"/>
+      <c r="K193" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="194" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="33" t="s">
+      <c r="A194" s="30" t="s">
         <v>847</v>
       </c>
-      <c r="B194" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C194" s="33" t="s">
+      <c r="B194" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C194" s="30" t="s">
         <v>427</v>
       </c>
-      <c r="D194" s="34" t="s">
+      <c r="D194" s="31" t="s">
         <v>714</v>
       </c>
-      <c r="E194" s="33" t="s">
+      <c r="E194" s="30" t="s">
         <v>427</v>
       </c>
       <c r="F194" s="12" t="s">
         <v>845</v>
       </c>
-      <c r="G194" s="33" t="s">
+      <c r="G194" s="30" t="s">
         <v>838</v>
       </c>
-      <c r="H194" s="32" t="s">
+      <c r="H194" s="29" t="s">
         <v>975</v>
       </c>
-      <c r="I194" s="35"/>
-      <c r="J194" s="35"/>
-      <c r="K194" s="35" t="s">
+      <c r="I194" s="32"/>
+      <c r="J194" s="32"/>
+      <c r="K194" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="195" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="33" t="s">
+      <c r="A195" s="30" t="s">
         <v>848</v>
       </c>
-      <c r="B195" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C195" s="33" t="s">
+      <c r="B195" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C195" s="30" t="s">
         <v>428</v>
       </c>
-      <c r="D195" s="34" t="s">
+      <c r="D195" s="31" t="s">
         <v>715</v>
       </c>
-      <c r="E195" s="33" t="s">
+      <c r="E195" s="30" t="s">
         <v>428</v>
       </c>
       <c r="F195" s="12"/>
-      <c r="G195" s="33" t="s">
+      <c r="G195" s="30" t="s">
         <v>838</v>
       </c>
-      <c r="H195" s="32" t="s">
+      <c r="H195" s="29" t="s">
         <v>976</v>
       </c>
-      <c r="I195" s="35"/>
-      <c r="J195" s="35"/>
-      <c r="K195" s="35" t="s">
+      <c r="I195" s="32"/>
+      <c r="J195" s="32"/>
+      <c r="K195" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="196" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="33" t="s">
+      <c r="A196" s="30" t="s">
         <v>849</v>
       </c>
-      <c r="B196" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C196" s="33" t="s">
+      <c r="B196" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C196" s="30" t="s">
         <v>429</v>
       </c>
-      <c r="D196" s="34" t="s">
+      <c r="D196" s="31" t="s">
         <v>716</v>
       </c>
-      <c r="E196" s="33" t="s">
+      <c r="E196" s="30" t="s">
         <v>429</v>
       </c>
       <c r="F196" s="12"/>
-      <c r="G196" s="33" t="s">
+      <c r="G196" s="30" t="s">
         <v>838</v>
       </c>
-      <c r="H196" s="32" t="s">
+      <c r="H196" s="29" t="s">
         <v>977</v>
       </c>
-      <c r="I196" s="35"/>
-      <c r="J196" s="35"/>
-      <c r="K196" s="35" t="s">
+      <c r="I196" s="32"/>
+      <c r="J196" s="32"/>
+      <c r="K196" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="197" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="33" t="s">
+      <c r="A197" s="30" t="s">
         <v>850</v>
       </c>
-      <c r="B197" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C197" s="33" t="s">
+      <c r="B197" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C197" s="30" t="s">
         <v>430</v>
       </c>
-      <c r="D197" s="34" t="s">
+      <c r="D197" s="31" t="s">
         <v>717</v>
       </c>
-      <c r="E197" s="33" t="s">
+      <c r="E197" s="30" t="s">
         <v>430</v>
       </c>
       <c r="F197" s="12"/>
-      <c r="G197" s="33" t="s">
+      <c r="G197" s="30" t="s">
         <v>838</v>
       </c>
-      <c r="H197" s="32" t="s">
+      <c r="H197" s="29" t="s">
         <v>978</v>
       </c>
-      <c r="I197" s="35"/>
-      <c r="J197" s="35"/>
-      <c r="K197" s="35" t="s">
+      <c r="I197" s="32"/>
+      <c r="J197" s="32"/>
+      <c r="K197" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="198" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="33" t="s">
+      <c r="A198" s="30" t="s">
         <v>851</v>
       </c>
-      <c r="B198" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C198" s="33" t="s">
+      <c r="B198" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C198" s="30" t="s">
         <v>431</v>
       </c>
-      <c r="D198" s="34" t="s">
+      <c r="D198" s="31" t="s">
         <v>718</v>
       </c>
-      <c r="E198" s="33" t="s">
+      <c r="E198" s="30" t="s">
         <v>431</v>
       </c>
       <c r="F198" s="12"/>
-      <c r="G198" s="33" t="s">
+      <c r="G198" s="30" t="s">
         <v>838</v>
       </c>
-      <c r="H198" s="32" t="s">
+      <c r="H198" s="29" t="s">
         <v>979</v>
       </c>
-      <c r="I198" s="35"/>
-      <c r="J198" s="35"/>
-      <c r="K198" s="35" t="s">
+      <c r="I198" s="32"/>
+      <c r="J198" s="32"/>
+      <c r="K198" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="199" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="33" t="s">
+      <c r="A199" s="30" t="s">
         <v>852</v>
       </c>
-      <c r="B199" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C199" s="33" t="s">
+      <c r="B199" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C199" s="30" t="s">
         <v>432</v>
       </c>
-      <c r="D199" s="34" t="s">
+      <c r="D199" s="31" t="s">
         <v>719</v>
       </c>
-      <c r="E199" s="33" t="s">
+      <c r="E199" s="30" t="s">
         <v>432</v>
       </c>
       <c r="F199" s="12"/>
-      <c r="G199" s="33" t="s">
+      <c r="G199" s="30" t="s">
         <v>838</v>
       </c>
-      <c r="H199" s="32" t="s">
+      <c r="H199" s="29" t="s">
         <v>980</v>
       </c>
-      <c r="I199" s="35"/>
-      <c r="J199" s="35"/>
-      <c r="K199" s="35" t="s">
+      <c r="I199" s="32"/>
+      <c r="J199" s="32"/>
+      <c r="K199" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="200" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="33" t="s">
+      <c r="A200" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="B200" s="33" t="s">
+      <c r="B200" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C200" s="33" t="s">
+      <c r="C200" s="30" t="s">
         <v>433</v>
       </c>
-      <c r="D200" s="34" t="s">
+      <c r="D200" s="31" t="s">
         <v>681</v>
       </c>
-      <c r="E200" s="33" t="s">
+      <c r="E200" s="30" t="s">
         <v>433</v>
       </c>
       <c r="F200" s="12"/>
-      <c r="G200" s="35"/>
-      <c r="H200" s="32" t="s">
+      <c r="G200" s="32"/>
+      <c r="H200" s="29" t="s">
         <v>981</v>
       </c>
-      <c r="I200" s="35"/>
-      <c r="J200" s="35"/>
-      <c r="K200" s="35" t="s">
+      <c r="I200" s="32"/>
+      <c r="J200" s="32"/>
+      <c r="K200" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="201" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="33" t="s">
+      <c r="A201" s="30" t="s">
         <v>854</v>
       </c>
-      <c r="B201" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C201" s="33" t="s">
+      <c r="B201" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C201" s="30" t="s">
         <v>434</v>
       </c>
-      <c r="D201" s="34" t="s">
+      <c r="D201" s="31" t="s">
         <v>720</v>
       </c>
-      <c r="E201" s="33" t="s">
+      <c r="E201" s="30" t="s">
         <v>434</v>
       </c>
       <c r="F201" s="12"/>
-      <c r="G201" s="33" t="s">
+      <c r="G201" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H201" s="32" t="s">
+      <c r="H201" s="29" t="s">
         <v>982</v>
       </c>
-      <c r="I201" s="35"/>
-      <c r="J201" s="35"/>
-      <c r="K201" s="35" t="s">
+      <c r="I201" s="32"/>
+      <c r="J201" s="32"/>
+      <c r="K201" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="202" spans="1:11" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A202" s="33" t="s">
+      <c r="A202" s="30" t="s">
         <v>855</v>
       </c>
-      <c r="B202" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C202" s="33" t="s">
+      <c r="B202" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C202" s="30" t="s">
         <v>435</v>
       </c>
-      <c r="D202" s="34" t="s">
+      <c r="D202" s="31" t="s">
         <v>721</v>
       </c>
-      <c r="E202" s="33" t="s">
+      <c r="E202" s="30" t="s">
         <v>435</v>
       </c>
       <c r="F202" s="12"/>
-      <c r="G202" s="33" t="s">
+      <c r="G202" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H202" s="32" t="s">
+      <c r="H202" s="29" t="s">
         <v>983</v>
       </c>
-      <c r="I202" s="35" t="s">
+      <c r="I202" s="32" t="s">
         <v>1060</v>
       </c>
-      <c r="J202" s="35"/>
-      <c r="K202" s="35" t="s">
+      <c r="J202" s="32"/>
+      <c r="K202" s="32" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="203" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="33" t="s">
+      <c r="A203" s="30" t="s">
         <v>856</v>
       </c>
-      <c r="B203" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C203" s="33" t="s">
+      <c r="B203" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C203" s="30" t="s">
         <v>436</v>
       </c>
-      <c r="D203" s="34" t="s">
+      <c r="D203" s="31" t="s">
         <v>722</v>
       </c>
-      <c r="E203" s="33" t="s">
+      <c r="E203" s="30" t="s">
         <v>436</v>
       </c>
       <c r="F203" s="12" t="s">
         <v>855</v>
       </c>
-      <c r="G203" s="33" t="s">
+      <c r="G203" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H203" s="32" t="s">
+      <c r="H203" s="29" t="s">
         <v>984</v>
       </c>
-      <c r="I203" s="35"/>
-      <c r="J203" s="35"/>
-      <c r="K203" s="35" t="s">
+      <c r="I203" s="32"/>
+      <c r="J203" s="32"/>
+      <c r="K203" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="204" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A204" s="33" t="s">
+      <c r="A204" s="30" t="s">
         <v>857</v>
       </c>
-      <c r="B204" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C204" s="33" t="s">
+      <c r="B204" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C204" s="30" t="s">
         <v>437</v>
       </c>
-      <c r="D204" s="34" t="s">
+      <c r="D204" s="31" t="s">
         <v>723</v>
       </c>
-      <c r="E204" s="33" t="s">
+      <c r="E204" s="30" t="s">
         <v>437</v>
       </c>
       <c r="F204" s="12" t="s">
         <v>855</v>
       </c>
-      <c r="G204" s="33" t="s">
+      <c r="G204" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H204" s="32" t="s">
+      <c r="H204" s="29" t="s">
         <v>985</v>
       </c>
-      <c r="I204" s="35"/>
-      <c r="J204" s="35"/>
-      <c r="K204" s="35" t="s">
+      <c r="I204" s="32"/>
+      <c r="J204" s="32"/>
+      <c r="K204" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="205" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="33" t="s">
+      <c r="A205" s="30" t="s">
         <v>858</v>
       </c>
-      <c r="B205" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C205" s="33" t="s">
+      <c r="B205" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C205" s="30" t="s">
         <v>438</v>
       </c>
-      <c r="D205" s="34" t="s">
+      <c r="D205" s="31" t="s">
         <v>724</v>
       </c>
-      <c r="E205" s="33" t="s">
+      <c r="E205" s="30" t="s">
         <v>438</v>
       </c>
       <c r="F205" s="12"/>
-      <c r="G205" s="33" t="s">
+      <c r="G205" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H205" s="32" t="s">
+      <c r="H205" s="29" t="s">
         <v>986</v>
       </c>
-      <c r="I205" s="35"/>
-      <c r="J205" s="35"/>
-      <c r="K205" s="35" t="s">
+      <c r="I205" s="32"/>
+      <c r="J205" s="32"/>
+      <c r="K205" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="206" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="33" t="s">
+      <c r="A206" s="30" t="s">
         <v>859</v>
       </c>
-      <c r="B206" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C206" s="33" t="s">
+      <c r="B206" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C206" s="30" t="s">
         <v>439</v>
       </c>
-      <c r="D206" s="34" t="s">
+      <c r="D206" s="31" t="s">
         <v>725</v>
       </c>
-      <c r="E206" s="33" t="s">
+      <c r="E206" s="30" t="s">
         <v>439</v>
       </c>
       <c r="F206" s="12"/>
-      <c r="G206" s="33" t="s">
+      <c r="G206" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H206" s="32" t="s">
+      <c r="H206" s="29" t="s">
         <v>987</v>
       </c>
-      <c r="I206" s="35"/>
-      <c r="J206" s="35"/>
-      <c r="K206" s="35" t="s">
+      <c r="I206" s="32"/>
+      <c r="J206" s="32"/>
+      <c r="K206" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="207" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="33" t="s">
+      <c r="A207" s="30" t="s">
         <v>860</v>
       </c>
-      <c r="B207" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C207" s="33" t="s">
+      <c r="B207" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C207" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="D207" s="34" t="s">
+      <c r="D207" s="31" t="s">
         <v>726</v>
       </c>
-      <c r="E207" s="33" t="s">
+      <c r="E207" s="30" t="s">
         <v>440</v>
       </c>
       <c r="F207" s="12"/>
-      <c r="G207" s="33" t="s">
+      <c r="G207" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H207" s="32" t="s">
+      <c r="H207" s="29" t="s">
         <v>988</v>
       </c>
-      <c r="I207" s="35"/>
-      <c r="J207" s="35"/>
-      <c r="K207" s="35" t="s">
+      <c r="I207" s="32"/>
+      <c r="J207" s="32"/>
+      <c r="K207" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="208" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="33" t="s">
+      <c r="A208" s="30" t="s">
         <v>861</v>
       </c>
-      <c r="B208" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C208" s="33" t="s">
+      <c r="B208" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C208" s="30" t="s">
         <v>441</v>
       </c>
-      <c r="D208" s="34" t="s">
+      <c r="D208" s="31" t="s">
         <v>727</v>
       </c>
-      <c r="E208" s="33" t="s">
+      <c r="E208" s="30" t="s">
         <v>441</v>
       </c>
       <c r="F208" s="12"/>
-      <c r="G208" s="33" t="s">
+      <c r="G208" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H208" s="32" t="s">
+      <c r="H208" s="29" t="s">
         <v>989</v>
       </c>
-      <c r="I208" s="35"/>
-      <c r="J208" s="35"/>
-      <c r="K208" s="35" t="s">
+      <c r="I208" s="32"/>
+      <c r="J208" s="32"/>
+      <c r="K208" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="209" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="33" t="s">
+      <c r="A209" s="30" t="s">
         <v>862</v>
       </c>
-      <c r="B209" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C209" s="33" t="s">
+      <c r="B209" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C209" s="30" t="s">
         <v>442</v>
       </c>
-      <c r="D209" s="34" t="s">
+      <c r="D209" s="31" t="s">
         <v>728</v>
       </c>
-      <c r="E209" s="33" t="s">
+      <c r="E209" s="30" t="s">
         <v>442</v>
       </c>
       <c r="F209" s="12" t="s">
         <v>861</v>
       </c>
-      <c r="G209" s="33" t="s">
+      <c r="G209" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H209" s="32" t="s">
+      <c r="H209" s="29" t="s">
         <v>990</v>
       </c>
-      <c r="I209" s="35"/>
-      <c r="J209" s="35"/>
-      <c r="K209" s="35" t="s">
+      <c r="I209" s="32"/>
+      <c r="J209" s="32"/>
+      <c r="K209" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="210" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="33" t="s">
+      <c r="A210" s="30" t="s">
         <v>863</v>
       </c>
-      <c r="B210" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C210" s="33" t="s">
+      <c r="B210" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C210" s="30" t="s">
         <v>443</v>
       </c>
-      <c r="D210" s="34" t="s">
+      <c r="D210" s="31" t="s">
         <v>729</v>
       </c>
-      <c r="E210" s="33" t="s">
+      <c r="E210" s="30" t="s">
         <v>443</v>
       </c>
       <c r="F210" s="12" t="s">
         <v>861</v>
       </c>
-      <c r="G210" s="33" t="s">
+      <c r="G210" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H210" s="32" t="s">
+      <c r="H210" s="29" t="s">
         <v>991</v>
       </c>
-      <c r="I210" s="35"/>
-      <c r="J210" s="35"/>
-      <c r="K210" s="35" t="s">
+      <c r="I210" s="32"/>
+      <c r="J210" s="32"/>
+      <c r="K210" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="211" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="33" t="s">
+      <c r="A211" s="30" t="s">
         <v>864</v>
       </c>
-      <c r="B211" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C211" s="33" t="s">
+      <c r="B211" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C211" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="D211" s="34" t="s">
+      <c r="D211" s="31" t="s">
         <v>730</v>
       </c>
-      <c r="E211" s="33" t="s">
+      <c r="E211" s="30" t="s">
         <v>444</v>
       </c>
       <c r="F211" s="12"/>
-      <c r="G211" s="33" t="s">
+      <c r="G211" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H211" s="32" t="s">
+      <c r="H211" s="29" t="s">
         <v>992</v>
       </c>
-      <c r="I211" s="35"/>
-      <c r="J211" s="35"/>
-      <c r="K211" s="35" t="s">
+      <c r="I211" s="32"/>
+      <c r="J211" s="32"/>
+      <c r="K211" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="212" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A212" s="33" t="s">
+      <c r="A212" s="30" t="s">
         <v>865</v>
       </c>
-      <c r="B212" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C212" s="33" t="s">
+      <c r="B212" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C212" s="30" t="s">
         <v>445</v>
       </c>
-      <c r="D212" s="34" t="s">
+      <c r="D212" s="31" t="s">
         <v>731</v>
       </c>
-      <c r="E212" s="33" t="s">
+      <c r="E212" s="30" t="s">
         <v>445</v>
       </c>
       <c r="F212" s="12" t="s">
         <v>864</v>
       </c>
-      <c r="G212" s="33" t="s">
+      <c r="G212" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H212" s="32" t="s">
+      <c r="H212" s="29" t="s">
         <v>993</v>
       </c>
-      <c r="I212" s="35" t="s">
+      <c r="I212" s="32" t="s">
         <v>1061</v>
       </c>
-      <c r="J212" s="35"/>
-      <c r="K212" s="35" t="s">
+      <c r="J212" s="32"/>
+      <c r="K212" s="32" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="213" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A213" s="33" t="s">
+      <c r="A213" s="30" t="s">
         <v>866</v>
       </c>
-      <c r="B213" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C213" s="33" t="s">
+      <c r="B213" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C213" s="30" t="s">
         <v>446</v>
       </c>
-      <c r="D213" s="34" t="s">
+      <c r="D213" s="31" t="s">
         <v>732</v>
       </c>
-      <c r="E213" s="33" t="s">
+      <c r="E213" s="30" t="s">
         <v>446</v>
       </c>
       <c r="F213" s="12" t="s">
         <v>865</v>
       </c>
-      <c r="G213" s="33" t="s">
+      <c r="G213" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H213" s="32" t="s">
+      <c r="H213" s="29" t="s">
         <v>994</v>
       </c>
-      <c r="I213" s="35"/>
-      <c r="J213" s="35"/>
-      <c r="K213" s="35" t="s">
+      <c r="I213" s="32"/>
+      <c r="J213" s="32"/>
+      <c r="K213" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="214" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="33" t="s">
+      <c r="A214" s="30" t="s">
         <v>867</v>
       </c>
-      <c r="B214" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C214" s="33" t="s">
+      <c r="B214" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C214" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="D214" s="34" t="s">
+      <c r="D214" s="31" t="s">
         <v>733</v>
       </c>
-      <c r="E214" s="33" t="s">
+      <c r="E214" s="30" t="s">
         <v>447</v>
       </c>
       <c r="F214" s="12" t="s">
         <v>865</v>
       </c>
-      <c r="G214" s="33" t="s">
+      <c r="G214" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H214" s="32" t="s">
+      <c r="H214" s="29" t="s">
         <v>995</v>
       </c>
-      <c r="I214" s="35"/>
-      <c r="J214" s="35"/>
-      <c r="K214" s="35" t="s">
+      <c r="I214" s="32"/>
+      <c r="J214" s="32"/>
+      <c r="K214" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="215" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="33" t="s">
+      <c r="A215" s="30" t="s">
         <v>868</v>
       </c>
-      <c r="B215" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C215" s="33" t="s">
+      <c r="B215" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C215" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="D215" s="34" t="s">
+      <c r="D215" s="31" t="s">
         <v>734</v>
       </c>
-      <c r="E215" s="33" t="s">
+      <c r="E215" s="30" t="s">
         <v>448</v>
       </c>
       <c r="F215" s="12" t="s">
         <v>864</v>
       </c>
-      <c r="G215" s="33" t="s">
+      <c r="G215" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H215" s="32" t="s">
+      <c r="H215" s="29" t="s">
         <v>996</v>
       </c>
-      <c r="I215" s="35"/>
-      <c r="J215" s="35"/>
-      <c r="K215" s="35" t="s">
+      <c r="I215" s="32"/>
+      <c r="J215" s="32"/>
+      <c r="K215" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="216" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="33" t="s">
+      <c r="A216" s="30" t="s">
         <v>869</v>
       </c>
-      <c r="B216" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C216" s="33" t="s">
+      <c r="B216" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C216" s="30" t="s">
         <v>449</v>
       </c>
-      <c r="D216" s="34" t="s">
+      <c r="D216" s="31" t="s">
         <v>735</v>
       </c>
-      <c r="E216" s="33" t="s">
+      <c r="E216" s="30" t="s">
         <v>449</v>
       </c>
       <c r="F216" s="12"/>
-      <c r="G216" s="33" t="s">
+      <c r="G216" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H216" s="32" t="s">
+      <c r="H216" s="29" t="s">
         <v>997</v>
       </c>
-      <c r="I216" s="35"/>
-      <c r="J216" s="35"/>
-      <c r="K216" s="35" t="s">
+      <c r="I216" s="32"/>
+      <c r="J216" s="32"/>
+      <c r="K216" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="217" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A217" s="33" t="s">
+      <c r="A217" s="30" t="s">
         <v>870</v>
       </c>
-      <c r="B217" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C217" s="33" t="s">
+      <c r="B217" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C217" s="30" t="s">
         <v>450</v>
       </c>
-      <c r="D217" s="34" t="s">
+      <c r="D217" s="31" t="s">
         <v>736</v>
       </c>
-      <c r="E217" s="33" t="s">
+      <c r="E217" s="30" t="s">
         <v>450</v>
       </c>
       <c r="F217" s="12" t="s">
         <v>869</v>
       </c>
-      <c r="G217" s="33" t="s">
+      <c r="G217" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H217" s="32" t="s">
+      <c r="H217" s="29" t="s">
         <v>998</v>
       </c>
-      <c r="I217" s="35"/>
-      <c r="J217" s="35"/>
-      <c r="K217" s="35" t="s">
+      <c r="I217" s="32"/>
+      <c r="J217" s="32"/>
+      <c r="K217" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="218" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="33" t="s">
+      <c r="A218" s="30" t="s">
         <v>871</v>
       </c>
-      <c r="B218" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C218" s="33" t="s">
+      <c r="B218" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C218" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="D218" s="34" t="s">
+      <c r="D218" s="31" t="s">
         <v>737</v>
       </c>
-      <c r="E218" s="33" t="s">
+      <c r="E218" s="30" t="s">
         <v>451</v>
       </c>
       <c r="F218" s="12" t="s">
         <v>869</v>
       </c>
-      <c r="G218" s="33" t="s">
+      <c r="G218" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H218" s="32" t="s">
+      <c r="H218" s="29" t="s">
         <v>999</v>
       </c>
-      <c r="I218" s="35"/>
-      <c r="J218" s="35"/>
-      <c r="K218" s="35" t="s">
+      <c r="I218" s="32"/>
+      <c r="J218" s="32"/>
+      <c r="K218" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="219" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="33" t="s">
+      <c r="A219" s="30" t="s">
         <v>872</v>
       </c>
-      <c r="B219" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C219" s="33" t="s">
+      <c r="B219" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C219" s="30" t="s">
         <v>452</v>
       </c>
-      <c r="D219" s="34" t="s">
+      <c r="D219" s="31" t="s">
         <v>738</v>
       </c>
-      <c r="E219" s="33" t="s">
+      <c r="E219" s="30" t="s">
         <v>452</v>
       </c>
       <c r="F219" s="12" t="s">
         <v>869</v>
       </c>
-      <c r="G219" s="33" t="s">
+      <c r="G219" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H219" s="32" t="s">
+      <c r="H219" s="29" t="s">
         <v>1000</v>
       </c>
-      <c r="I219" s="35"/>
-      <c r="J219" s="35"/>
-      <c r="K219" s="35" t="s">
+      <c r="I219" s="32"/>
+      <c r="J219" s="32"/>
+      <c r="K219" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="220" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A220" s="33" t="s">
+      <c r="A220" s="30" t="s">
         <v>873</v>
       </c>
-      <c r="B220" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C220" s="33" t="s">
+      <c r="B220" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C220" s="30" t="s">
         <v>453</v>
       </c>
-      <c r="D220" s="34" t="s">
+      <c r="D220" s="31" t="s">
         <v>739</v>
       </c>
-      <c r="E220" s="33" t="s">
+      <c r="E220" s="30" t="s">
         <v>453</v>
       </c>
       <c r="F220" s="12" t="s">
         <v>869</v>
       </c>
-      <c r="G220" s="33" t="s">
+      <c r="G220" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H220" s="32" t="s">
+      <c r="H220" s="29" t="s">
         <v>1001</v>
       </c>
-      <c r="I220" s="35"/>
-      <c r="J220" s="35"/>
-      <c r="K220" s="35" t="s">
+      <c r="I220" s="32"/>
+      <c r="J220" s="32"/>
+      <c r="K220" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="221" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="33" t="s">
+      <c r="A221" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="B221" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C221" s="33" t="s">
+      <c r="B221" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C221" s="30" t="s">
         <v>454</v>
       </c>
-      <c r="D221" s="34" t="s">
+      <c r="D221" s="31" t="s">
         <v>740</v>
       </c>
-      <c r="E221" s="33" t="s">
+      <c r="E221" s="30" t="s">
         <v>454</v>
       </c>
       <c r="F221" s="12" t="s">
         <v>869</v>
       </c>
-      <c r="G221" s="33" t="s">
+      <c r="G221" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H221" s="32" t="s">
+      <c r="H221" s="29" t="s">
         <v>1002</v>
       </c>
-      <c r="I221" s="35"/>
-      <c r="J221" s="35"/>
-      <c r="K221" s="35" t="s">
+      <c r="I221" s="32"/>
+      <c r="J221" s="32"/>
+      <c r="K221" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="222" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="33" t="s">
+      <c r="A222" s="30" t="s">
         <v>875</v>
       </c>
-      <c r="B222" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C222" s="33" t="s">
+      <c r="B222" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C222" s="30" t="s">
         <v>455</v>
       </c>
-      <c r="D222" s="34" t="s">
+      <c r="D222" s="31" t="s">
         <v>741</v>
       </c>
-      <c r="E222" s="33" t="s">
+      <c r="E222" s="30" t="s">
         <v>455</v>
       </c>
       <c r="F222" s="12" t="s">
         <v>869</v>
       </c>
-      <c r="G222" s="33" t="s">
+      <c r="G222" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H222" s="32" t="s">
+      <c r="H222" s="29" t="s">
         <v>1003</v>
       </c>
-      <c r="I222" s="35"/>
-      <c r="J222" s="35"/>
-      <c r="K222" s="35" t="s">
+      <c r="I222" s="32"/>
+      <c r="J222" s="32"/>
+      <c r="K222" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="223" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A223" s="33" t="s">
+      <c r="A223" s="30" t="s">
         <v>876</v>
       </c>
-      <c r="B223" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C223" s="33" t="s">
+      <c r="B223" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C223" s="30" t="s">
         <v>456</v>
       </c>
-      <c r="D223" s="34" t="s">
+      <c r="D223" s="31" t="s">
         <v>742</v>
       </c>
-      <c r="E223" s="33" t="s">
+      <c r="E223" s="30" t="s">
         <v>456</v>
       </c>
       <c r="F223" s="12" t="s">
         <v>869</v>
       </c>
-      <c r="G223" s="33" t="s">
+      <c r="G223" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H223" s="32" t="s">
+      <c r="H223" s="29" t="s">
         <v>1004</v>
       </c>
-      <c r="I223" s="35"/>
-      <c r="J223" s="35"/>
-      <c r="K223" s="35" t="s">
+      <c r="I223" s="32"/>
+      <c r="J223" s="32"/>
+      <c r="K223" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="224" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="33" t="s">
+      <c r="A224" s="30" t="s">
         <v>877</v>
       </c>
-      <c r="B224" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C224" s="33" t="s">
+      <c r="B224" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C224" s="30" t="s">
         <v>457</v>
       </c>
-      <c r="D224" s="34" t="s">
+      <c r="D224" s="31" t="s">
         <v>743</v>
       </c>
-      <c r="E224" s="33" t="s">
+      <c r="E224" s="30" t="s">
         <v>457</v>
       </c>
       <c r="F224" s="12" t="s">
         <v>869</v>
       </c>
-      <c r="G224" s="33" t="s">
+      <c r="G224" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H224" s="32" t="s">
+      <c r="H224" s="29" t="s">
         <v>1005</v>
       </c>
-      <c r="I224" s="35"/>
-      <c r="J224" s="35"/>
-      <c r="K224" s="35" t="s">
+      <c r="I224" s="32"/>
+      <c r="J224" s="32"/>
+      <c r="K224" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="225" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A225" s="33" t="s">
+      <c r="A225" s="30" t="s">
         <v>878</v>
       </c>
-      <c r="B225" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C225" s="33" t="s">
+      <c r="B225" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C225" s="30" t="s">
         <v>458</v>
       </c>
-      <c r="D225" s="34" t="s">
+      <c r="D225" s="31" t="s">
         <v>744</v>
       </c>
-      <c r="E225" s="33" t="s">
+      <c r="E225" s="30" t="s">
         <v>458</v>
       </c>
       <c r="F225" s="12"/>
-      <c r="G225" s="33" t="s">
+      <c r="G225" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H225" s="32" t="s">
+      <c r="H225" s="29" t="s">
         <v>1006</v>
       </c>
-      <c r="I225" s="35" t="s">
+      <c r="I225" s="32" t="s">
         <v>1062</v>
       </c>
-      <c r="J225" s="35"/>
-      <c r="K225" s="35" t="s">
+      <c r="J225" s="32"/>
+      <c r="K225" s="32" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="226" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A226" s="33" t="s">
+      <c r="A226" s="30" t="s">
         <v>879</v>
       </c>
-      <c r="B226" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C226" s="33" t="s">
+      <c r="B226" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C226" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="D226" s="34" t="s">
+      <c r="D226" s="31" t="s">
         <v>745</v>
       </c>
-      <c r="E226" s="33" t="s">
+      <c r="E226" s="30" t="s">
         <v>459</v>
       </c>
       <c r="F226" s="12" t="s">
         <v>878</v>
       </c>
-      <c r="G226" s="33" t="s">
+      <c r="G226" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H226" s="32" t="s">
+      <c r="H226" s="29" t="s">
         <v>1007</v>
       </c>
-      <c r="I226" s="35"/>
-      <c r="J226" s="35"/>
-      <c r="K226" s="35" t="s">
+      <c r="I226" s="32"/>
+      <c r="J226" s="32"/>
+      <c r="K226" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="227" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="33" t="s">
+      <c r="A227" s="30" t="s">
         <v>880</v>
       </c>
-      <c r="B227" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C227" s="33" t="s">
+      <c r="B227" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C227" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="D227" s="34" t="s">
+      <c r="D227" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="E227" s="33" t="s">
+      <c r="E227" s="30" t="s">
         <v>460</v>
       </c>
       <c r="F227" s="12" t="s">
         <v>878</v>
       </c>
-      <c r="G227" s="33" t="s">
+      <c r="G227" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H227" s="32" t="s">
+      <c r="H227" s="29" t="s">
         <v>1008</v>
       </c>
-      <c r="I227" s="35"/>
-      <c r="J227" s="35"/>
-      <c r="K227" s="35" t="s">
+      <c r="I227" s="32"/>
+      <c r="J227" s="32"/>
+      <c r="K227" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="228" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="33" t="s">
+      <c r="A228" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="B228" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C228" s="33" t="s">
+      <c r="B228" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C228" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="D228" s="34" t="s">
+      <c r="D228" s="31" t="s">
         <v>747</v>
       </c>
-      <c r="E228" s="33" t="s">
+      <c r="E228" s="30" t="s">
         <v>461</v>
       </c>
       <c r="F228" s="12"/>
-      <c r="G228" s="33" t="s">
+      <c r="G228" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H228" s="32" t="s">
+      <c r="H228" s="29" t="s">
         <v>1009</v>
       </c>
-      <c r="I228" s="35"/>
-      <c r="J228" s="35"/>
-      <c r="K228" s="35" t="s">
+      <c r="I228" s="32"/>
+      <c r="J228" s="32"/>
+      <c r="K228" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="229" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A229" s="33" t="s">
+      <c r="A229" s="30" t="s">
         <v>882</v>
       </c>
-      <c r="B229" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C229" s="33" t="s">
+      <c r="B229" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C229" s="30" t="s">
         <v>462</v>
       </c>
-      <c r="D229" s="34" t="s">
+      <c r="D229" s="31" t="s">
         <v>748</v>
       </c>
-      <c r="E229" s="33" t="s">
+      <c r="E229" s="30" t="s">
         <v>462</v>
       </c>
       <c r="F229" s="12" t="s">
         <v>881</v>
       </c>
-      <c r="G229" s="33" t="s">
+      <c r="G229" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H229" s="32" t="s">
+      <c r="H229" s="29" t="s">
         <v>1010</v>
       </c>
-      <c r="I229" s="35"/>
-      <c r="J229" s="35"/>
-      <c r="K229" s="35" t="s">
+      <c r="I229" s="32"/>
+      <c r="J229" s="32"/>
+      <c r="K229" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="230" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A230" s="33" t="s">
+      <c r="A230" s="30" t="s">
         <v>883</v>
       </c>
-      <c r="B230" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C230" s="33" t="s">
+      <c r="B230" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C230" s="30" t="s">
         <v>463</v>
       </c>
-      <c r="D230" s="34" t="s">
+      <c r="D230" s="31" t="s">
         <v>749</v>
       </c>
-      <c r="E230" s="33" t="s">
+      <c r="E230" s="30" t="s">
         <v>463</v>
       </c>
       <c r="F230" s="12" t="s">
         <v>881</v>
       </c>
-      <c r="G230" s="33" t="s">
+      <c r="G230" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H230" s="32" t="s">
+      <c r="H230" s="29" t="s">
         <v>1011</v>
       </c>
-      <c r="I230" s="35"/>
-      <c r="J230" s="35"/>
-      <c r="K230" s="35" t="s">
+      <c r="I230" s="32"/>
+      <c r="J230" s="32"/>
+      <c r="K230" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="231" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A231" s="33" t="s">
+      <c r="A231" s="30" t="s">
         <v>884</v>
       </c>
-      <c r="B231" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C231" s="33" t="s">
+      <c r="B231" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C231" s="30" t="s">
         <v>464</v>
       </c>
-      <c r="D231" s="34" t="s">
+      <c r="D231" s="31" t="s">
         <v>750</v>
       </c>
-      <c r="E231" s="33" t="s">
+      <c r="E231" s="30" t="s">
         <v>464</v>
       </c>
       <c r="F231" s="12" t="s">
         <v>881</v>
       </c>
-      <c r="G231" s="33" t="s">
+      <c r="G231" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H231" s="32" t="s">
+      <c r="H231" s="29" t="s">
         <v>1012</v>
       </c>
-      <c r="I231" s="35"/>
-      <c r="J231" s="35"/>
-      <c r="K231" s="35" t="s">
+      <c r="I231" s="32"/>
+      <c r="J231" s="32"/>
+      <c r="K231" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="232" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="33" t="s">
+      <c r="A232" s="30" t="s">
         <v>885</v>
       </c>
-      <c r="B232" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C232" s="33" t="s">
+      <c r="B232" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C232" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="D232" s="34" t="s">
+      <c r="D232" s="31" t="s">
         <v>751</v>
       </c>
-      <c r="E232" s="33" t="s">
+      <c r="E232" s="30" t="s">
         <v>465</v>
       </c>
       <c r="F232" s="12" t="s">
         <v>881</v>
       </c>
-      <c r="G232" s="33" t="s">
+      <c r="G232" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H232" s="32" t="s">
+      <c r="H232" s="29" t="s">
         <v>1013</v>
       </c>
-      <c r="I232" s="32"/>
-      <c r="J232" s="35"/>
-      <c r="K232" s="35" t="s">
+      <c r="I232" s="29"/>
+      <c r="J232" s="32"/>
+      <c r="K232" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="233" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A233" s="33" t="s">
+      <c r="A233" s="30" t="s">
         <v>886</v>
       </c>
-      <c r="B233" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C233" s="33" t="s">
+      <c r="B233" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C233" s="30" t="s">
         <v>466</v>
       </c>
-      <c r="D233" s="34" t="s">
+      <c r="D233" s="31" t="s">
         <v>752</v>
       </c>
-      <c r="E233" s="33" t="s">
+      <c r="E233" s="30" t="s">
         <v>466</v>
       </c>
       <c r="F233" s="12" t="s">
         <v>881</v>
       </c>
-      <c r="G233" s="33" t="s">
+      <c r="G233" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H233" s="32" t="s">
+      <c r="H233" s="29" t="s">
         <v>1014</v>
       </c>
-      <c r="I233" s="35"/>
-      <c r="J233" s="35"/>
-      <c r="K233" s="35" t="s">
+      <c r="I233" s="32"/>
+      <c r="J233" s="32"/>
+      <c r="K233" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="234" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="33" t="s">
+      <c r="A234" s="30" t="s">
         <v>887</v>
       </c>
-      <c r="B234" s="33" t="s">
+      <c r="B234" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C234" s="33" t="s">
+      <c r="C234" s="30" t="s">
         <v>467</v>
       </c>
-      <c r="D234" s="34" t="s">
+      <c r="D234" s="31" t="s">
         <v>682</v>
       </c>
-      <c r="E234" s="33" t="s">
+      <c r="E234" s="30" t="s">
         <v>467</v>
       </c>
       <c r="F234" s="12"/>
-      <c r="G234" s="35"/>
-      <c r="H234" s="32" t="s">
+      <c r="G234" s="32"/>
+      <c r="H234" s="29" t="s">
         <v>1015</v>
       </c>
-      <c r="I234" s="35"/>
-      <c r="J234" s="35"/>
-      <c r="K234" s="35" t="s">
+      <c r="I234" s="32"/>
+      <c r="J234" s="32"/>
+      <c r="K234" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="235" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="33" t="s">
+      <c r="A235" s="30" t="s">
         <v>888</v>
       </c>
-      <c r="B235" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C235" s="33" t="s">
+      <c r="B235" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C235" s="30" t="s">
         <v>468</v>
       </c>
-      <c r="D235" s="34" t="s">
+      <c r="D235" s="31" t="s">
         <v>753</v>
       </c>
-      <c r="E235" s="33" t="s">
+      <c r="E235" s="30" t="s">
         <v>468</v>
       </c>
       <c r="F235" s="12"/>
-      <c r="G235" s="33" t="s">
+      <c r="G235" s="30" t="s">
         <v>887</v>
       </c>
-      <c r="H235" s="32" t="s">
+      <c r="H235" s="29" t="s">
         <v>1016</v>
       </c>
-      <c r="I235" s="35"/>
-      <c r="J235" s="35"/>
-      <c r="K235" s="35" t="s">
+      <c r="I235" s="32"/>
+      <c r="J235" s="32"/>
+      <c r="K235" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="236" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="33" t="s">
+      <c r="A236" s="30" t="s">
         <v>889</v>
       </c>
-      <c r="B236" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C236" s="33" t="s">
+      <c r="B236" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C236" s="30" t="s">
         <v>469</v>
       </c>
-      <c r="D236" s="34" t="s">
+      <c r="D236" s="31" t="s">
         <v>754</v>
       </c>
-      <c r="E236" s="33" t="s">
+      <c r="E236" s="30" t="s">
         <v>469</v>
       </c>
       <c r="F236" s="12"/>
-      <c r="G236" s="33" t="s">
+      <c r="G236" s="30" t="s">
         <v>887</v>
       </c>
-      <c r="H236" s="32" t="s">
+      <c r="H236" s="29" t="s">
         <v>1017</v>
       </c>
-      <c r="I236" s="35"/>
-      <c r="J236" s="35"/>
-      <c r="K236" s="35" t="s">
+      <c r="I236" s="32"/>
+      <c r="J236" s="32"/>
+      <c r="K236" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="237" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="33" t="s">
+      <c r="A237" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="B237" s="33" t="s">
+      <c r="B237" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C237" s="33" t="s">
+      <c r="C237" s="30" t="s">
         <v>470</v>
       </c>
-      <c r="D237" s="34" t="s">
+      <c r="D237" s="31" t="s">
         <v>683</v>
       </c>
-      <c r="E237" s="33" t="s">
+      <c r="E237" s="30" t="s">
         <v>470</v>
       </c>
       <c r="F237" s="12"/>
-      <c r="G237" s="35"/>
-      <c r="H237" s="32" t="s">
+      <c r="G237" s="32"/>
+      <c r="H237" s="29" t="s">
         <v>1018</v>
       </c>
-      <c r="I237" s="35"/>
-      <c r="J237" s="35"/>
-      <c r="K237" s="35" t="s">
+      <c r="I237" s="32"/>
+      <c r="J237" s="32"/>
+      <c r="K237" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="238" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="33" t="s">
+      <c r="A238" s="30" t="s">
         <v>891</v>
       </c>
-      <c r="B238" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C238" s="33" t="s">
+      <c r="B238" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C238" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="D238" s="34" t="s">
+      <c r="D238" s="31" t="s">
         <v>755</v>
       </c>
-      <c r="E238" s="33" t="s">
+      <c r="E238" s="30" t="s">
         <v>471</v>
       </c>
       <c r="F238" s="12"/>
-      <c r="G238" s="33" t="s">
+      <c r="G238" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H238" s="32" t="s">
+      <c r="H238" s="29" t="s">
         <v>1019</v>
       </c>
-      <c r="I238" s="35"/>
-      <c r="J238" s="35"/>
-      <c r="K238" s="35" t="s">
+      <c r="I238" s="32"/>
+      <c r="J238" s="32"/>
+      <c r="K238" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="239" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="33" t="s">
+      <c r="A239" s="30" t="s">
         <v>892</v>
       </c>
-      <c r="B239" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C239" s="33" t="s">
+      <c r="B239" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C239" s="30" t="s">
         <v>472</v>
       </c>
-      <c r="D239" s="34" t="s">
+      <c r="D239" s="31" t="s">
         <v>756</v>
       </c>
-      <c r="E239" s="33" t="s">
+      <c r="E239" s="30" t="s">
         <v>472</v>
       </c>
       <c r="F239" s="12" t="s">
         <v>891</v>
       </c>
-      <c r="G239" s="33" t="s">
+      <c r="G239" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H239" s="32" t="s">
+      <c r="H239" s="29" t="s">
         <v>1020</v>
       </c>
-      <c r="I239" s="35"/>
-      <c r="J239" s="35"/>
-      <c r="K239" s="35" t="s">
+      <c r="I239" s="32"/>
+      <c r="J239" s="32"/>
+      <c r="K239" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="240" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="33" t="s">
+      <c r="A240" s="30" t="s">
         <v>893</v>
       </c>
-      <c r="B240" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C240" s="33" t="s">
+      <c r="B240" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C240" s="30" t="s">
         <v>473</v>
       </c>
-      <c r="D240" s="34" t="s">
+      <c r="D240" s="31" t="s">
         <v>757</v>
       </c>
-      <c r="E240" s="33" t="s">
+      <c r="E240" s="30" t="s">
         <v>473</v>
       </c>
       <c r="F240" s="12" t="s">
         <v>891</v>
       </c>
-      <c r="G240" s="33" t="s">
+      <c r="G240" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H240" s="32" t="s">
+      <c r="H240" s="29" t="s">
         <v>1021</v>
       </c>
-      <c r="I240" s="35"/>
-      <c r="J240" s="35"/>
-      <c r="K240" s="35" t="s">
+      <c r="I240" s="32"/>
+      <c r="J240" s="32"/>
+      <c r="K240" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="241" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="33" t="s">
+      <c r="A241" s="30" t="s">
         <v>894</v>
       </c>
-      <c r="B241" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C241" s="33" t="s">
+      <c r="B241" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C241" s="30" t="s">
         <v>474</v>
       </c>
-      <c r="D241" s="34" t="s">
+      <c r="D241" s="31" t="s">
         <v>758</v>
       </c>
-      <c r="E241" s="33" t="s">
+      <c r="E241" s="30" t="s">
         <v>474</v>
       </c>
       <c r="F241" s="12" t="s">
         <v>891</v>
       </c>
-      <c r="G241" s="33" t="s">
+      <c r="G241" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H241" s="32" t="s">
+      <c r="H241" s="29" t="s">
         <v>1022</v>
       </c>
-      <c r="I241" s="35"/>
-      <c r="J241" s="35"/>
-      <c r="K241" s="35" t="s">
+      <c r="I241" s="32"/>
+      <c r="J241" s="32"/>
+      <c r="K241" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="242" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="33" t="s">
+      <c r="A242" s="30" t="s">
         <v>895</v>
       </c>
-      <c r="B242" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C242" s="33" t="s">
+      <c r="B242" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C242" s="30" t="s">
         <v>475</v>
       </c>
-      <c r="D242" s="34" t="s">
+      <c r="D242" s="31" t="s">
         <v>759</v>
       </c>
-      <c r="E242" s="33" t="s">
+      <c r="E242" s="30" t="s">
         <v>475</v>
       </c>
       <c r="F242" s="12" t="s">
         <v>891</v>
       </c>
-      <c r="G242" s="33" t="s">
+      <c r="G242" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H242" s="32" t="s">
+      <c r="H242" s="29" t="s">
         <v>1023</v>
       </c>
-      <c r="I242" s="35"/>
-      <c r="J242" s="35"/>
-      <c r="K242" s="35" t="s">
+      <c r="I242" s="32"/>
+      <c r="J242" s="32"/>
+      <c r="K242" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="243" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="33" t="s">
+      <c r="A243" s="30" t="s">
         <v>896</v>
       </c>
-      <c r="B243" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C243" s="33" t="s">
+      <c r="B243" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C243" s="30" t="s">
         <v>476</v>
       </c>
-      <c r="D243" s="34" t="s">
+      <c r="D243" s="31" t="s">
         <v>760</v>
       </c>
-      <c r="E243" s="33" t="s">
+      <c r="E243" s="30" t="s">
         <v>476</v>
       </c>
       <c r="F243" s="12"/>
-      <c r="G243" s="33" t="s">
+      <c r="G243" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H243" s="32" t="s">
+      <c r="H243" s="29" t="s">
         <v>1024</v>
       </c>
-      <c r="I243" s="35"/>
-      <c r="J243" s="35"/>
-      <c r="K243" s="35" t="s">
+      <c r="I243" s="32"/>
+      <c r="J243" s="32"/>
+      <c r="K243" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="244" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="33" t="s">
+      <c r="A244" s="30" t="s">
         <v>897</v>
       </c>
-      <c r="B244" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C244" s="33" t="s">
+      <c r="B244" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C244" s="30" t="s">
         <v>477</v>
       </c>
-      <c r="D244" s="34" t="s">
+      <c r="D244" s="31" t="s">
         <v>761</v>
       </c>
-      <c r="E244" s="33" t="s">
+      <c r="E244" s="30" t="s">
         <v>477</v>
       </c>
       <c r="F244" s="12" t="s">
         <v>896</v>
       </c>
-      <c r="G244" s="33" t="s">
+      <c r="G244" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H244" s="32" t="s">
+      <c r="H244" s="29" t="s">
         <v>1025</v>
       </c>
-      <c r="I244" s="35"/>
-      <c r="J244" s="35"/>
-      <c r="K244" s="35" t="s">
+      <c r="I244" s="32"/>
+      <c r="J244" s="32"/>
+      <c r="K244" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="245" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A245" s="33" t="s">
+      <c r="A245" s="30" t="s">
         <v>898</v>
       </c>
-      <c r="B245" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C245" s="33" t="s">
+      <c r="B245" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C245" s="30" t="s">
         <v>478</v>
       </c>
-      <c r="D245" s="34" t="s">
+      <c r="D245" s="31" t="s">
         <v>762</v>
       </c>
-      <c r="E245" s="33" t="s">
+      <c r="E245" s="30" t="s">
         <v>478</v>
       </c>
       <c r="F245" s="12" t="s">
         <v>896</v>
       </c>
-      <c r="G245" s="33" t="s">
+      <c r="G245" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H245" s="32" t="s">
+      <c r="H245" s="29" t="s">
         <v>1026</v>
       </c>
-      <c r="I245" s="35"/>
-      <c r="J245" s="35"/>
-      <c r="K245" s="35" t="s">
+      <c r="I245" s="32"/>
+      <c r="J245" s="32"/>
+      <c r="K245" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="246" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="33" t="s">
+      <c r="A246" s="30" t="s">
         <v>899</v>
       </c>
-      <c r="B246" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C246" s="33" t="s">
+      <c r="B246" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C246" s="30" t="s">
         <v>479</v>
       </c>
-      <c r="D246" s="34" t="s">
+      <c r="D246" s="31" t="s">
         <v>763</v>
       </c>
-      <c r="E246" s="33" t="s">
+      <c r="E246" s="30" t="s">
         <v>479</v>
       </c>
       <c r="F246" s="12"/>
-      <c r="G246" s="33" t="s">
+      <c r="G246" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H246" s="32" t="s">
+      <c r="H246" s="29" t="s">
         <v>1027</v>
       </c>
-      <c r="I246" s="35"/>
-      <c r="J246" s="35"/>
-      <c r="K246" s="35" t="s">
+      <c r="I246" s="32"/>
+      <c r="J246" s="32"/>
+      <c r="K246" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="247" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="33" t="s">
+      <c r="A247" s="30" t="s">
         <v>900</v>
       </c>
-      <c r="B247" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C247" s="33" t="s">
+      <c r="B247" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C247" s="30" t="s">
         <v>480</v>
       </c>
-      <c r="D247" s="34" t="s">
+      <c r="D247" s="31" t="s">
         <v>764</v>
       </c>
-      <c r="E247" s="33" t="s">
+      <c r="E247" s="30" t="s">
         <v>480</v>
       </c>
       <c r="F247" s="12" t="s">
         <v>899</v>
       </c>
-      <c r="G247" s="33" t="s">
+      <c r="G247" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H247" s="32" t="s">
+      <c r="H247" s="29" t="s">
         <v>1028</v>
       </c>
-      <c r="I247" s="35"/>
-      <c r="J247" s="35"/>
-      <c r="K247" s="35" t="s">
+      <c r="I247" s="32"/>
+      <c r="J247" s="32"/>
+      <c r="K247" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="248" spans="1:11" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A248" s="33" t="s">
+      <c r="A248" s="30" t="s">
         <v>901</v>
       </c>
-      <c r="B248" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C248" s="33" t="s">
+      <c r="B248" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C248" s="30" t="s">
         <v>481</v>
       </c>
-      <c r="D248" s="34" t="s">
+      <c r="D248" s="31" t="s">
         <v>765</v>
       </c>
-      <c r="E248" s="33" t="s">
+      <c r="E248" s="30" t="s">
         <v>481</v>
       </c>
       <c r="F248" s="12" t="s">
         <v>899</v>
       </c>
-      <c r="G248" s="33" t="s">
+      <c r="G248" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H248" s="32" t="s">
+      <c r="H248" s="29" t="s">
         <v>1029</v>
       </c>
-      <c r="I248" s="46" t="s">
+      <c r="I248" s="32" t="s">
         <v>1063</v>
       </c>
-      <c r="J248" s="46"/>
-      <c r="K248" s="35" t="s">
+      <c r="J248" s="32"/>
+      <c r="K248" s="32" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="249" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A249" s="33" t="s">
+      <c r="A249" s="30" t="s">
         <v>902</v>
       </c>
-      <c r="B249" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C249" s="33" t="s">
+      <c r="B249" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C249" s="30" t="s">
         <v>482</v>
       </c>
-      <c r="D249" s="34" t="s">
+      <c r="D249" s="31" t="s">
         <v>766</v>
       </c>
-      <c r="E249" s="33" t="s">
+      <c r="E249" s="30" t="s">
         <v>482</v>
       </c>
       <c r="F249" s="12" t="s">
         <v>901</v>
       </c>
-      <c r="G249" s="33" t="s">
+      <c r="G249" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H249" s="32" t="s">
+      <c r="H249" s="29" t="s">
         <v>1030</v>
       </c>
-      <c r="I249" s="35"/>
-      <c r="J249" s="35"/>
-      <c r="K249" s="35" t="s">
+      <c r="I249" s="32"/>
+      <c r="J249" s="32"/>
+      <c r="K249" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="250" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="33" t="s">
+      <c r="A250" s="30" t="s">
         <v>903</v>
       </c>
-      <c r="B250" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C250" s="33" t="s">
+      <c r="B250" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C250" s="30" t="s">
         <v>483</v>
       </c>
-      <c r="D250" s="34" t="s">
+      <c r="D250" s="31" t="s">
         <v>767</v>
       </c>
-      <c r="E250" s="33" t="s">
+      <c r="E250" s="30" t="s">
         <v>483</v>
       </c>
       <c r="F250" s="12" t="s">
         <v>901</v>
       </c>
-      <c r="G250" s="33" t="s">
+      <c r="G250" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H250" s="32" t="s">
+      <c r="H250" s="29" t="s">
         <v>1031</v>
       </c>
-      <c r="I250" s="35"/>
-      <c r="J250" s="35"/>
-      <c r="K250" s="35" t="s">
+      <c r="I250" s="32"/>
+      <c r="J250" s="32"/>
+      <c r="K250" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="251" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="33" t="s">
+      <c r="A251" s="30" t="s">
         <v>904</v>
       </c>
-      <c r="B251" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C251" s="33" t="s">
+      <c r="B251" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C251" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="D251" s="34" t="s">
+      <c r="D251" s="31" t="s">
         <v>768</v>
       </c>
-      <c r="E251" s="33" t="s">
+      <c r="E251" s="30" t="s">
         <v>484</v>
       </c>
       <c r="F251" s="12"/>
-      <c r="G251" s="33" t="s">
+      <c r="G251" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H251" s="32" t="s">
+      <c r="H251" s="29" t="s">
         <v>1032</v>
       </c>
-      <c r="I251" s="35"/>
-      <c r="J251" s="35"/>
-      <c r="K251" s="35" t="s">
+      <c r="I251" s="32"/>
+      <c r="J251" s="32"/>
+      <c r="K251" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="252" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="33" t="s">
+      <c r="A252" s="30" t="s">
         <v>905</v>
       </c>
-      <c r="B252" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C252" s="33" t="s">
+      <c r="B252" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C252" s="30" t="s">
         <v>485</v>
       </c>
-      <c r="D252" s="34" t="s">
+      <c r="D252" s="31" t="s">
         <v>769</v>
       </c>
-      <c r="E252" s="33" t="s">
+      <c r="E252" s="30" t="s">
         <v>485</v>
       </c>
       <c r="F252" s="12"/>
-      <c r="G252" s="33" t="s">
+      <c r="G252" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H252" s="32" t="s">
+      <c r="H252" s="29" t="s">
         <v>1033</v>
       </c>
-      <c r="I252" s="35"/>
-      <c r="J252" s="35"/>
-      <c r="K252" s="35" t="s">
+      <c r="I252" s="32"/>
+      <c r="J252" s="32"/>
+      <c r="K252" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="253" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="33" t="s">
+      <c r="A253" s="30" t="s">
         <v>906</v>
       </c>
-      <c r="B253" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C253" s="33" t="s">
+      <c r="B253" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C253" s="30" t="s">
         <v>486</v>
       </c>
-      <c r="D253" s="34" t="s">
+      <c r="D253" s="31" t="s">
         <v>770</v>
       </c>
-      <c r="E253" s="33" t="s">
+      <c r="E253" s="30" t="s">
         <v>486</v>
       </c>
       <c r="F253" s="12" t="s">
         <v>905</v>
       </c>
-      <c r="G253" s="33" t="s">
+      <c r="G253" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H253" s="32" t="s">
+      <c r="H253" s="29" t="s">
         <v>1034</v>
       </c>
-      <c r="I253" s="35"/>
-      <c r="J253" s="35"/>
-      <c r="K253" s="35" t="s">
+      <c r="I253" s="32"/>
+      <c r="J253" s="32"/>
+      <c r="K253" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="254" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A254" s="33" t="s">
+      <c r="A254" s="30" t="s">
         <v>907</v>
       </c>
-      <c r="B254" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C254" s="33" t="s">
+      <c r="B254" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C254" s="30" t="s">
         <v>487</v>
       </c>
-      <c r="D254" s="34" t="s">
+      <c r="D254" s="31" t="s">
         <v>771</v>
       </c>
-      <c r="E254" s="33" t="s">
+      <c r="E254" s="30" t="s">
         <v>487</v>
       </c>
       <c r="F254" s="12" t="s">
         <v>905</v>
       </c>
-      <c r="G254" s="33" t="s">
+      <c r="G254" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H254" s="32" t="s">
+      <c r="H254" s="29" t="s">
         <v>1035</v>
       </c>
-      <c r="I254" s="35"/>
-      <c r="J254" s="35"/>
-      <c r="K254" s="35" t="s">
+      <c r="I254" s="32"/>
+      <c r="J254" s="32"/>
+      <c r="K254" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="255" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="33" t="s">
+      <c r="A255" s="30" t="s">
         <v>908</v>
       </c>
-      <c r="B255" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C255" s="33" t="s">
+      <c r="B255" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C255" s="30" t="s">
         <v>488</v>
       </c>
-      <c r="D255" s="34" t="s">
+      <c r="D255" s="31" t="s">
         <v>772</v>
       </c>
-      <c r="E255" s="33" t="s">
+      <c r="E255" s="30" t="s">
         <v>488</v>
       </c>
       <c r="F255" s="12"/>
-      <c r="G255" s="33" t="s">
+      <c r="G255" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H255" s="32" t="s">
+      <c r="H255" s="29" t="s">
         <v>1036</v>
       </c>
-      <c r="I255" s="35"/>
-      <c r="J255" s="35"/>
-      <c r="K255" s="35" t="s">
+      <c r="I255" s="32"/>
+      <c r="J255" s="32"/>
+      <c r="K255" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="256" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A256" s="33" t="s">
+      <c r="A256" s="30" t="s">
         <v>909</v>
       </c>
-      <c r="B256" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C256" s="33" t="s">
+      <c r="B256" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C256" s="30" t="s">
         <v>489</v>
       </c>
-      <c r="D256" s="34" t="s">
+      <c r="D256" s="31" t="s">
         <v>773</v>
       </c>
-      <c r="E256" s="33" t="s">
+      <c r="E256" s="30" t="s">
         <v>489</v>
       </c>
       <c r="F256" s="12"/>
-      <c r="G256" s="33" t="s">
+      <c r="G256" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H256" s="32" t="s">
+      <c r="H256" s="29" t="s">
         <v>1037</v>
       </c>
-      <c r="I256" s="35"/>
-      <c r="J256" s="35"/>
-      <c r="K256" s="35" t="s">
+      <c r="I256" s="32"/>
+      <c r="J256" s="32"/>
+      <c r="K256" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="257" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="33" t="s">
+      <c r="A257" s="30" t="s">
         <v>910</v>
       </c>
-      <c r="B257" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C257" s="33" t="s">
+      <c r="B257" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C257" s="30" t="s">
         <v>490</v>
       </c>
-      <c r="D257" s="34" t="s">
+      <c r="D257" s="31" t="s">
         <v>774</v>
       </c>
-      <c r="E257" s="33" t="s">
+      <c r="E257" s="30" t="s">
         <v>490</v>
       </c>
       <c r="F257" s="12"/>
-      <c r="G257" s="33" t="s">
+      <c r="G257" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H257" s="32" t="s">
+      <c r="H257" s="29" t="s">
         <v>1038</v>
       </c>
-      <c r="I257" s="35"/>
-      <c r="J257" s="35"/>
-      <c r="K257" s="35" t="s">
+      <c r="I257" s="32"/>
+      <c r="J257" s="32"/>
+      <c r="K257" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="258" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A258" s="33" t="s">
+      <c r="A258" s="30" t="s">
         <v>911</v>
       </c>
-      <c r="B258" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C258" s="33" t="s">
+      <c r="B258" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C258" s="30" t="s">
         <v>491</v>
       </c>
-      <c r="D258" s="34" t="s">
+      <c r="D258" s="31" t="s">
         <v>775</v>
       </c>
-      <c r="E258" s="33" t="s">
+      <c r="E258" s="30" t="s">
         <v>491</v>
       </c>
       <c r="F258" s="12"/>
-      <c r="G258" s="33" t="s">
+      <c r="G258" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H258" s="32" t="s">
+      <c r="H258" s="29" t="s">
         <v>1039</v>
       </c>
-      <c r="I258" s="35"/>
-      <c r="J258" s="35"/>
-      <c r="K258" s="35" t="s">
+      <c r="I258" s="32"/>
+      <c r="J258" s="32"/>
+      <c r="K258" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="259" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="33" t="s">
+      <c r="A259" s="30" t="s">
         <v>912</v>
       </c>
-      <c r="B259" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C259" s="33" t="s">
+      <c r="B259" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C259" s="30" t="s">
         <v>492</v>
       </c>
-      <c r="D259" s="34" t="s">
+      <c r="D259" s="31" t="s">
         <v>776</v>
       </c>
-      <c r="E259" s="33" t="s">
+      <c r="E259" s="30" t="s">
         <v>492</v>
       </c>
       <c r="F259" s="12"/>
-      <c r="G259" s="33" t="s">
+      <c r="G259" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H259" s="32" t="s">
+      <c r="H259" s="29" t="s">
         <v>1040</v>
       </c>
-      <c r="I259" s="35"/>
-      <c r="J259" s="35"/>
-      <c r="K259" s="35" t="s">
+      <c r="I259" s="32"/>
+      <c r="J259" s="32"/>
+      <c r="K259" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="260" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="33" t="s">
+      <c r="A260" s="30" t="s">
         <v>913</v>
       </c>
-      <c r="B260" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C260" s="33" t="s">
+      <c r="B260" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C260" s="30" t="s">
         <v>493</v>
       </c>
-      <c r="D260" s="34" t="s">
+      <c r="D260" s="31" t="s">
         <v>777</v>
       </c>
-      <c r="E260" s="33" t="s">
+      <c r="E260" s="30" t="s">
         <v>493</v>
       </c>
       <c r="F260" s="12"/>
-      <c r="G260" s="33" t="s">
+      <c r="G260" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H260" s="32" t="s">
+      <c r="H260" s="29" t="s">
         <v>1041</v>
       </c>
-      <c r="I260" s="35"/>
-      <c r="J260" s="35"/>
-      <c r="K260" s="35" t="s">
+      <c r="I260" s="32"/>
+      <c r="J260" s="32"/>
+      <c r="K260" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="261" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="33" t="s">
+      <c r="A261" s="30" t="s">
         <v>914</v>
       </c>
-      <c r="B261" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C261" s="33" t="s">
+      <c r="B261" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C261" s="30" t="s">
         <v>494</v>
       </c>
-      <c r="D261" s="34" t="s">
+      <c r="D261" s="31" t="s">
         <v>778</v>
       </c>
-      <c r="E261" s="33" t="s">
+      <c r="E261" s="30" t="s">
         <v>494</v>
       </c>
       <c r="F261" s="12" t="s">
         <v>913</v>
       </c>
-      <c r="G261" s="33" t="s">
+      <c r="G261" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H261" s="32" t="s">
+      <c r="H261" s="29" t="s">
         <v>1042</v>
       </c>
-      <c r="I261" s="35"/>
-      <c r="J261" s="35"/>
-      <c r="K261" s="35" t="s">
+      <c r="I261" s="32"/>
+      <c r="J261" s="32"/>
+      <c r="K261" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="262" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A262" s="33" t="s">
+      <c r="A262" s="30" t="s">
         <v>915</v>
       </c>
-      <c r="B262" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C262" s="33" t="s">
+      <c r="B262" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C262" s="30" t="s">
         <v>495</v>
       </c>
-      <c r="D262" s="34" t="s">
+      <c r="D262" s="31" t="s">
         <v>779</v>
       </c>
-      <c r="E262" s="33" t="s">
+      <c r="E262" s="30" t="s">
         <v>495</v>
       </c>
       <c r="F262" s="12" t="s">
         <v>913</v>
       </c>
-      <c r="G262" s="33" t="s">
+      <c r="G262" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H262" s="32" t="s">
+      <c r="H262" s="29" t="s">
         <v>1043</v>
       </c>
-      <c r="I262" s="35"/>
-      <c r="J262" s="35"/>
-      <c r="K262" s="35" t="s">
+      <c r="I262" s="32"/>
+      <c r="J262" s="32"/>
+      <c r="K262" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="263" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A263" s="33" t="s">
+      <c r="A263" s="30" t="s">
         <v>916</v>
       </c>
-      <c r="B263" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C263" s="33" t="s">
+      <c r="B263" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C263" s="30" t="s">
         <v>496</v>
       </c>
-      <c r="D263" s="34" t="s">
+      <c r="D263" s="31" t="s">
         <v>780</v>
       </c>
-      <c r="E263" s="33" t="s">
+      <c r="E263" s="30" t="s">
         <v>496</v>
       </c>
       <c r="F263" s="12" t="s">
         <v>913</v>
       </c>
-      <c r="G263" s="33" t="s">
+      <c r="G263" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H263" s="32" t="s">
+      <c r="H263" s="29" t="s">
         <v>1044</v>
       </c>
-      <c r="I263" s="35"/>
-      <c r="J263" s="35"/>
-      <c r="K263" s="35" t="s">
+      <c r="I263" s="32"/>
+      <c r="J263" s="32"/>
+      <c r="K263" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="264" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A264" s="33" t="s">
+      <c r="A264" s="30" t="s">
         <v>917</v>
       </c>
-      <c r="B264" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C264" s="33" t="s">
+      <c r="B264" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C264" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="D264" s="34" t="s">
+      <c r="D264" s="31" t="s">
         <v>781</v>
       </c>
-      <c r="E264" s="33" t="s">
+      <c r="E264" s="30" t="s">
         <v>497</v>
       </c>
       <c r="F264" s="12" t="s">
         <v>913</v>
       </c>
-      <c r="G264" s="33" t="s">
+      <c r="G264" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H264" s="32" t="s">
+      <c r="H264" s="29" t="s">
         <v>1045</v>
       </c>
-      <c r="I264" s="35"/>
-      <c r="J264" s="35"/>
-      <c r="K264" s="35" t="s">
+      <c r="I264" s="32"/>
+      <c r="J264" s="32"/>
+      <c r="K264" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="265" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A265" s="33" t="s">
+      <c r="A265" s="30" t="s">
         <v>918</v>
       </c>
-      <c r="B265" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C265" s="33" t="s">
+      <c r="B265" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C265" s="30" t="s">
         <v>498</v>
       </c>
-      <c r="D265" s="34" t="s">
+      <c r="D265" s="31" t="s">
         <v>782</v>
       </c>
-      <c r="E265" s="33" t="s">
+      <c r="E265" s="30" t="s">
         <v>498</v>
       </c>
       <c r="F265" s="12" t="s">
         <v>913</v>
       </c>
-      <c r="G265" s="33" t="s">
+      <c r="G265" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H265" s="32" t="s">
+      <c r="H265" s="29" t="s">
         <v>1046</v>
       </c>
-      <c r="I265" s="35"/>
-      <c r="J265" s="35"/>
-      <c r="K265" s="35" t="s">
+      <c r="I265" s="32"/>
+      <c r="J265" s="32"/>
+      <c r="K265" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="266" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A266" s="33" t="s">
+      <c r="A266" s="30" t="s">
         <v>919</v>
       </c>
-      <c r="B266" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C266" s="33" t="s">
+      <c r="B266" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C266" s="30" t="s">
         <v>499</v>
       </c>
-      <c r="D266" s="34" t="s">
+      <c r="D266" s="31" t="s">
         <v>783</v>
       </c>
-      <c r="E266" s="33" t="s">
+      <c r="E266" s="30" t="s">
         <v>499</v>
       </c>
       <c r="F266" s="12" t="s">
         <v>913</v>
       </c>
-      <c r="G266" s="33" t="s">
+      <c r="G266" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H266" s="32" t="s">
+      <c r="H266" s="29" t="s">
         <v>1047</v>
       </c>
-      <c r="I266" s="35"/>
-      <c r="J266" s="35"/>
-      <c r="K266" s="35" t="s">
+      <c r="I266" s="32"/>
+      <c r="J266" s="32"/>
+      <c r="K266" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="267" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A267" s="33" t="s">
+      <c r="A267" s="30" t="s">
         <v>920</v>
       </c>
-      <c r="B267" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C267" s="33" t="s">
+      <c r="B267" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C267" s="30" t="s">
         <v>500</v>
       </c>
-      <c r="D267" s="34" t="s">
+      <c r="D267" s="31" t="s">
         <v>784</v>
       </c>
-      <c r="E267" s="33" t="s">
+      <c r="E267" s="30" t="s">
         <v>500</v>
       </c>
       <c r="F267" s="12" t="s">
         <v>913</v>
       </c>
-      <c r="G267" s="33" t="s">
+      <c r="G267" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H267" s="32" t="s">
+      <c r="H267" s="29" t="s">
         <v>1048</v>
       </c>
-      <c r="I267" s="35"/>
-      <c r="J267" s="35"/>
-      <c r="K267" s="35" t="s">
+      <c r="I267" s="32"/>
+      <c r="J267" s="32"/>
+      <c r="K267" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="268" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A268" s="33" t="s">
+      <c r="A268" s="30" t="s">
         <v>921</v>
       </c>
-      <c r="B268" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C268" s="33" t="s">
+      <c r="B268" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C268" s="30" t="s">
         <v>501</v>
       </c>
-      <c r="D268" s="34" t="s">
+      <c r="D268" s="31" t="s">
         <v>785</v>
       </c>
-      <c r="E268" s="33" t="s">
+      <c r="E268" s="30" t="s">
         <v>501</v>
       </c>
       <c r="F268" s="12" t="s">
         <v>913</v>
       </c>
-      <c r="G268" s="33" t="s">
+      <c r="G268" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H268" s="32" t="s">
+      <c r="H268" s="29" t="s">
         <v>1049</v>
       </c>
-      <c r="I268" s="35"/>
-      <c r="J268" s="35"/>
-      <c r="K268" s="35" t="s">
+      <c r="I268" s="32"/>
+      <c r="J268" s="32"/>
+      <c r="K268" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="269" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A269" s="33" t="s">
+      <c r="A269" s="30" t="s">
         <v>922</v>
       </c>
-      <c r="B269" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C269" s="33" t="s">
+      <c r="B269" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C269" s="30" t="s">
         <v>502</v>
       </c>
-      <c r="D269" s="34" t="s">
+      <c r="D269" s="31" t="s">
         <v>786</v>
       </c>
-      <c r="E269" s="33" t="s">
+      <c r="E269" s="30" t="s">
         <v>502</v>
       </c>
       <c r="F269" s="12" t="s">
         <v>913</v>
       </c>
-      <c r="G269" s="33" t="s">
+      <c r="G269" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H269" s="32" t="s">
+      <c r="H269" s="29" t="s">
         <v>1050</v>
       </c>
-      <c r="I269" s="35"/>
-      <c r="J269" s="35"/>
-      <c r="K269" s="35" t="s">
+      <c r="I269" s="32"/>
+      <c r="J269" s="32"/>
+      <c r="K269" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="270" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A270" s="33" t="s">
+      <c r="A270" s="30" t="s">
         <v>923</v>
       </c>
-      <c r="B270" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C270" s="33" t="s">
+      <c r="B270" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C270" s="30" t="s">
         <v>503</v>
       </c>
-      <c r="D270" s="34" t="s">
+      <c r="D270" s="31" t="s">
         <v>787</v>
       </c>
-      <c r="E270" s="33" t="s">
+      <c r="E270" s="30" t="s">
         <v>503</v>
       </c>
       <c r="F270" s="12" t="s">
         <v>913</v>
       </c>
-      <c r="G270" s="33" t="s">
+      <c r="G270" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H270" s="32" t="s">
+      <c r="H270" s="29" t="s">
         <v>1051</v>
       </c>
-      <c r="I270" s="35"/>
-      <c r="J270" s="35"/>
-      <c r="K270" s="35" t="s">
+      <c r="I270" s="32"/>
+      <c r="J270" s="32"/>
+      <c r="K270" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="271" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="33" t="s">
+      <c r="A271" s="30" t="s">
         <v>924</v>
       </c>
-      <c r="B271" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C271" s="33" t="s">
+      <c r="B271" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C271" s="30" t="s">
         <v>504</v>
       </c>
-      <c r="D271" s="34" t="s">
+      <c r="D271" s="31" t="s">
         <v>684</v>
       </c>
-      <c r="E271" s="33" t="s">
+      <c r="E271" s="30" t="s">
         <v>504</v>
       </c>
       <c r="F271" s="12"/>
-      <c r="G271" s="33" t="s">
+      <c r="G271" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H271" s="32" t="s">
+      <c r="H271" s="29" t="s">
         <v>1052</v>
       </c>
-      <c r="I271" s="35"/>
-      <c r="J271" s="35"/>
-      <c r="K271" s="35" t="s">
+      <c r="I271" s="32"/>
+      <c r="J271" s="32"/>
+      <c r="K271" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="272" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="33" t="s">
+      <c r="A272" s="30" t="s">
         <v>925</v>
       </c>
-      <c r="B272" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C272" s="33" t="s">
+      <c r="B272" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C272" s="30" t="s">
         <v>505</v>
       </c>
-      <c r="D272" s="34" t="s">
+      <c r="D272" s="31" t="s">
         <v>788</v>
       </c>
-      <c r="E272" s="33" t="s">
+      <c r="E272" s="30" t="s">
         <v>505</v>
       </c>
       <c r="F272" s="12" t="s">
         <v>924</v>
       </c>
-      <c r="G272" s="33" t="s">
+      <c r="G272" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H272" s="32" t="s">
+      <c r="H272" s="29" t="s">
         <v>1053</v>
       </c>
-      <c r="I272" s="35"/>
-      <c r="J272" s="35"/>
-      <c r="K272" s="35" t="s">
+      <c r="I272" s="32"/>
+      <c r="J272" s="32"/>
+      <c r="K272" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="273" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A273" s="33" t="s">
+      <c r="A273" s="30" t="s">
         <v>926</v>
       </c>
-      <c r="B273" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C273" s="33" t="s">
+      <c r="B273" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C273" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="D273" s="34" t="s">
+      <c r="D273" s="31" t="s">
         <v>789</v>
       </c>
-      <c r="E273" s="33" t="s">
+      <c r="E273" s="30" t="s">
         <v>506</v>
       </c>
       <c r="F273" s="12" t="s">
         <v>924</v>
       </c>
-      <c r="G273" s="33" t="s">
+      <c r="G273" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H273" s="32" t="s">
+      <c r="H273" s="29" t="s">
         <v>1054</v>
       </c>
-      <c r="I273" s="35"/>
-      <c r="J273" s="35"/>
-      <c r="K273" s="35" t="s">
+      <c r="I273" s="32"/>
+      <c r="J273" s="32"/>
+      <c r="K273" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="274" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="33" t="s">
+      <c r="A274" s="30" t="s">
         <v>927</v>
       </c>
-      <c r="B274" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C274" s="33" t="s">
+      <c r="B274" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C274" s="30" t="s">
         <v>507</v>
       </c>
-      <c r="D274" s="34" t="s">
+      <c r="D274" s="31" t="s">
         <v>790</v>
       </c>
-      <c r="E274" s="33" t="s">
+      <c r="E274" s="30" t="s">
         <v>507</v>
       </c>
       <c r="F274" s="12"/>
-      <c r="G274" s="33" t="s">
+      <c r="G274" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H274" s="32" t="s">
+      <c r="H274" s="29" t="s">
         <v>1055</v>
       </c>
-      <c r="I274" s="35"/>
-      <c r="J274" s="35"/>
-      <c r="K274" s="35" t="s">
+      <c r="I274" s="32"/>
+      <c r="J274" s="32"/>
+      <c r="K274" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="275" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A275" s="33" t="s">
+      <c r="A275" s="30" t="s">
         <v>928</v>
       </c>
-      <c r="B275" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C275" s="33" t="s">
+      <c r="B275" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C275" s="30" t="s">
         <v>508</v>
       </c>
-      <c r="D275" s="34" t="s">
+      <c r="D275" s="31" t="s">
         <v>791</v>
       </c>
-      <c r="E275" s="33" t="s">
+      <c r="E275" s="30" t="s">
         <v>508</v>
       </c>
       <c r="F275" s="12" t="s">
         <v>927</v>
       </c>
-      <c r="G275" s="33" t="s">
+      <c r="G275" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H275" s="32" t="s">
+      <c r="H275" s="29" t="s">
         <v>1056</v>
       </c>
-      <c r="I275" s="35"/>
-      <c r="J275" s="35"/>
-      <c r="K275" s="35" t="s">
+      <c r="I275" s="32"/>
+      <c r="J275" s="32"/>
+      <c r="K275" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="276" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A276" s="33" t="s">
+      <c r="A276" s="30" t="s">
         <v>929</v>
       </c>
-      <c r="B276" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C276" s="33" t="s">
+      <c r="B276" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C276" s="30" t="s">
         <v>509</v>
       </c>
-      <c r="D276" s="34" t="s">
+      <c r="D276" s="31" t="s">
         <v>792</v>
       </c>
-      <c r="E276" s="33" t="s">
+      <c r="E276" s="30" t="s">
         <v>509</v>
       </c>
       <c r="F276" s="12" t="s">
         <v>927</v>
       </c>
-      <c r="G276" s="33" t="s">
+      <c r="G276" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H276" s="32" t="s">
+      <c r="H276" s="29" t="s">
         <v>1057</v>
       </c>
-      <c r="I276" s="35"/>
-      <c r="J276" s="35"/>
-      <c r="K276" s="35" t="s">
+      <c r="I276" s="32"/>
+      <c r="J276" s="32"/>
+      <c r="K276" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="277" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="33" t="s">
+      <c r="A277" s="30" t="s">
         <v>930</v>
       </c>
-      <c r="B277" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C277" s="33" t="s">
+      <c r="B277" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C277" s="30" t="s">
         <v>510</v>
       </c>
-      <c r="D277" s="34" t="s">
+      <c r="D277" s="31" t="s">
         <v>793</v>
       </c>
-      <c r="E277" s="33" t="s">
+      <c r="E277" s="30" t="s">
         <v>510</v>
       </c>
       <c r="F277" s="12" t="s">
         <v>927</v>
       </c>
-      <c r="G277" s="33" t="s">
+      <c r="G277" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="H277" s="32" t="s">
+      <c r="H277" s="29" t="s">
         <v>1058</v>
       </c>
-      <c r="I277" s="35"/>
-      <c r="J277" s="35"/>
-      <c r="K277" s="35" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="I277" s="32"/>
+      <c r="J277" s="32"/>
+      <c r="K277" s="32" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I278" s="16"/>
+      <c r="J278" s="16"/>
+    </row>
+    <row r="279" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I279" s="16"/>
+      <c r="J279" s="16"/>
+    </row>
+    <row r="280" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I280" s="16"/>
+      <c r="J280" s="16"/>
+    </row>
+    <row r="281" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I281" s="16"/>
+      <c r="J281" s="16"/>
+    </row>
+    <row r="282" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I282" s="16"/>
+      <c r="J282" s="16"/>
+    </row>
+    <row r="283" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I283" s="16"/>
+      <c r="J283" s="16"/>
+    </row>
+    <row r="284" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I284" s="16"/>
+      <c r="J284" s="16"/>
+    </row>
+    <row r="285" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I285" s="16"/>
+      <c r="J285" s="16"/>
+    </row>
+    <row r="286" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I286" s="16"/>
+      <c r="J286" s="16"/>
+    </row>
+    <row r="287" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I287" s="16"/>
+      <c r="J287" s="16"/>
+    </row>
+    <row r="288" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I288" s="16"/>
+      <c r="J288" s="16"/>
+    </row>
+    <row r="289" spans="9:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I289" s="16"/>
+      <c r="J289" s="16"/>
+    </row>
+    <row r="290" spans="9:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I290" s="16"/>
+      <c r="J290" s="16"/>
+    </row>
+    <row r="291" spans="9:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I291" s="16"/>
+      <c r="J291" s="16"/>
+    </row>
+    <row r="292" spans="9:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I292" s="16"/>
+      <c r="J292" s="16"/>
+    </row>
+    <row r="293" spans="9:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I293" s="16"/>
+      <c r="J293" s="16"/>
+    </row>
+    <row r="294" spans="9:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I294" s="16"/>
+      <c r="J294" s="16"/>
+    </row>
+    <row r="295" spans="9:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I295" s="16"/>
+      <c r="J295" s="16"/>
+    </row>
     <row r="321" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B321" s="16"/>
       <c r="E321" s="16"/>
@@ -11753,30 +11780,38 @@
     <row r="347" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E347" s="11"/>
     </row>
-    <row r="443" spans="2:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B443" s="4"/>
-    </row>
-    <row r="444" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I443" s="12"/>
+      <c r="J443" s="12"/>
+    </row>
+    <row r="444" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E444" s="17"/>
     </row>
-    <row r="449" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A449" s="12"/>
       <c r="B449" s="4"/>
-    </row>
-    <row r="453" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I449" s="12"/>
+      <c r="J449" s="12"/>
+    </row>
+    <row r="453" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B453" s="4"/>
-    </row>
-    <row r="466" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I453" s="12"/>
+      <c r="J453" s="12"/>
+    </row>
+    <row r="466" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B466" s="4"/>
-    </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I466" s="12"/>
+      <c r="J466" s="12"/>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477" s="12"/>
       <c r="C477" s="5"/>
       <c r="D477" s="5"/>
       <c r="E477" s="5"/>
       <c r="G477" s="10"/>
       <c r="H477" s="2"/>
-      <c r="I477" s="2"/>
+      <c r="I477" s="47"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11924,9 +11959,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12141,19 +12179,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAE62FC3-7D3B-4886-B53E-C881811D2384}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008ABE91-8C92-4516-916D-4DC325FB5C89}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12178,9 +12212,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008ABE91-8C92-4516-916D-4DC325FB5C89}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAE62FC3-7D3B-4886-B53E-C881811D2384}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rdf/skosplay-scma-001.xlsx
+++ b/rdf/skosplay-scma-001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://federationuniversity-my.sharepoint.com/personal/mr_wong_federation_edu_au/Documents/Documents/GitHub/def-au-scma/rdf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="595" documentId="13_ncr:1_{6B1694BC-93C5-43E3-9733-6BAF96533DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F4E63AA-1539-41F3-B448-77BF46DC0235}"/>
+  <xr:revisionPtr revIDLastSave="609" documentId="13_ncr:1_{6B1694BC-93C5-43E3-9733-6BAF96533DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{729AA180-F83E-46BC-8C55-D6A6F67251F0}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-1485" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="soil-profile" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="1309">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -2037,9 +2037,6 @@
     <t>dcterms:modified^^xsd:date</t>
   </si>
   <si>
-    <t>dcterms:creator</t>
-  </si>
-  <si>
     <t>dcterms:contributor</t>
   </si>
   <si>
@@ -2055,9 +2052,6 @@
     <t xml:space="preserve">dcterms:source </t>
   </si>
   <si>
-    <t>https://github.com/ANZSoilData/aus-vocab</t>
-  </si>
-  <si>
     <t>sdo</t>
   </si>
   <si>
@@ -2067,9 +2061,6 @@
     <t>sdo:codeRepository</t>
   </si>
   <si>
-    <t>http://purl.org/cld/freq/completelyIrregular</t>
-  </si>
-  <si>
     <t>dcterms:accrualPeriodicity</t>
   </si>
   <si>
@@ -4024,6 +4015,12 @@
   </si>
   <si>
     <t>https://raw.githack.com/ANZSoilData/def-au-scma/master/html/02/02B1.html</t>
+  </si>
+  <si>
+    <t>https://github.com/ANZSoilData</t>
+  </si>
+  <si>
+    <t>http://purl.org/cld/freq/irregular</t>
   </si>
 </sst>
 </file>
@@ -4033,7 +4030,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4111,12 +4108,6 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF555555"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4152,7 +4143,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
@@ -4237,7 +4228,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4608,8 +4598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K89" sqref="K89"/>
+    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4628,12 +4618,12 @@
     <col min="12" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -4641,7 +4631,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="43"/>
+      <c r="I1" s="42"/>
       <c r="J1" s="15"/>
       <c r="K1" s="3"/>
     </row>
@@ -4660,7 +4650,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="43"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="15"/>
       <c r="K2" s="3"/>
     </row>
@@ -4679,7 +4669,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="43"/>
+      <c r="I3" s="42"/>
       <c r="J3" s="15"/>
       <c r="K3" s="3"/>
     </row>
@@ -4688,17 +4678,17 @@
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="4"/>
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="43"/>
+      <c r="I4" s="42"/>
       <c r="J4" s="15"/>
       <c r="K4" s="3"/>
     </row>
@@ -4707,17 +4697,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="4"/>
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="43"/>
+      <c r="I5" s="42"/>
       <c r="J5" s="15"/>
       <c r="K5" s="3"/>
     </row>
@@ -4734,7 +4724,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="43"/>
+      <c r="I6" s="42"/>
       <c r="J6" s="15"/>
       <c r="K6" s="3"/>
     </row>
@@ -4751,7 +4741,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="43"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="15"/>
       <c r="K7" s="3"/>
     </row>
@@ -4768,7 +4758,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="43"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="15"/>
       <c r="K8" s="3"/>
     </row>
@@ -4776,7 +4766,7 @@
       <c r="A9" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="40">
         <v>44197</v>
       </c>
       <c r="C9" s="4"/>
@@ -4785,16 +4775,16 @@
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="43"/>
+      <c r="I9" s="42"/>
       <c r="J9" s="15"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B10" s="41">
-        <v>44312</v>
+      <c r="B10" s="40">
+        <v>44624</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -4802,24 +4792,23 @@
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="43"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="15"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>657</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>655</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>1308</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="43"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="15"/>
       <c r="K11" s="3"/>
     </row>
@@ -4836,13 +4825,13 @@
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="43"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="15"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B13" s="38" t="s">
         <v>638</v>
@@ -4853,13 +4842,13 @@
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="43"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="15"/>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B14" s="38" t="s">
         <v>639</v>
@@ -4870,16 +4859,16 @@
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="43"/>
+      <c r="I14" s="42"/>
       <c r="J14" s="15"/>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -4887,16 +4876,16 @@
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="43"/>
+      <c r="I15" s="42"/>
       <c r="J15" s="15"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>649</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -4904,20 +4893,24 @@
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="43"/>
+      <c r="I16" s="42"/>
       <c r="J16" s="15"/>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="15"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="42"/>
       <c r="J17" s="15"/>
       <c r="K17" s="3"/>
     </row>
@@ -4930,8 +4923,8 @@
       <c r="F18" s="35"/>
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
       <c r="K18" s="35"/>
     </row>
     <row r="19" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4945,8 +4938,8 @@
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -4960,8 +4953,8 @@
       <c r="F20" s="6"/>
       <c r="G20" s="7"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -4989,10 +4982,10 @@
       <c r="H21" s="20" t="s">
         <v>641</v>
       </c>
-      <c r="I21" s="48" t="s">
-        <v>659</v>
-      </c>
-      <c r="J21" s="42" t="s">
+      <c r="I21" s="47" t="s">
+        <v>656</v>
+      </c>
+      <c r="J21" s="41" t="s">
         <v>15</v>
       </c>
       <c r="K21" s="21" t="s">
@@ -5001,7 +4994,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>16</v>
@@ -5010,25 +5003,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22" s="27"/>
       <c r="H22" s="26" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="32" t="s">
         <v>18</v>
       </c>
       <c r="K22" s="27" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B23" s="30" t="s">
         <v>22</v>
@@ -5037,25 +5030,27 @@
         <v>343</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="E23"/>
       <c r="F23" s="12"/>
       <c r="G23" s="25" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
+      <c r="J23" s="32" t="s">
+        <v>18</v>
+      </c>
       <c r="K23" s="27" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B24" s="30" t="s">
         <v>22</v>
@@ -5064,25 +5059,27 @@
         <v>344</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E24"/>
       <c r="F24" s="12"/>
       <c r="G24" s="25" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
+      <c r="J24" s="32" t="s">
+        <v>18</v>
+      </c>
       <c r="K24" s="27" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>22</v>
@@ -5091,25 +5088,27 @@
         <v>345</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E25"/>
       <c r="F25" s="12"/>
       <c r="G25" s="25" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
+      <c r="J25" s="32" t="s">
+        <v>18</v>
+      </c>
       <c r="K25" s="27" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>16</v>
@@ -5118,25 +5117,25 @@
         <v>346</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="33"/>
       <c r="H26" s="29" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="I26" s="32"/>
       <c r="J26" s="32"/>
       <c r="K26" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>22</v>
@@ -5145,27 +5144,27 @@
         <v>385</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="30" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="I27" s="32"/>
       <c r="J27" s="32"/>
       <c r="K27" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>22</v>
@@ -5174,27 +5173,27 @@
         <v>386</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="30" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="I28" s="32"/>
       <c r="J28" s="32"/>
       <c r="K28" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B29" s="30" t="s">
         <v>22</v>
@@ -5203,27 +5202,27 @@
         <v>387</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E29" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="30" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
       <c r="K29" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>22</v>
@@ -5232,27 +5231,27 @@
         <v>388</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E30" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="30" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="I30" s="32"/>
       <c r="J30" s="32"/>
       <c r="K30" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>16</v>
@@ -5261,25 +5260,25 @@
         <v>389</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E31" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="33"/>
       <c r="H31" s="29" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="I31" s="32"/>
       <c r="J31" s="32"/>
       <c r="K31" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>22</v>
@@ -5288,27 +5287,27 @@
         <v>390</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E32" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="30" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="I32" s="32"/>
       <c r="J32" s="32"/>
       <c r="K32" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B33" s="30" t="s">
         <v>22</v>
@@ -5317,27 +5316,27 @@
         <v>391</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E33" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="30" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="I33" s="32"/>
       <c r="J33" s="32"/>
       <c r="K33" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B34" s="30" t="s">
         <v>22</v>
@@ -5346,27 +5345,27 @@
         <v>392</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E34" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="30" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="I34" s="32"/>
       <c r="J34" s="32"/>
       <c r="K34" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B35" s="30" t="s">
         <v>22</v>
@@ -5375,27 +5374,27 @@
         <v>393</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E35" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="30" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="I35" s="32"/>
       <c r="J35" s="32"/>
       <c r="K35" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B36" s="30" t="s">
         <v>16</v>
@@ -5404,25 +5403,25 @@
         <v>394</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E36" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="33"/>
       <c r="H36" s="29" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="I36" s="32"/>
       <c r="J36" s="32"/>
       <c r="K36" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B37" s="30" t="s">
         <v>22</v>
@@ -5431,27 +5430,27 @@
         <v>395</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E37" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="30" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="I37" s="32"/>
       <c r="J37" s="32"/>
       <c r="K37" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="35" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B38" s="30" t="s">
         <v>22</v>
@@ -5460,27 +5459,27 @@
         <v>396</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E38" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="30" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="I38" s="32"/>
       <c r="J38" s="32"/>
       <c r="K38" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>22</v>
@@ -5489,27 +5488,27 @@
         <v>397</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E39" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="30" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
       <c r="K39" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B40" s="30" t="s">
         <v>22</v>
@@ -5518,27 +5517,27 @@
         <v>398</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E40" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="30" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H40" s="29" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="I40" s="32"/>
       <c r="J40" s="32"/>
       <c r="K40" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>22</v>
@@ -5547,27 +5546,27 @@
         <v>399</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E41" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="30" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="I41" s="32"/>
       <c r="J41" s="32"/>
       <c r="K41" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B42" s="30" t="s">
         <v>22</v>
@@ -5576,27 +5575,27 @@
         <v>400</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E42" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="30" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
       <c r="K42" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B43" s="30" t="s">
         <v>22</v>
@@ -5605,27 +5604,27 @@
         <v>401</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E43" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="30" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
       <c r="K43" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B44" s="30" t="s">
         <v>22</v>
@@ -5634,27 +5633,27 @@
         <v>402</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E44" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="30" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
       <c r="K44" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B45" s="30" t="s">
         <v>22</v>
@@ -5663,27 +5662,27 @@
         <v>403</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E45" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="30" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H45" s="29" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
       <c r="K45" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B46" s="30" t="s">
         <v>22</v>
@@ -5692,27 +5691,27 @@
         <v>404</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E46" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="30" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="I46" s="32"/>
       <c r="J46" s="32"/>
       <c r="K46" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B47" s="30" t="s">
         <v>22</v>
@@ -5721,27 +5720,27 @@
         <v>405</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E47" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="30" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="I47" s="32"/>
       <c r="J47" s="32"/>
       <c r="K47" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B48" s="30" t="s">
         <v>22</v>
@@ -5750,27 +5749,27 @@
         <v>406</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E48" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="30" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="I48" s="32"/>
       <c r="J48" s="32"/>
       <c r="K48" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B49" s="30" t="s">
         <v>22</v>
@@ -5779,27 +5778,27 @@
         <v>407</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E49" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="30" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="I49" s="32"/>
       <c r="J49" s="32"/>
       <c r="K49" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B50" s="30" t="s">
         <v>22</v>
@@ -5808,27 +5807,27 @@
         <v>408</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E50" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="30" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B51" s="30" t="s">
         <v>22</v>
@@ -5837,27 +5836,27 @@
         <v>409</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E51" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="30" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="I51" s="32"/>
       <c r="J51" s="32"/>
       <c r="K51" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B52" s="30" t="s">
         <v>22</v>
@@ -5866,27 +5865,27 @@
         <v>410</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E52" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="30" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="I52" s="32"/>
       <c r="J52" s="32"/>
       <c r="K52" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B53" s="30" t="s">
         <v>16</v>
@@ -5895,25 +5894,25 @@
         <v>411</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E53" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="33"/>
       <c r="H53" s="29" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
       <c r="K53" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B54" s="30" t="s">
         <v>22</v>
@@ -5922,27 +5921,27 @@
         <v>412</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E54" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="30" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="H54" s="29" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="I54" s="32"/>
       <c r="J54" s="32"/>
       <c r="K54" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B55" s="30" t="s">
         <v>22</v>
@@ -5951,27 +5950,27 @@
         <v>413</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E55"/>
       <c r="F55" s="12"/>
       <c r="G55" s="30" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="H55" s="29" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="I55" s="32" t="s">
-        <v>1059</v>
-      </c>
-      <c r="J55" s="46"/>
+        <v>1056</v>
+      </c>
+      <c r="J55" s="45"/>
       <c r="K55" s="32" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B56" s="30" t="s">
         <v>22</v>
@@ -5980,29 +5979,29 @@
         <v>413</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E56" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="G56" s="30" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="H56" s="29" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="I56" s="32"/>
       <c r="J56" s="32"/>
       <c r="K56" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B57" s="30" t="s">
         <v>22</v>
@@ -6011,29 +6010,29 @@
         <v>414</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E57" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="G57" s="30" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="H57" s="29" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="I57" s="32"/>
       <c r="J57" s="32"/>
       <c r="K57" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B58" s="30" t="s">
         <v>22</v>
@@ -6042,27 +6041,27 @@
         <v>415</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E58" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="30" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="I58" s="32"/>
       <c r="J58" s="32"/>
       <c r="K58" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B59" s="30" t="s">
         <v>22</v>
@@ -6071,27 +6070,27 @@
         <v>416</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E59" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="F59" s="12"/>
       <c r="G59" s="30" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="H59" s="29" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="I59" s="32"/>
       <c r="J59" s="32"/>
       <c r="K59" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B60" s="30" t="s">
         <v>22</v>
@@ -6100,27 +6099,27 @@
         <v>417</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E60" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="30" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="H60" s="29" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="I60" s="32"/>
       <c r="J60" s="32"/>
       <c r="K60" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B61" s="30" t="s">
         <v>16</v>
@@ -6129,25 +6128,25 @@
         <v>418</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E61" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="F61" s="12"/>
       <c r="G61" s="32"/>
       <c r="H61" s="29" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="I61" s="32"/>
       <c r="J61" s="32"/>
       <c r="K61" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B62" s="30" t="s">
         <v>22</v>
@@ -6156,27 +6155,27 @@
         <v>419</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E62" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="F62" s="12"/>
       <c r="G62" s="30" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="H62" s="29" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="I62" s="32"/>
       <c r="J62" s="32"/>
       <c r="K62" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B63" s="30" t="s">
         <v>22</v>
@@ -6185,27 +6184,27 @@
         <v>420</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E63" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="30" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="H63" s="29" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="I63" s="32"/>
       <c r="J63" s="32"/>
       <c r="K63" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="30" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B64" s="30" t="s">
         <v>22</v>
@@ -6214,27 +6213,27 @@
         <v>421</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E64" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="30" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="H64" s="29" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="I64" s="32"/>
       <c r="J64" s="32"/>
       <c r="K64" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="65" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B65" s="30" t="s">
         <v>22</v>
@@ -6243,29 +6242,29 @@
         <v>422</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E65" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="G65" s="30" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="H65" s="29" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="I65" s="32"/>
       <c r="J65" s="32"/>
       <c r="K65" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="66" spans="1:11" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B66" s="30" t="s">
         <v>22</v>
@@ -6274,29 +6273,29 @@
         <v>423</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E66" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="G66" s="30" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="H66" s="29" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="I66" s="32"/>
       <c r="J66" s="32"/>
       <c r="K66" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B67" s="30" t="s">
         <v>22</v>
@@ -6305,27 +6304,27 @@
         <v>424</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E67" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="F67" s="12"/>
       <c r="G67" s="30" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="H67" s="29" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="I67" s="32"/>
       <c r="J67" s="32"/>
       <c r="K67" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B68" s="30" t="s">
         <v>22</v>
@@ -6334,27 +6333,27 @@
         <v>425</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E68" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="F68" s="12"/>
       <c r="G68" s="30" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="H68" s="29" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="I68" s="32"/>
       <c r="J68" s="32"/>
       <c r="K68" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B69" s="30" t="s">
         <v>22</v>
@@ -6363,29 +6362,29 @@
         <v>426</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E69" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="G69" s="30" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="H69" s="29" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="I69" s="32"/>
       <c r="J69" s="32"/>
       <c r="K69" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B70" s="30" t="s">
         <v>22</v>
@@ -6394,29 +6393,29 @@
         <v>427</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E70" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="G70" s="30" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="H70" s="29" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="I70" s="32"/>
       <c r="J70" s="32"/>
       <c r="K70" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B71" s="30" t="s">
         <v>22</v>
@@ -6425,27 +6424,27 @@
         <v>428</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E71" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F71" s="12"/>
       <c r="G71" s="30" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="H71" s="29" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="I71" s="32"/>
       <c r="J71" s="32"/>
       <c r="K71" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B72" s="30" t="s">
         <v>22</v>
@@ -6454,27 +6453,27 @@
         <v>429</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E72" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="30" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="H72" s="29" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="I72" s="32"/>
       <c r="J72" s="32"/>
       <c r="K72" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B73" s="30" t="s">
         <v>22</v>
@@ -6483,27 +6482,27 @@
         <v>430</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E73" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="F73" s="12"/>
       <c r="G73" s="30" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="I73" s="32"/>
       <c r="J73" s="32"/>
       <c r="K73" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B74" s="30" t="s">
         <v>22</v>
@@ -6512,27 +6511,27 @@
         <v>431</v>
       </c>
       <c r="D74" s="31" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E74" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="F74" s="12"/>
       <c r="G74" s="30" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="H74" s="29" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="I74" s="32"/>
       <c r="J74" s="32"/>
       <c r="K74" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="30" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B75" s="30" t="s">
         <v>22</v>
@@ -6541,27 +6540,27 @@
         <v>432</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E75" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="F75" s="12"/>
       <c r="G75" s="30" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="H75" s="29" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="I75" s="32"/>
       <c r="J75" s="32"/>
       <c r="K75" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B76" s="30" t="s">
         <v>16</v>
@@ -6570,25 +6569,25 @@
         <v>433</v>
       </c>
       <c r="D76" s="31" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E76" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="F76" s="12"/>
       <c r="G76" s="32"/>
       <c r="H76" s="29" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="I76" s="32"/>
       <c r="J76" s="32"/>
       <c r="K76" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="30" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B77" s="30" t="s">
         <v>22</v>
@@ -6597,27 +6596,27 @@
         <v>434</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E77" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="F77" s="12"/>
       <c r="G77" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H77" s="29" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="I77" s="32"/>
       <c r="J77" s="32"/>
       <c r="K77" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B78" s="30" t="s">
         <v>22</v>
@@ -6626,27 +6625,27 @@
         <v>435</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E78"/>
       <c r="F78" s="12"/>
       <c r="G78" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H78" s="29" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="I78" s="32" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="J78" s="32"/>
       <c r="K78" s="32" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="30" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B79" s="30" t="s">
         <v>22</v>
@@ -6655,29 +6654,29 @@
         <v>436</v>
       </c>
       <c r="D79" s="31" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E79" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G79" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H79" s="29" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="I79" s="32"/>
       <c r="J79" s="32"/>
       <c r="K79" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="30" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B80" s="30" t="s">
         <v>22</v>
@@ -6686,29 +6685,29 @@
         <v>437</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E80" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G80" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H80" s="29" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="I80" s="32"/>
       <c r="J80" s="32"/>
       <c r="K80" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="30" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B81" s="30" t="s">
         <v>22</v>
@@ -6717,27 +6716,27 @@
         <v>438</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E81" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="F81" s="12"/>
       <c r="G81" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H81" s="29" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="I81" s="32"/>
       <c r="J81" s="32"/>
       <c r="K81" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B82" s="30" t="s">
         <v>22</v>
@@ -6746,27 +6745,27 @@
         <v>439</v>
       </c>
       <c r="D82" s="31" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E82" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="F82" s="12"/>
       <c r="G82" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H82" s="29" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="I82" s="32"/>
       <c r="J82" s="32"/>
       <c r="K82" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="30" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B83" s="30" t="s">
         <v>22</v>
@@ -6775,27 +6774,27 @@
         <v>440</v>
       </c>
       <c r="D83" s="31" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E83" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="F83" s="12"/>
       <c r="G83" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H83" s="29" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="I83" s="32"/>
       <c r="J83" s="32"/>
       <c r="K83" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="84" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B84" s="30" t="s">
         <v>22</v>
@@ -6804,27 +6803,27 @@
         <v>441</v>
       </c>
       <c r="D84" s="31" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E84" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="F84" s="12"/>
       <c r="G84" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H84" s="29" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="I84" s="32"/>
       <c r="J84" s="32"/>
       <c r="K84" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="85" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="30" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B85" s="30" t="s">
         <v>22</v>
@@ -6833,29 +6832,29 @@
         <v>442</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E85" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="G85" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H85" s="29" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="I85" s="32"/>
       <c r="J85" s="32"/>
       <c r="K85" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="86" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B86" s="30" t="s">
         <v>22</v>
@@ -6864,29 +6863,29 @@
         <v>443</v>
       </c>
       <c r="D86" s="31" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E86" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="G86" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H86" s="29" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="I86" s="32"/>
       <c r="J86" s="32"/>
       <c r="K86" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="87" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B87" s="30" t="s">
         <v>22</v>
@@ -6895,27 +6894,27 @@
         <v>444</v>
       </c>
       <c r="D87" s="31" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E87" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F87" s="12"/>
       <c r="G87" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H87" s="29" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="I87" s="32"/>
       <c r="J87" s="32"/>
       <c r="K87" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="88" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B88" s="30" t="s">
         <v>22</v>
@@ -6924,29 +6923,29 @@
         <v>445</v>
       </c>
       <c r="D88" s="31" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E88"/>
       <c r="F88" s="12" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="G88" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H88" s="29" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="I88" s="32" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="J88" s="32"/>
       <c r="K88" s="32" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="30" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B89" s="30" t="s">
         <v>22</v>
@@ -6955,29 +6954,29 @@
         <v>446</v>
       </c>
       <c r="D89" s="31" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E89" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="G89" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H89" s="29" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="I89" s="32"/>
       <c r="J89" s="32"/>
       <c r="K89" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="30" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B90" s="30" t="s">
         <v>22</v>
@@ -6986,29 +6985,29 @@
         <v>447</v>
       </c>
       <c r="D90" s="31" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E90" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="G90" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H90" s="29" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="I90" s="32"/>
       <c r="J90" s="32"/>
       <c r="K90" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="91" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="30" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B91" s="30" t="s">
         <v>22</v>
@@ -7017,29 +7016,29 @@
         <v>448</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E91" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="G91" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H91" s="29" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="I91" s="32"/>
       <c r="J91" s="32"/>
       <c r="K91" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="92" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="30" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B92" s="30" t="s">
         <v>22</v>
@@ -7048,27 +7047,27 @@
         <v>449</v>
       </c>
       <c r="D92" s="31" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E92" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="F92" s="12"/>
       <c r="G92" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H92" s="29" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="I92" s="32"/>
       <c r="J92" s="32"/>
       <c r="K92" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="93" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="30" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B93" s="30" t="s">
         <v>22</v>
@@ -7077,29 +7076,29 @@
         <v>450</v>
       </c>
       <c r="D93" s="31" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E93" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="G93" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H93" s="29" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="I93" s="32"/>
       <c r="J93" s="32"/>
       <c r="K93" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="94" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B94" s="30" t="s">
         <v>22</v>
@@ -7108,29 +7107,29 @@
         <v>451</v>
       </c>
       <c r="D94" s="31" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E94" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="G94" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H94" s="29" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="I94" s="32"/>
       <c r="J94" s="32"/>
       <c r="K94" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="95" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="30" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B95" s="30" t="s">
         <v>22</v>
@@ -7139,29 +7138,29 @@
         <v>452</v>
       </c>
       <c r="D95" s="31" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E95" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="G95" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H95" s="29" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="I95" s="32"/>
       <c r="J95" s="32"/>
       <c r="K95" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="96" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="30" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B96" s="30" t="s">
         <v>22</v>
@@ -7170,29 +7169,29 @@
         <v>453</v>
       </c>
       <c r="D96" s="31" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E96" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="G96" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H96" s="29" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="I96" s="32"/>
       <c r="J96" s="32"/>
       <c r="K96" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="97" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="30" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B97" s="30" t="s">
         <v>22</v>
@@ -7201,29 +7200,29 @@
         <v>454</v>
       </c>
       <c r="D97" s="31" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E97" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="G97" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H97" s="29" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="I97" s="32"/>
       <c r="J97" s="32"/>
       <c r="K97" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B98" s="30" t="s">
         <v>22</v>
@@ -7232,29 +7231,29 @@
         <v>455</v>
       </c>
       <c r="D98" s="31" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E98" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="G98" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H98" s="29" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="I98" s="32"/>
       <c r="J98" s="32"/>
       <c r="K98" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="30" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B99" s="30" t="s">
         <v>22</v>
@@ -7263,29 +7262,29 @@
         <v>456</v>
       </c>
       <c r="D99" s="31" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E99" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="G99" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H99" s="29" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="I99" s="32"/>
       <c r="J99" s="32"/>
       <c r="K99" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="100" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="30" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B100" s="30" t="s">
         <v>22</v>
@@ -7294,29 +7293,29 @@
         <v>457</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E100" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="G100" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H100" s="29" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="I100" s="32"/>
       <c r="J100" s="32"/>
       <c r="K100" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="30" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B101" s="30" t="s">
         <v>22</v>
@@ -7325,27 +7324,27 @@
         <v>458</v>
       </c>
       <c r="D101" s="31" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E101"/>
       <c r="F101" s="12"/>
       <c r="G101" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H101" s="29" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="I101" s="32" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="J101" s="32"/>
       <c r="K101" s="32" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="102" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B102" s="30" t="s">
         <v>22</v>
@@ -7354,29 +7353,29 @@
         <v>459</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E102" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H102" s="29" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="I102" s="32"/>
       <c r="J102" s="32"/>
       <c r="K102" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B103" s="30" t="s">
         <v>22</v>
@@ -7385,29 +7384,29 @@
         <v>460</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E103" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="G103" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H103" s="29" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="I103" s="32"/>
       <c r="J103" s="32"/>
       <c r="K103" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="30" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B104" s="30" t="s">
         <v>22</v>
@@ -7416,27 +7415,27 @@
         <v>461</v>
       </c>
       <c r="D104" s="31" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E104" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="F104" s="12"/>
       <c r="G104" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H104" s="29" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="I104" s="32"/>
       <c r="J104" s="32"/>
       <c r="K104" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B105" s="30" t="s">
         <v>22</v>
@@ -7445,29 +7444,29 @@
         <v>462</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E105" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="G105" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H105" s="29" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="I105" s="32"/>
       <c r="J105" s="32"/>
       <c r="K105" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B106" s="30" t="s">
         <v>22</v>
@@ -7476,29 +7475,29 @@
         <v>463</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E106" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="G106" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H106" s="29" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="I106" s="32"/>
       <c r="J106" s="32"/>
       <c r="K106" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="107" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B107" s="30" t="s">
         <v>22</v>
@@ -7507,29 +7506,29 @@
         <v>464</v>
       </c>
       <c r="D107" s="31" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E107" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="G107" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H107" s="29" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I107" s="32"/>
       <c r="J107" s="32"/>
       <c r="K107" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="108" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B108" s="30" t="s">
         <v>22</v>
@@ -7538,29 +7537,29 @@
         <v>465</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E108" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="G108" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H108" s="29" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="I108" s="29"/>
       <c r="J108" s="32"/>
       <c r="K108" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="109" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B109" s="30" t="s">
         <v>22</v>
@@ -7569,29 +7568,29 @@
         <v>466</v>
       </c>
       <c r="D109" s="31" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E109" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="G109" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H109" s="29" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="I109" s="32"/>
       <c r="J109" s="32"/>
       <c r="K109" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="110" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B110" s="30" t="s">
         <v>16</v>
@@ -7600,25 +7599,25 @@
         <v>467</v>
       </c>
       <c r="D110" s="31" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E110" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="F110" s="12"/>
       <c r="G110" s="32"/>
       <c r="H110" s="29" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="I110" s="32"/>
       <c r="J110" s="32"/>
       <c r="K110" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="111" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B111" s="30" t="s">
         <v>22</v>
@@ -7627,27 +7626,27 @@
         <v>468</v>
       </c>
       <c r="D111" s="31" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E111" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="F111" s="12"/>
       <c r="G111" s="30" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="H111" s="29" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="I111" s="32"/>
       <c r="J111" s="32"/>
       <c r="K111" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="112" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B112" s="30" t="s">
         <v>22</v>
@@ -7656,27 +7655,27 @@
         <v>469</v>
       </c>
       <c r="D112" s="31" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E112" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="F112" s="12"/>
       <c r="G112" s="30" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="H112" s="29" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="I112" s="32"/>
       <c r="J112" s="32"/>
       <c r="K112" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="113" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B113" s="30" t="s">
         <v>16</v>
@@ -7685,25 +7684,25 @@
         <v>470</v>
       </c>
       <c r="D113" s="31" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E113" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="F113" s="12"/>
       <c r="G113" s="32"/>
       <c r="H113" s="29" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="I113" s="32"/>
       <c r="J113" s="32"/>
       <c r="K113" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="114" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B114" s="30" t="s">
         <v>22</v>
@@ -7712,27 +7711,27 @@
         <v>471</v>
       </c>
       <c r="D114" s="31" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E114" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="F114" s="12"/>
       <c r="G114" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H114" s="29" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="I114" s="32"/>
       <c r="J114" s="32"/>
       <c r="K114" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="115" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B115" s="30" t="s">
         <v>22</v>
@@ -7741,29 +7740,29 @@
         <v>472</v>
       </c>
       <c r="D115" s="31" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E115" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="G115" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H115" s="29" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="I115" s="32"/>
       <c r="J115" s="32"/>
       <c r="K115" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="116" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B116" s="30" t="s">
         <v>22</v>
@@ -7772,29 +7771,29 @@
         <v>473</v>
       </c>
       <c r="D116" s="31" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E116" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="G116" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H116" s="29" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="I116" s="32"/>
       <c r="J116" s="32"/>
       <c r="K116" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="117" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="30" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B117" s="30" t="s">
         <v>22</v>
@@ -7803,29 +7802,29 @@
         <v>474</v>
       </c>
       <c r="D117" s="31" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E117" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="G117" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H117" s="29" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="I117" s="32"/>
       <c r="J117" s="32"/>
       <c r="K117" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="118" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B118" s="30" t="s">
         <v>22</v>
@@ -7834,29 +7833,29 @@
         <v>475</v>
       </c>
       <c r="D118" s="31" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E118" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="G118" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H118" s="29" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="I118" s="32"/>
       <c r="J118" s="32"/>
       <c r="K118" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="119" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="30" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B119" s="30" t="s">
         <v>22</v>
@@ -7865,27 +7864,27 @@
         <v>476</v>
       </c>
       <c r="D119" s="31" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E119" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="F119" s="12"/>
       <c r="G119" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H119" s="29" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="I119" s="32"/>
       <c r="J119" s="32"/>
       <c r="K119" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="120" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B120" s="30" t="s">
         <v>22</v>
@@ -7894,29 +7893,29 @@
         <v>477</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E120" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="G120" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H120" s="29" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="I120" s="32"/>
       <c r="J120" s="32"/>
       <c r="K120" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="121" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B121" s="30" t="s">
         <v>22</v>
@@ -7925,29 +7924,29 @@
         <v>478</v>
       </c>
       <c r="D121" s="31" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E121" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="G121" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H121" s="29" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="I121" s="32"/>
       <c r="J121" s="32"/>
       <c r="K121" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="122" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B122" s="30" t="s">
         <v>22</v>
@@ -7956,27 +7955,27 @@
         <v>479</v>
       </c>
       <c r="D122" s="31" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E122" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="F122" s="12"/>
       <c r="G122" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H122" s="29" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="I122" s="32"/>
       <c r="J122" s="32"/>
       <c r="K122" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="123" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="30" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B123" s="30" t="s">
         <v>22</v>
@@ -7985,29 +7984,29 @@
         <v>480</v>
       </c>
       <c r="D123" s="31" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E123" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="G123" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H123" s="29" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="I123" s="32"/>
       <c r="J123" s="32"/>
       <c r="K123" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="124" spans="1:11" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="30" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B124" s="30" t="s">
         <v>22</v>
@@ -8016,29 +8015,29 @@
         <v>481</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E124"/>
       <c r="F124" s="12" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="G124" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H124" s="29" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="I124" s="32" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="J124" s="32"/>
       <c r="K124" s="32" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="125" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B125" s="30" t="s">
         <v>22</v>
@@ -8047,29 +8046,29 @@
         <v>482</v>
       </c>
       <c r="D125" s="31" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E125" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="G125" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H125" s="29" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="I125" s="32"/>
       <c r="J125" s="32"/>
       <c r="K125" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="126" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="30" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B126" s="30" t="s">
         <v>22</v>
@@ -8078,29 +8077,29 @@
         <v>483</v>
       </c>
       <c r="D126" s="31" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E126" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="G126" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H126" s="29" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="I126" s="32"/>
       <c r="J126" s="32"/>
       <c r="K126" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="127" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="30" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B127" s="30" t="s">
         <v>22</v>
@@ -8109,27 +8108,27 @@
         <v>484</v>
       </c>
       <c r="D127" s="31" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="E127" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="F127" s="12"/>
       <c r="G127" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H127" s="29" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="I127" s="32"/>
       <c r="J127" s="32"/>
       <c r="K127" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="128" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="30" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B128" s="30" t="s">
         <v>22</v>
@@ -8138,27 +8137,27 @@
         <v>485</v>
       </c>
       <c r="D128" s="31" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E128" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="F128" s="12"/>
       <c r="G128" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H128" s="29" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="I128" s="32"/>
       <c r="J128" s="32"/>
       <c r="K128" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="129" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="30" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B129" s="30" t="s">
         <v>22</v>
@@ -8167,29 +8166,29 @@
         <v>486</v>
       </c>
       <c r="D129" s="31" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E129" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="G129" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H129" s="29" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="I129" s="32"/>
       <c r="J129" s="32"/>
       <c r="K129" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="130" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="30" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B130" s="30" t="s">
         <v>22</v>
@@ -8198,29 +8197,29 @@
         <v>487</v>
       </c>
       <c r="D130" s="31" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E130" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="G130" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H130" s="29" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="I130" s="32"/>
       <c r="J130" s="32"/>
       <c r="K130" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="131" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="30" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B131" s="30" t="s">
         <v>22</v>
@@ -8229,27 +8228,27 @@
         <v>488</v>
       </c>
       <c r="D131" s="31" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E131" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="F131" s="12"/>
       <c r="G131" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H131" s="29" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="I131" s="32"/>
       <c r="J131" s="32"/>
       <c r="K131" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="132" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="30" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B132" s="30" t="s">
         <v>22</v>
@@ -8258,27 +8257,27 @@
         <v>489</v>
       </c>
       <c r="D132" s="31" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E132" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="F132" s="12"/>
       <c r="G132" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H132" s="29" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="I132" s="32"/>
       <c r="J132" s="32"/>
       <c r="K132" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="133" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="30" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B133" s="30" t="s">
         <v>22</v>
@@ -8287,27 +8286,27 @@
         <v>490</v>
       </c>
       <c r="D133" s="31" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="E133" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="F133" s="12"/>
       <c r="G133" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H133" s="29" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="I133" s="32"/>
       <c r="J133" s="32"/>
       <c r="K133" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="134" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="30" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B134" s="30" t="s">
         <v>22</v>
@@ -8316,27 +8315,27 @@
         <v>491</v>
       </c>
       <c r="D134" s="31" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="E134" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="F134" s="12"/>
       <c r="G134" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H134" s="29" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="I134" s="32"/>
       <c r="J134" s="32"/>
       <c r="K134" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="135" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B135" s="30" t="s">
         <v>22</v>
@@ -8345,27 +8344,27 @@
         <v>492</v>
       </c>
       <c r="D135" s="31" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E135" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="F135" s="12"/>
       <c r="G135" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H135" s="29" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="I135" s="32"/>
       <c r="J135" s="32"/>
       <c r="K135" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="136" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="30" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B136" s="30" t="s">
         <v>22</v>
@@ -8374,27 +8373,27 @@
         <v>493</v>
       </c>
       <c r="D136" s="31" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E136" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="F136" s="12"/>
       <c r="G136" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H136" s="29" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="I136" s="32"/>
       <c r="J136" s="32"/>
       <c r="K136" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="137" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="30" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B137" s="30" t="s">
         <v>22</v>
@@ -8403,29 +8402,29 @@
         <v>494</v>
       </c>
       <c r="D137" s="31" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E137" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G137" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H137" s="29" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="I137" s="32"/>
       <c r="J137" s="32"/>
       <c r="K137" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="138" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="30" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B138" s="30" t="s">
         <v>22</v>
@@ -8434,29 +8433,29 @@
         <v>495</v>
       </c>
       <c r="D138" s="31" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E138" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G138" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H138" s="29" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="I138" s="32"/>
       <c r="J138" s="32"/>
       <c r="K138" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="139" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="30" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B139" s="30" t="s">
         <v>22</v>
@@ -8465,29 +8464,29 @@
         <v>496</v>
       </c>
       <c r="D139" s="31" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E139" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G139" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H139" s="29" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="I139" s="32"/>
       <c r="J139" s="32"/>
       <c r="K139" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="140" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="30" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B140" s="30" t="s">
         <v>22</v>
@@ -8496,29 +8495,29 @@
         <v>497</v>
       </c>
       <c r="D140" s="31" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E140" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G140" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H140" s="29" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="I140" s="32"/>
       <c r="J140" s="32"/>
       <c r="K140" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="141" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="30" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B141" s="30" t="s">
         <v>22</v>
@@ -8527,29 +8526,29 @@
         <v>498</v>
       </c>
       <c r="D141" s="31" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="E141" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G141" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H141" s="29" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="I141" s="32"/>
       <c r="J141" s="32"/>
       <c r="K141" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="142" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="30" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B142" s="30" t="s">
         <v>22</v>
@@ -8558,29 +8557,29 @@
         <v>499</v>
       </c>
       <c r="D142" s="31" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E142" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G142" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H142" s="29" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="I142" s="32"/>
       <c r="J142" s="32"/>
       <c r="K142" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="143" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="30" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B143" s="30" t="s">
         <v>22</v>
@@ -8589,29 +8588,29 @@
         <v>500</v>
       </c>
       <c r="D143" s="31" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E143" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G143" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H143" s="29" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="I143" s="32"/>
       <c r="J143" s="32"/>
       <c r="K143" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="144" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="30" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B144" s="30" t="s">
         <v>22</v>
@@ -8620,29 +8619,29 @@
         <v>501</v>
       </c>
       <c r="D144" s="31" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E144" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G144" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H144" s="29" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="I144" s="32"/>
       <c r="J144" s="32"/>
       <c r="K144" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="145" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="30" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B145" s="30" t="s">
         <v>22</v>
@@ -8651,29 +8650,29 @@
         <v>502</v>
       </c>
       <c r="D145" s="31" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E145" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G145" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H145" s="29" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="I145" s="32"/>
       <c r="J145" s="32"/>
       <c r="K145" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="146" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="30" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B146" s="30" t="s">
         <v>22</v>
@@ -8682,29 +8681,29 @@
         <v>503</v>
       </c>
       <c r="D146" s="31" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E146" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G146" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H146" s="29" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="I146" s="32"/>
       <c r="J146" s="32"/>
       <c r="K146" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="147" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="30" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B147" s="30" t="s">
         <v>22</v>
@@ -8713,27 +8712,27 @@
         <v>504</v>
       </c>
       <c r="D147" s="31" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E147" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="F147" s="12"/>
       <c r="G147" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H147" s="29" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="I147" s="32"/>
       <c r="J147" s="32"/>
       <c r="K147" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="148" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="30" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B148" s="30" t="s">
         <v>22</v>
@@ -8742,29 +8741,29 @@
         <v>505</v>
       </c>
       <c r="D148" s="31" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E148" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="G148" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H148" s="29" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="I148" s="32"/>
       <c r="J148" s="32"/>
       <c r="K148" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="149" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="30" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B149" s="30" t="s">
         <v>22</v>
@@ -8773,29 +8772,29 @@
         <v>506</v>
       </c>
       <c r="D149" s="31" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E149" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="G149" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H149" s="29" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="I149" s="32"/>
       <c r="J149" s="32"/>
       <c r="K149" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="150" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="30" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B150" s="30" t="s">
         <v>22</v>
@@ -8804,27 +8803,27 @@
         <v>507</v>
       </c>
       <c r="D150" s="31" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="E150" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="F150" s="12"/>
       <c r="G150" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H150" s="29" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="I150" s="32"/>
       <c r="J150" s="32"/>
       <c r="K150" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="151" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="30" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B151" s="30" t="s">
         <v>22</v>
@@ -8833,29 +8832,29 @@
         <v>508</v>
       </c>
       <c r="D151" s="31" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E151" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="G151" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H151" s="29" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="I151" s="32"/>
       <c r="J151" s="32"/>
       <c r="K151" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="152" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="30" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B152" s="30" t="s">
         <v>22</v>
@@ -8864,29 +8863,29 @@
         <v>509</v>
       </c>
       <c r="D152" s="31" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E152" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="G152" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H152" s="29" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="I152" s="32"/>
       <c r="J152" s="32"/>
       <c r="K152" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="153" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="30" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B153" s="30" t="s">
         <v>22</v>
@@ -8895,24 +8894,24 @@
         <v>510</v>
       </c>
       <c r="D153" s="31" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E153" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="G153" s="30" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H153" s="29" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="I153" s="32"/>
       <c r="J153" s="32"/>
       <c r="K153" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="154" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -8929,7 +8928,7 @@
         <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="F154"/>
       <c r="G154" s="27"/>
@@ -8939,7 +8938,7 @@
       <c r="I154" s="32"/>
       <c r="J154" s="32"/>
       <c r="K154" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="155" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -8956,7 +8955,7 @@
         <v>24</v>
       </c>
       <c r="E155" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="F155"/>
       <c r="G155" s="19" t="s">
@@ -8968,7 +8967,7 @@
       <c r="I155" s="32"/>
       <c r="J155" s="32"/>
       <c r="K155" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="156" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -8985,7 +8984,7 @@
         <v>27</v>
       </c>
       <c r="E156" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="F156"/>
       <c r="G156" s="19" t="s">
@@ -8997,7 +8996,7 @@
       <c r="I156" s="32"/>
       <c r="J156" s="32"/>
       <c r="K156" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="157" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9014,7 +9013,7 @@
         <v>30</v>
       </c>
       <c r="E157" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="F157"/>
       <c r="G157" s="19" t="s">
@@ -9026,7 +9025,7 @@
       <c r="I157" s="32"/>
       <c r="J157" s="32"/>
       <c r="K157" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="158" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9043,7 +9042,7 @@
         <v>33</v>
       </c>
       <c r="E158" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="F158" t="s">
         <v>28</v>
@@ -9057,7 +9056,7 @@
       <c r="I158" s="32"/>
       <c r="J158" s="32"/>
       <c r="K158" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="159" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9074,7 +9073,7 @@
         <v>36</v>
       </c>
       <c r="E159" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="F159" t="s">
         <v>28</v>
@@ -9088,7 +9087,7 @@
       <c r="I159" s="32"/>
       <c r="J159" s="32"/>
       <c r="K159" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="160" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9105,7 +9104,7 @@
         <v>39</v>
       </c>
       <c r="E160" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="F160" t="s">
         <v>28</v>
@@ -9119,7 +9118,7 @@
       <c r="I160" s="32"/>
       <c r="J160" s="32"/>
       <c r="K160" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="161" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9136,7 +9135,7 @@
         <v>42</v>
       </c>
       <c r="E161" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="F161" t="s">
         <v>28</v>
@@ -9150,7 +9149,7 @@
       <c r="I161" s="32"/>
       <c r="J161" s="32"/>
       <c r="K161" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="162" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9167,7 +9166,7 @@
         <v>45</v>
       </c>
       <c r="E162" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="F162"/>
       <c r="G162" s="19" t="s">
@@ -9179,7 +9178,7 @@
       <c r="I162" s="32"/>
       <c r="J162" s="32"/>
       <c r="K162" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="163" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9196,7 +9195,7 @@
         <v>48</v>
       </c>
       <c r="E163" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="F163"/>
       <c r="G163" s="19" t="s">
@@ -9208,7 +9207,7 @@
       <c r="I163" s="32"/>
       <c r="J163" s="32"/>
       <c r="K163" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="164" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9225,7 +9224,7 @@
         <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="F164"/>
       <c r="G164" s="27"/>
@@ -9235,7 +9234,7 @@
       <c r="I164" s="32"/>
       <c r="J164" s="32"/>
       <c r="K164" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="165" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9252,7 +9251,7 @@
         <v>53</v>
       </c>
       <c r="E165" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="F165"/>
       <c r="G165" s="19" t="s">
@@ -9264,7 +9263,7 @@
       <c r="I165" s="32"/>
       <c r="J165" s="32"/>
       <c r="K165" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="166" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9281,7 +9280,7 @@
         <v>56</v>
       </c>
       <c r="E166" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="F166"/>
       <c r="G166" s="19" t="s">
@@ -9293,7 +9292,7 @@
       <c r="I166" s="32"/>
       <c r="J166" s="32"/>
       <c r="K166" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="167" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9310,7 +9309,7 @@
         <v>12</v>
       </c>
       <c r="E167" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="F167"/>
       <c r="G167" s="27"/>
@@ -9320,7 +9319,7 @@
       <c r="I167" s="32"/>
       <c r="J167" s="32"/>
       <c r="K167" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="168" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9337,7 +9336,7 @@
         <v>61</v>
       </c>
       <c r="E168" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="F168"/>
       <c r="G168" s="19" t="s">
@@ -9349,7 +9348,7 @@
       <c r="I168" s="32"/>
       <c r="J168" s="32"/>
       <c r="K168" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="169" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9366,7 +9365,7 @@
         <v>64</v>
       </c>
       <c r="E169" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="F169"/>
       <c r="G169" s="19" t="s">
@@ -9378,7 +9377,7 @@
       <c r="I169" s="12"/>
       <c r="J169" s="32"/>
       <c r="K169" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="170" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9395,7 +9394,7 @@
         <v>67</v>
       </c>
       <c r="E170" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="F170"/>
       <c r="G170" s="19" t="s">
@@ -9407,7 +9406,7 @@
       <c r="I170" s="32"/>
       <c r="J170" s="32"/>
       <c r="K170" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="171" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9424,7 +9423,7 @@
         <v>70</v>
       </c>
       <c r="E171" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="F171"/>
       <c r="G171" s="19" t="s">
@@ -9436,7 +9435,7 @@
       <c r="I171" s="12"/>
       <c r="J171" s="32"/>
       <c r="K171" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="172" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9453,7 +9452,7 @@
         <v>73</v>
       </c>
       <c r="E172" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="F172"/>
       <c r="G172" s="19" t="s">
@@ -9465,7 +9464,7 @@
       <c r="I172" s="32"/>
       <c r="J172" s="32"/>
       <c r="K172" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="173" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9482,7 +9481,7 @@
         <v>76</v>
       </c>
       <c r="E173" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="F173"/>
       <c r="G173" s="19" t="s">
@@ -9494,7 +9493,7 @@
       <c r="I173" s="32"/>
       <c r="J173" s="32"/>
       <c r="K173" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="174" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9511,7 +9510,7 @@
         <v>13</v>
       </c>
       <c r="E174" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="F174"/>
       <c r="G174" s="27"/>
@@ -9521,7 +9520,7 @@
       <c r="I174" s="32"/>
       <c r="J174" s="32"/>
       <c r="K174" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="175" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -9538,7 +9537,7 @@
         <v>81</v>
       </c>
       <c r="E175" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="F175"/>
       <c r="G175" s="19" t="s">
@@ -9550,7 +9549,7 @@
       <c r="I175" s="32"/>
       <c r="J175" s="32"/>
       <c r="K175" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="176" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9567,7 +9566,7 @@
         <v>84</v>
       </c>
       <c r="E176" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="F176"/>
       <c r="G176" s="19" t="s">
@@ -9579,7 +9578,7 @@
       <c r="I176" s="32"/>
       <c r="J176" s="32"/>
       <c r="K176" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="177" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9596,7 +9595,7 @@
         <v>87</v>
       </c>
       <c r="E177" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="F177"/>
       <c r="G177" s="19" t="s">
@@ -9608,7 +9607,7 @@
       <c r="I177" s="32"/>
       <c r="J177" s="32"/>
       <c r="K177" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="178" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9625,7 +9624,7 @@
         <v>90</v>
       </c>
       <c r="E178" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F178"/>
       <c r="G178" s="19" t="s">
@@ -9637,7 +9636,7 @@
       <c r="I178" s="32"/>
       <c r="J178" s="32"/>
       <c r="K178" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="179" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9654,7 +9653,7 @@
         <v>93</v>
       </c>
       <c r="E179" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F179" t="s">
         <v>88</v>
@@ -9668,7 +9667,7 @@
       <c r="I179" s="32"/>
       <c r="J179" s="32"/>
       <c r="K179" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="180" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9685,7 +9684,7 @@
         <v>96</v>
       </c>
       <c r="E180" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F180" t="s">
         <v>88</v>
@@ -9699,7 +9698,7 @@
       <c r="I180" s="32"/>
       <c r="J180" s="32"/>
       <c r="K180" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="181" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9716,7 +9715,7 @@
         <v>14</v>
       </c>
       <c r="E181" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F181"/>
       <c r="G181" s="27"/>
@@ -9726,7 +9725,7 @@
       <c r="I181" s="32"/>
       <c r="J181" s="32"/>
       <c r="K181" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="182" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9743,7 +9742,7 @@
         <v>101</v>
       </c>
       <c r="E182" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F182"/>
       <c r="G182" s="19" t="s">
@@ -9755,7 +9754,7 @@
       <c r="I182" s="32"/>
       <c r="J182" s="32"/>
       <c r="K182" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="183" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9772,7 +9771,7 @@
         <v>104</v>
       </c>
       <c r="E183" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F183"/>
       <c r="G183" s="19" t="s">
@@ -9784,7 +9783,7 @@
       <c r="I183" s="32"/>
       <c r="J183" s="32"/>
       <c r="K183" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="184" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9801,7 +9800,7 @@
         <v>107</v>
       </c>
       <c r="E184" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="F184"/>
       <c r="G184" s="19" t="s">
@@ -9813,7 +9812,7 @@
       <c r="I184" s="32"/>
       <c r="J184" s="32"/>
       <c r="K184" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="185" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9830,7 +9829,7 @@
         <v>110</v>
       </c>
       <c r="E185" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="F185"/>
       <c r="G185" s="19" t="s">
@@ -9842,7 +9841,7 @@
       <c r="I185" s="32"/>
       <c r="J185" s="32"/>
       <c r="K185" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="186" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9859,7 +9858,7 @@
         <v>113</v>
       </c>
       <c r="E186" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="F186"/>
       <c r="G186" s="19" t="s">
@@ -9871,7 +9870,7 @@
       <c r="I186" s="32"/>
       <c r="J186" s="32"/>
       <c r="K186" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="187" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9888,7 +9887,7 @@
         <v>116</v>
       </c>
       <c r="E187" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="F187"/>
       <c r="G187" s="19" t="s">
@@ -9900,7 +9899,7 @@
       <c r="I187" s="32"/>
       <c r="J187" s="32"/>
       <c r="K187" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="188" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9917,7 +9916,7 @@
         <v>119</v>
       </c>
       <c r="E188" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="F188"/>
       <c r="G188" s="19" t="s">
@@ -9929,7 +9928,7 @@
       <c r="I188" s="32"/>
       <c r="J188" s="32"/>
       <c r="K188" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="189" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9946,7 +9945,7 @@
         <v>122</v>
       </c>
       <c r="E189" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="F189"/>
       <c r="G189" s="19" t="s">
@@ -9958,7 +9957,7 @@
       <c r="I189" s="32"/>
       <c r="J189" s="32"/>
       <c r="K189" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="190" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9975,7 +9974,7 @@
         <v>125</v>
       </c>
       <c r="E190" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="F190"/>
       <c r="G190" s="19" t="s">
@@ -9987,7 +9986,7 @@
       <c r="I190" s="32"/>
       <c r="J190" s="32"/>
       <c r="K190" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="191" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10012,11 +10011,11 @@
         <v>547</v>
       </c>
       <c r="I191" s="31" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="J191" s="32"/>
       <c r="K191" s="27" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="192" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10033,7 +10032,7 @@
         <v>131</v>
       </c>
       <c r="E192" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="F192" t="s">
         <v>126</v>
@@ -10047,7 +10046,7 @@
       <c r="I192" s="32"/>
       <c r="J192" s="32"/>
       <c r="K192" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="193" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10064,7 +10063,7 @@
         <v>134</v>
       </c>
       <c r="E193" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="F193" t="s">
         <v>126</v>
@@ -10078,7 +10077,7 @@
       <c r="I193" s="32"/>
       <c r="J193" s="32"/>
       <c r="K193" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="194" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -10095,7 +10094,7 @@
         <v>137</v>
       </c>
       <c r="E194" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="F194"/>
       <c r="G194" s="19" t="s">
@@ -10107,7 +10106,7 @@
       <c r="I194" s="32"/>
       <c r="J194" s="32"/>
       <c r="K194" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="195" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -10124,7 +10123,7 @@
         <v>140</v>
       </c>
       <c r="E195" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="F195"/>
       <c r="G195" s="19" t="s">
@@ -10136,7 +10135,7 @@
       <c r="I195" s="32"/>
       <c r="J195" s="32"/>
       <c r="K195" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="196" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -10153,7 +10152,7 @@
         <v>143</v>
       </c>
       <c r="E196" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="F196"/>
       <c r="G196" s="19" t="s">
@@ -10165,7 +10164,7 @@
       <c r="I196" s="32"/>
       <c r="J196" s="32"/>
       <c r="K196" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="197" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -10182,7 +10181,7 @@
         <v>146</v>
       </c>
       <c r="E197" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="F197"/>
       <c r="G197" s="19" t="s">
@@ -10194,7 +10193,7 @@
       <c r="I197" s="32"/>
       <c r="J197" s="32"/>
       <c r="K197" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="198" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -10211,7 +10210,7 @@
         <v>149</v>
       </c>
       <c r="E198" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="F198"/>
       <c r="G198" s="19" t="s">
@@ -10223,7 +10222,7 @@
       <c r="I198" s="32"/>
       <c r="J198" s="32"/>
       <c r="K198" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="199" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10248,11 +10247,11 @@
         <v>555</v>
       </c>
       <c r="I199" s="32" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J199" s="32"/>
       <c r="K199" s="27" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="200" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10269,7 +10268,7 @@
         <v>155</v>
       </c>
       <c r="E200" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="F200" t="s">
         <v>150</v>
@@ -10283,7 +10282,7 @@
       <c r="I200" s="32"/>
       <c r="J200" s="32"/>
       <c r="K200" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="201" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10300,7 +10299,7 @@
         <v>158</v>
       </c>
       <c r="E201" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="F201" t="s">
         <v>150</v>
@@ -10314,7 +10313,7 @@
       <c r="I201" s="32"/>
       <c r="J201" s="32"/>
       <c r="K201" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="202" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -10331,7 +10330,7 @@
         <v>161</v>
       </c>
       <c r="E202" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="F202"/>
       <c r="G202" s="19" t="s">
@@ -10343,7 +10342,7 @@
       <c r="I202" s="32"/>
       <c r="J202" s="32"/>
       <c r="K202" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="203" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10368,11 +10367,11 @@
         <v>559</v>
       </c>
       <c r="I203" s="32" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="J203" s="32"/>
       <c r="K203" s="27" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="204" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10389,7 +10388,7 @@
         <v>167</v>
       </c>
       <c r="E204" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="F204" t="s">
         <v>162</v>
@@ -10403,7 +10402,7 @@
       <c r="I204" s="32"/>
       <c r="J204" s="32"/>
       <c r="K204" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="205" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10420,7 +10419,7 @@
         <v>170</v>
       </c>
       <c r="E205" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="F205" t="s">
         <v>162</v>
@@ -10434,7 +10433,7 @@
       <c r="I205" s="32"/>
       <c r="J205" s="32"/>
       <c r="K205" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="206" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -10451,7 +10450,7 @@
         <v>173</v>
       </c>
       <c r="E206" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="F206"/>
       <c r="G206" s="19" t="s">
@@ -10463,7 +10462,7 @@
       <c r="I206" s="32"/>
       <c r="J206" s="32"/>
       <c r="K206" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="207" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -10480,7 +10479,7 @@
         <v>15</v>
       </c>
       <c r="E207" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="F207"/>
       <c r="G207" s="27"/>
@@ -10490,7 +10489,7 @@
       <c r="I207" s="32"/>
       <c r="J207" s="32"/>
       <c r="K207" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="208" spans="1:11" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -10507,7 +10506,7 @@
         <v>178</v>
       </c>
       <c r="E208" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="F208"/>
       <c r="G208" s="19" t="s">
@@ -10519,7 +10518,7 @@
       <c r="I208" s="32"/>
       <c r="J208" s="32"/>
       <c r="K208" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="209" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10536,7 +10535,7 @@
         <v>181</v>
       </c>
       <c r="E209" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="F209"/>
       <c r="G209" s="19" t="s">
@@ -10548,7 +10547,7 @@
       <c r="I209" s="32"/>
       <c r="J209" s="32"/>
       <c r="K209" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="210" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10565,7 +10564,7 @@
         <v>184</v>
       </c>
       <c r="E210" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="F210"/>
       <c r="G210" s="19" t="s">
@@ -10577,7 +10576,7 @@
       <c r="I210" s="32"/>
       <c r="J210" s="32"/>
       <c r="K210" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="211" spans="1:11" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -10594,7 +10593,7 @@
         <v>187</v>
       </c>
       <c r="E211" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="F211"/>
       <c r="G211" s="19" t="s">
@@ -10606,7 +10605,7 @@
       <c r="I211" s="32"/>
       <c r="J211" s="32"/>
       <c r="K211" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="212" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10623,7 +10622,7 @@
         <v>190</v>
       </c>
       <c r="E212" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="F212"/>
       <c r="G212" s="19" t="s">
@@ -10635,7 +10634,7 @@
       <c r="I212" s="32"/>
       <c r="J212" s="32"/>
       <c r="K212" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="213" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10652,7 +10651,7 @@
         <v>193</v>
       </c>
       <c r="E213" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="F213"/>
       <c r="G213" s="19" t="s">
@@ -10664,7 +10663,7 @@
       <c r="I213" s="32"/>
       <c r="J213" s="32"/>
       <c r="K213" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="214" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10681,7 +10680,7 @@
         <v>196</v>
       </c>
       <c r="E214" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="F214"/>
       <c r="G214" s="19" t="s">
@@ -10693,7 +10692,7 @@
       <c r="I214" s="32"/>
       <c r="J214" s="32"/>
       <c r="K214" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="215" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10710,7 +10709,7 @@
         <v>199</v>
       </c>
       <c r="E215" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="F215"/>
       <c r="G215" s="19" t="s">
@@ -10722,7 +10721,7 @@
       <c r="I215" s="32"/>
       <c r="J215" s="32"/>
       <c r="K215" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="216" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10739,7 +10738,7 @@
         <v>202</v>
       </c>
       <c r="E216" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="F216"/>
       <c r="G216" s="19" t="s">
@@ -10751,7 +10750,7 @@
       <c r="I216" s="32"/>
       <c r="J216" s="32"/>
       <c r="K216" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="217" spans="1:11" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -10768,7 +10767,7 @@
         <v>205</v>
       </c>
       <c r="E217" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="F217"/>
       <c r="G217" s="19" t="s">
@@ -10780,7 +10779,7 @@
       <c r="I217" s="32"/>
       <c r="J217" s="32"/>
       <c r="K217" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="218" spans="1:11" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -10797,7 +10796,7 @@
         <v>208</v>
       </c>
       <c r="E218" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="F218"/>
       <c r="G218" s="19" t="s">
@@ -10809,7 +10808,7 @@
       <c r="I218" s="32"/>
       <c r="J218" s="32"/>
       <c r="K218" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="219" spans="1:11" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -10826,7 +10825,7 @@
         <v>211</v>
       </c>
       <c r="E219" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="F219"/>
       <c r="G219" s="19" t="s">
@@ -10838,7 +10837,7 @@
       <c r="I219" s="32"/>
       <c r="J219" s="32"/>
       <c r="K219" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="220" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10855,7 +10854,7 @@
         <v>214</v>
       </c>
       <c r="E220" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="F220"/>
       <c r="G220" s="19" t="s">
@@ -10867,7 +10866,7 @@
       <c r="I220" s="32"/>
       <c r="J220" s="32"/>
       <c r="K220" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="221" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10884,7 +10883,7 @@
         <v>217</v>
       </c>
       <c r="E221" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="F221"/>
       <c r="G221" s="19" t="s">
@@ -10896,7 +10895,7 @@
       <c r="I221" s="32"/>
       <c r="J221" s="32"/>
       <c r="K221" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="222" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10913,7 +10912,7 @@
         <v>220</v>
       </c>
       <c r="E222" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="F222"/>
       <c r="G222" s="19" t="s">
@@ -10925,7 +10924,7 @@
       <c r="I222" s="32"/>
       <c r="J222" s="32"/>
       <c r="K222" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="223" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -10942,7 +10941,7 @@
         <v>223</v>
       </c>
       <c r="E223" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="F223"/>
       <c r="G223" s="19" t="s">
@@ -10954,7 +10953,7 @@
       <c r="I223" s="32"/>
       <c r="J223" s="32"/>
       <c r="K223" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="224" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -10971,7 +10970,7 @@
         <v>226</v>
       </c>
       <c r="E224" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="F224"/>
       <c r="G224" s="19" t="s">
@@ -10983,7 +10982,7 @@
       <c r="I224" s="32"/>
       <c r="J224" s="32"/>
       <c r="K224" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="225" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11000,7 +10999,7 @@
         <v>229</v>
       </c>
       <c r="E225" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="F225"/>
       <c r="G225" s="19" t="s">
@@ -11012,7 +11011,7 @@
       <c r="I225" s="32"/>
       <c r="J225" s="32"/>
       <c r="K225" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="226" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11029,7 +11028,7 @@
         <v>232</v>
       </c>
       <c r="E226" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="F226"/>
       <c r="G226" s="19" t="s">
@@ -11041,7 +11040,7 @@
       <c r="I226" s="32"/>
       <c r="J226" s="32"/>
       <c r="K226" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="227" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11058,7 +11057,7 @@
         <v>235</v>
       </c>
       <c r="E227" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="F227"/>
       <c r="G227" s="19" t="s">
@@ -11070,7 +11069,7 @@
       <c r="I227" s="32"/>
       <c r="J227" s="32"/>
       <c r="K227" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="228" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11087,7 +11086,7 @@
         <v>238</v>
       </c>
       <c r="E228" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="F228"/>
       <c r="G228" s="19" t="s">
@@ -11099,7 +11098,7 @@
       <c r="I228" s="32"/>
       <c r="J228" s="32"/>
       <c r="K228" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="229" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11116,7 +11115,7 @@
         <v>241</v>
       </c>
       <c r="E229" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="F229"/>
       <c r="G229" s="19" t="s">
@@ -11128,7 +11127,7 @@
       <c r="I229" s="32"/>
       <c r="J229" s="32"/>
       <c r="K229" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="230" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11145,7 +11144,7 @@
         <v>244</v>
       </c>
       <c r="E230" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="F230"/>
       <c r="G230" s="19" t="s">
@@ -11157,7 +11156,7 @@
       <c r="I230" s="32"/>
       <c r="J230" s="32"/>
       <c r="K230" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="231" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11174,7 +11173,7 @@
         <v>247</v>
       </c>
       <c r="E231" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="F231"/>
       <c r="G231" s="19" t="s">
@@ -11186,7 +11185,7 @@
       <c r="I231" s="32"/>
       <c r="J231" s="32"/>
       <c r="K231" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="232" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11203,7 +11202,7 @@
         <v>250</v>
       </c>
       <c r="E232" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="F232"/>
       <c r="G232" s="19" t="s">
@@ -11215,7 +11214,7 @@
       <c r="I232" s="32"/>
       <c r="J232" s="32"/>
       <c r="K232" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="233" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11232,7 +11231,7 @@
         <v>253</v>
       </c>
       <c r="E233" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="F233"/>
       <c r="G233" s="19" t="s">
@@ -11244,7 +11243,7 @@
       <c r="I233" s="32"/>
       <c r="J233" s="32"/>
       <c r="K233" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="234" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11261,7 +11260,7 @@
         <v>256</v>
       </c>
       <c r="E234" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="F234"/>
       <c r="G234" s="19" t="s">
@@ -11273,7 +11272,7 @@
       <c r="I234" s="32"/>
       <c r="J234" s="32"/>
       <c r="K234" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="235" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11290,7 +11289,7 @@
         <v>259</v>
       </c>
       <c r="E235" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="F235"/>
       <c r="G235" s="19" t="s">
@@ -11302,7 +11301,7 @@
       <c r="I235" s="32"/>
       <c r="J235" s="32"/>
       <c r="K235" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="236" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11319,7 +11318,7 @@
         <v>262</v>
       </c>
       <c r="E236" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="F236"/>
       <c r="G236" s="19" t="s">
@@ -11331,7 +11330,7 @@
       <c r="I236" s="32"/>
       <c r="J236" s="32"/>
       <c r="K236" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="237" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11348,7 +11347,7 @@
         <v>16</v>
       </c>
       <c r="E237" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="F237"/>
       <c r="G237" s="28"/>
@@ -11358,7 +11357,7 @@
       <c r="I237" s="32"/>
       <c r="J237" s="32"/>
       <c r="K237" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="238" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11375,7 +11374,7 @@
         <v>267</v>
       </c>
       <c r="E238" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="F238"/>
       <c r="G238" s="19" t="s">
@@ -11387,7 +11386,7 @@
       <c r="I238" s="32"/>
       <c r="J238" s="32"/>
       <c r="K238" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="239" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11404,7 +11403,7 @@
         <v>270</v>
       </c>
       <c r="E239" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="F239"/>
       <c r="G239" s="19" t="s">
@@ -11416,7 +11415,7 @@
       <c r="I239" s="32"/>
       <c r="J239" s="32"/>
       <c r="K239" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="240" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11433,7 +11432,7 @@
         <v>273</v>
       </c>
       <c r="E240" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="F240"/>
       <c r="G240" s="19" t="s">
@@ -11445,7 +11444,7 @@
       <c r="I240" s="32"/>
       <c r="J240" s="32"/>
       <c r="K240" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="241" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11462,7 +11461,7 @@
         <v>276</v>
       </c>
       <c r="E241" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="F241"/>
       <c r="G241" s="19" t="s">
@@ -11474,7 +11473,7 @@
       <c r="I241" s="32"/>
       <c r="J241" s="32"/>
       <c r="K241" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="242" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11491,7 +11490,7 @@
         <v>17</v>
       </c>
       <c r="E242" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="F242"/>
       <c r="G242" s="28"/>
@@ -11501,7 +11500,7 @@
       <c r="I242" s="32"/>
       <c r="J242" s="32"/>
       <c r="K242" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="243" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11518,7 +11517,7 @@
         <v>281</v>
       </c>
       <c r="E243" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="F243"/>
       <c r="G243" s="19" t="s">
@@ -11530,7 +11529,7 @@
       <c r="I243" s="32"/>
       <c r="J243" s="32"/>
       <c r="K243" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="244" spans="1:11" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -11547,7 +11546,7 @@
         <v>284</v>
       </c>
       <c r="E244" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="F244"/>
       <c r="G244" s="19" t="s">
@@ -11559,7 +11558,7 @@
       <c r="I244" s="32"/>
       <c r="J244" s="32"/>
       <c r="K244" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="245" spans="1:11" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -11576,7 +11575,7 @@
         <v>287</v>
       </c>
       <c r="E245" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="F245" s="12"/>
       <c r="G245" s="19" t="s">
@@ -11588,7 +11587,7 @@
       <c r="I245" s="32"/>
       <c r="J245" s="32"/>
       <c r="K245" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="246" spans="1:11" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -11605,7 +11604,7 @@
         <v>290</v>
       </c>
       <c r="E246" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="F246" s="12"/>
       <c r="G246" s="19" t="s">
@@ -11617,7 +11616,7 @@
       <c r="I246" s="32"/>
       <c r="J246" s="32"/>
       <c r="K246" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="247" spans="1:11" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -11634,7 +11633,7 @@
         <v>293</v>
       </c>
       <c r="E247" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="F247" s="12"/>
       <c r="G247" s="19" t="s">
@@ -11646,7 +11645,7 @@
       <c r="I247" s="32"/>
       <c r="J247" s="32"/>
       <c r="K247" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="248" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11663,7 +11662,7 @@
         <v>18</v>
       </c>
       <c r="E248" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="F248" s="12"/>
       <c r="G248" s="33"/>
@@ -11673,7 +11672,7 @@
       <c r="I248" s="32"/>
       <c r="J248" s="32"/>
       <c r="K248" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="249" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11690,7 +11689,7 @@
         <v>298</v>
       </c>
       <c r="E249" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="F249" s="12"/>
       <c r="G249" s="30" t="s">
@@ -11702,7 +11701,7 @@
       <c r="I249" s="32"/>
       <c r="J249" s="32"/>
       <c r="K249" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="250" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11719,7 +11718,7 @@
         <v>301</v>
       </c>
       <c r="E250" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="F250" s="12"/>
       <c r="G250" s="30" t="s">
@@ -11731,7 +11730,7 @@
       <c r="I250" s="32"/>
       <c r="J250" s="32"/>
       <c r="K250" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="251" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11748,7 +11747,7 @@
         <v>304</v>
       </c>
       <c r="E251" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="F251" s="12"/>
       <c r="G251" s="30" t="s">
@@ -11760,7 +11759,7 @@
       <c r="I251" s="32"/>
       <c r="J251" s="32"/>
       <c r="K251" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="252" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11777,7 +11776,7 @@
         <v>307</v>
       </c>
       <c r="E252" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="F252" s="12"/>
       <c r="G252" s="30" t="s">
@@ -11789,7 +11788,7 @@
       <c r="I252" s="32"/>
       <c r="J252" s="32"/>
       <c r="K252" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="253" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11806,7 +11805,7 @@
         <v>310</v>
       </c>
       <c r="E253" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="F253" s="12"/>
       <c r="G253" s="30" t="s">
@@ -11818,7 +11817,7 @@
       <c r="I253" s="32"/>
       <c r="J253" s="32"/>
       <c r="K253" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="254" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11835,7 +11834,7 @@
         <v>313</v>
       </c>
       <c r="E254" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="F254" s="12"/>
       <c r="G254" s="30" t="s">
@@ -11847,7 +11846,7 @@
       <c r="I254" s="32"/>
       <c r="J254" s="32"/>
       <c r="K254" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="255" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11864,7 +11863,7 @@
         <v>316</v>
       </c>
       <c r="E255" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="F255" s="12" t="s">
         <v>311</v>
@@ -11878,7 +11877,7 @@
       <c r="I255" s="32"/>
       <c r="J255" s="32"/>
       <c r="K255" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="256" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11895,7 +11894,7 @@
         <v>319</v>
       </c>
       <c r="E256" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="F256" s="12" t="s">
         <v>311</v>
@@ -11909,7 +11908,7 @@
       <c r="I256" s="32"/>
       <c r="J256" s="32"/>
       <c r="K256" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="257" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11926,7 +11925,7 @@
         <v>322</v>
       </c>
       <c r="E257" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="F257" s="12"/>
       <c r="G257" s="30" t="s">
@@ -11938,7 +11937,7 @@
       <c r="I257" s="32"/>
       <c r="J257" s="32"/>
       <c r="K257" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="258" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11955,7 +11954,7 @@
         <v>19</v>
       </c>
       <c r="E258" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="F258" s="12"/>
       <c r="G258" s="33"/>
@@ -11965,7 +11964,7 @@
       <c r="I258" s="32"/>
       <c r="J258" s="32"/>
       <c r="K258" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="259" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11982,7 +11981,7 @@
         <v>327</v>
       </c>
       <c r="E259" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="F259" s="12"/>
       <c r="G259" s="30" t="s">
@@ -11994,7 +11993,7 @@
       <c r="I259" s="32"/>
       <c r="J259" s="32"/>
       <c r="K259" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="260" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12011,7 +12010,7 @@
         <v>330</v>
       </c>
       <c r="E260" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="F260" s="12"/>
       <c r="G260" s="30" t="s">
@@ -12023,7 +12022,7 @@
       <c r="I260" s="32"/>
       <c r="J260" s="32"/>
       <c r="K260" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="261" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12040,7 +12039,7 @@
         <v>333</v>
       </c>
       <c r="E261" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="F261" s="12" t="s">
         <v>328</v>
@@ -12054,7 +12053,7 @@
       <c r="I261" s="32"/>
       <c r="J261" s="32"/>
       <c r="K261" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="262" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12071,7 +12070,7 @@
         <v>336</v>
       </c>
       <c r="E262" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="F262" s="12" t="s">
         <v>328</v>
@@ -12085,7 +12084,7 @@
       <c r="I262" s="32"/>
       <c r="J262" s="32"/>
       <c r="K262" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="263" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -12102,7 +12101,7 @@
         <v>339</v>
       </c>
       <c r="E263" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="F263" s="12"/>
       <c r="G263" s="30" t="s">
@@ -12114,7 +12113,7 @@
       <c r="I263" s="32"/>
       <c r="J263" s="32"/>
       <c r="K263" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="264" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -12131,7 +12130,7 @@
         <v>342</v>
       </c>
       <c r="E264" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="F264" s="12"/>
       <c r="G264" s="30" t="s">
@@ -12143,7 +12142,7 @@
       <c r="I264" s="32"/>
       <c r="J264" s="32"/>
       <c r="K264" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="265" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12160,7 +12159,7 @@
         <v>20</v>
       </c>
       <c r="E265" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="F265" s="12"/>
       <c r="G265" s="33"/>
@@ -12170,7 +12169,7 @@
       <c r="I265" s="32"/>
       <c r="J265" s="32"/>
       <c r="K265" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="266" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12187,7 +12186,7 @@
         <v>351</v>
       </c>
       <c r="E266" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="F266" s="12"/>
       <c r="G266" s="30" t="s">
@@ -12199,7 +12198,7 @@
       <c r="I266" s="32"/>
       <c r="J266" s="32"/>
       <c r="K266" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="267" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12216,7 +12215,7 @@
         <v>354</v>
       </c>
       <c r="E267" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="F267" s="12"/>
       <c r="G267" s="30" t="s">
@@ -12228,7 +12227,7 @@
       <c r="I267" s="32"/>
       <c r="J267" s="32"/>
       <c r="K267" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="268" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -12245,7 +12244,7 @@
         <v>357</v>
       </c>
       <c r="E268" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="F268" s="12"/>
       <c r="G268" s="30" t="s">
@@ -12257,7 +12256,7 @@
       <c r="I268" s="32"/>
       <c r="J268" s="32"/>
       <c r="K268" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="269" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12274,7 +12273,7 @@
         <v>360</v>
       </c>
       <c r="E269" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="F269" s="12"/>
       <c r="G269" s="30" t="s">
@@ -12286,7 +12285,7 @@
       <c r="I269" s="32"/>
       <c r="J269" s="32"/>
       <c r="K269" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="270" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -12303,7 +12302,7 @@
         <v>363</v>
       </c>
       <c r="E270" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="F270" s="12"/>
       <c r="G270" s="30" t="s">
@@ -12315,7 +12314,7 @@
       <c r="I270" s="32"/>
       <c r="J270" s="32"/>
       <c r="K270" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="271" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12332,7 +12331,7 @@
         <v>366</v>
       </c>
       <c r="E271" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="F271" s="12"/>
       <c r="G271" s="30" t="s">
@@ -12344,7 +12343,7 @@
       <c r="I271" s="32"/>
       <c r="J271" s="32"/>
       <c r="K271" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="272" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -12361,7 +12360,7 @@
         <v>369</v>
       </c>
       <c r="E272" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="F272" s="12"/>
       <c r="G272" s="30" t="s">
@@ -12373,7 +12372,7 @@
       <c r="I272" s="32"/>
       <c r="J272" s="32"/>
       <c r="K272" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="273" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12390,7 +12389,7 @@
         <v>372</v>
       </c>
       <c r="E273" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="F273" s="12"/>
       <c r="G273" s="30" t="s">
@@ -12402,7 +12401,7 @@
       <c r="I273" s="32"/>
       <c r="J273" s="32"/>
       <c r="K273" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="274" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -12419,7 +12418,7 @@
         <v>375</v>
       </c>
       <c r="E274" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="F274" s="12"/>
       <c r="G274" s="30" t="s">
@@ -12431,7 +12430,7 @@
       <c r="I274" s="32"/>
       <c r="J274" s="32"/>
       <c r="K274" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="275" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12448,7 +12447,7 @@
         <v>378</v>
       </c>
       <c r="E275" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="F275" s="12"/>
       <c r="G275" s="30" t="s">
@@ -12460,7 +12459,7 @@
       <c r="I275" s="32"/>
       <c r="J275" s="32"/>
       <c r="K275" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="276" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12477,7 +12476,7 @@
         <v>381</v>
       </c>
       <c r="E276" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="F276" s="12"/>
       <c r="G276" s="30" t="s">
@@ -12489,7 +12488,7 @@
       <c r="I276" s="32"/>
       <c r="J276" s="32"/>
       <c r="K276" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="277" spans="1:11" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -12506,7 +12505,7 @@
         <v>384</v>
       </c>
       <c r="E277" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="F277" s="12"/>
       <c r="G277" s="30" t="s">
@@ -12518,7 +12517,7 @@
       <c r="I277" s="32"/>
       <c r="J277" s="32"/>
       <c r="K277" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="278" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12632,7 +12631,7 @@
       <c r="E477" s="5"/>
       <c r="G477" s="10"/>
       <c r="H477" s="2"/>
-      <c r="I477" s="47"/>
+      <c r="I477" s="46"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:K477">
@@ -12641,7 +12640,7 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{97D0FE00-0703-48CF-A3AC-F8C02E75A146}"/>
     <hyperlink ref="C3" r:id="rId2" display="http://registry.it.csiro.au/sandbox/soil/scma/" xr:uid="{BB921B57-84FB-4D0B-B401-C316ED0CBD5E}"/>
-    <hyperlink ref="B1" r:id="rId3" display="http://registry.it.csiro.au/sandbox/soil/scma" xr:uid="{E5A211B5-32F4-4D0B-A082-A3D428E2FB08}"/>
+    <hyperlink ref="B1" r:id="rId3" xr:uid="{E5A211B5-32F4-4D0B-A082-A3D428E2FB08}"/>
     <hyperlink ref="H108" r:id="rId4" xr:uid="{EEBDE4B1-0DD6-4612-88C0-B735090E9501}"/>
     <hyperlink ref="C5" r:id="rId5" xr:uid="{E133B0A9-2102-4B70-B4D3-0F005238F1C8}"/>
     <hyperlink ref="H22" r:id="rId6" xr:uid="{FFFD89A4-160B-43B2-BD70-7C93A30A9BFC}"/>
@@ -12778,10 +12777,12 @@
     <hyperlink ref="E26" r:id="rId137" xr:uid="{D8EC1A48-443B-49CD-8D26-7CC2AA23D135}"/>
     <hyperlink ref="E27" r:id="rId138" xr:uid="{91C75FD7-25DF-42C8-AD4B-B2402A824327}"/>
     <hyperlink ref="E28" r:id="rId139" xr:uid="{99A72291-0FF9-459A-85D7-36F2B3051B7B}"/>
+    <hyperlink ref="B17" r:id="rId140" xr:uid="{E2214506-3CFC-4340-9DE2-7FE71E72CC9B}"/>
+    <hyperlink ref="B11" r:id="rId141" xr:uid="{6397A67D-96D4-4B6A-8B18-0DB82AEAF98E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId140"/>
-  <legacyDrawing r:id="rId141"/>
+  <pageSetup orientation="portrait" r:id="rId142"/>
+  <legacyDrawing r:id="rId143"/>
 </worksheet>
 </file>
 
